--- a/新导表工具/DataTables/Datas/技能表.xlsx
+++ b/新导表工具/DataTables/Datas/技能表.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuanguo/Game/HEDAO/导表工具/Excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD20D8E4-BA11-BE4B-8B5B-DAEB383DABA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4549D670-608B-4F64-92E5-8E33167288C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="战斗技能表" sheetId="4" r:id="rId1"/>
-    <sheet name="移动技能表" sheetId="5" r:id="rId2"/>
+    <sheet name="技能表" sheetId="6" r:id="rId2"/>
+    <sheet name="移动技能表" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="38">
   <si>
     <t>##</t>
   </si>
@@ -150,6 +151,26 @@
   </si>
   <si>
     <t>小碎步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle.Effect</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddBuff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -157,7 +178,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -188,6 +209,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -202,7 +229,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -225,6 +252,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -234,7 +287,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -245,6 +298,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -528,29 +590,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.1640625" style="1"/>
     <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" style="1"/>
+    <col min="8" max="8" width="24.9140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.08203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.58203125" customWidth="1"/>
     <col min="11" max="11" width="13" style="1" customWidth="1"/>
     <col min="12" max="12" width="13.33203125" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -578,8 +640,12 @@
       <c r="I1" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="3" customFormat="1">
+      <c r="J1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -607,13 +673,19 @@
       <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" s="3" customFormat="1">
+      <c r="J2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="3" customFormat="1">
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -641,8 +713,12 @@
       <c r="I4" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -660,8 +736,14 @@
       <c r="H5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -679,8 +761,14 @@
       <c r="H6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -698,8 +786,14 @@
       <c r="H7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -717,8 +811,20 @@
       <c r="H8" s="1">
         <v>2</v>
       </c>
+      <c r="J8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -726,6 +832,120 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78EA14D-F5E3-4442-94A0-B5F48E7A0F1C}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.58203125" customWidth="1"/>
+    <col min="7" max="7" width="23.08203125" customWidth="1"/>
+    <col min="8" max="9" width="27.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9D4621-89A1-2E48-BF15-04B5E89DB00B}">
   <dimension ref="A1:G21"/>
   <sheetViews>
@@ -733,14 +953,14 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="10.83203125" style="1"/>
     <col min="6" max="6" width="15.83203125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -763,7 +983,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1">
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -786,12 +1006,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1">
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -814,7 +1034,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -828,7 +1048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -842,7 +1062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="5:5">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E21" s="2"/>
     </row>
   </sheetData>

--- a/新导表工具/DataTables/Datas/技能表.xlsx
+++ b/新导表工具/DataTables/Datas/技能表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4549D670-608B-4F64-92E5-8E33167288C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78EB120-B67C-419E-85DF-DC427599A7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="37">
   <si>
     <t>##</t>
   </si>
@@ -166,12 +166,8 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Effect?</t>
+    <t>Battle.Effect?</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -287,7 +283,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -299,9 +295,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -593,7 +586,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,10 +633,10 @@
       <c r="I1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="6"/>
+      <c r="J1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -673,17 +666,17 @@
       <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="6"/>
+      <c r="J2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -713,10 +706,10 @@
       <c r="I4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="6"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
@@ -736,12 +729,7 @@
       <c r="H5" s="1">
         <v>1</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
@@ -761,12 +749,7 @@
       <c r="H6" s="1">
         <v>1</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
@@ -786,12 +769,7 @@
       <c r="H7" s="1">
         <v>1</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
@@ -811,12 +789,7 @@
       <c r="H8" s="1">
         <v>2</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
+      <c r="J8" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/新导表工具/DataTables/Datas/技能表.xlsx
+++ b/新导表工具/DataTables/Datas/技能表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78EB120-B67C-419E-85DF-DC427599A7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8880C622-602A-4BA6-AE23-44E8C36402AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="战斗技能表" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
   <si>
     <t>##</t>
   </si>
@@ -152,10 +152,6 @@
   <si>
     <t>小碎步</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battle.Effect</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Effect</t>
@@ -168,6 +164,13 @@
   <si>
     <t>Battle.Effect?</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础剑招·刺</t>
   </si>
 </sst>
 </file>
@@ -585,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView zoomScale="108" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,7 +637,7 @@
         <v>28</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K1" s="5"/>
     </row>
@@ -667,7 +670,7 @@
         <v>15</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K2" s="5"/>
     </row>
@@ -707,7 +710,7 @@
         <v>27</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K4" s="5"/>
     </row>
@@ -806,21 +809,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78EA14D-F5E3-4442-94A0-B5F48E7A0F1C}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="13.9140625" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" customWidth="1"/>
     <col min="6" max="6" width="13.58203125" customWidth="1"/>
     <col min="7" max="7" width="23.08203125" customWidth="1"/>
-    <col min="8" max="9" width="27.08203125" customWidth="1"/>
+    <col min="8" max="8" width="27.08203125" customWidth="1"/>
+    <col min="9" max="9" width="13.58203125" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -845,11 +851,12 @@
       <c r="H1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -874,16 +881,19 @@
       <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -908,11 +918,44 @@
       <c r="H4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="I4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>1001</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I8" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/新导表工具/DataTables/Datas/技能表.xlsx
+++ b/新导表工具/DataTables/Datas/技能表.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8880C622-602A-4BA6-AE23-44E8C36402AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FCF1FE-D3A1-41E8-BC13-44CF8C88A4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6590" yWindow="3830" windowWidth="28340" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="战斗技能表" sheetId="4" r:id="rId1"/>
-    <sheet name="技能表" sheetId="6" r:id="rId2"/>
-    <sheet name="移动技能表" sheetId="5" r:id="rId3"/>
+    <sheet name="移动技能表" sheetId="5" r:id="rId2"/>
+    <sheet name="技能表" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="47">
   <si>
     <t>##</t>
   </si>
@@ -171,6 +171,42 @@
   </si>
   <si>
     <t>基础剑招·刺</t>
+  </si>
+  <si>
+    <t>基础剑招·崩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distance</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsTarget</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>$type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>*Effect</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,Battle.Effect</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -211,6 +247,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -228,7 +265,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -277,6 +314,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -286,7 +334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -303,6 +351,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -636,10 +693,10 @@
       <c r="I1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="5"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -669,17 +726,17 @@
       <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="5"/>
+      <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -709,10 +766,10 @@
       <c r="I4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="5"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
@@ -808,160 +865,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78EA14D-F5E3-4442-94A0-B5F48E7A0F1C}">
-  <dimension ref="A1:J8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="13.9140625" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
-    <col min="6" max="6" width="13.58203125" customWidth="1"/>
-    <col min="7" max="7" width="23.08203125" customWidth="1"/>
-    <col min="8" max="8" width="27.08203125" customWidth="1"/>
-    <col min="9" max="9" width="13.58203125" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>1001</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I8" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9D4621-89A1-2E48-BF15-04B5E89DB00B}">
   <dimension ref="A1:G21"/>
   <sheetViews>
@@ -1085,4 +988,202 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78EA14D-F5E3-4442-94A0-B5F48E7A0F1C}">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.9140625" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.58203125" customWidth="1"/>
+    <col min="7" max="7" width="23.08203125" customWidth="1"/>
+    <col min="8" max="8" width="27.08203125" customWidth="1"/>
+    <col min="9" max="9" width="13.58203125" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>1001</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>1002</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I9" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="I1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/新导表工具/DataTables/Datas/技能表.xlsx
+++ b/新导表工具/DataTables/Datas/技能表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FCF1FE-D3A1-41E8-BC13-44CF8C88A4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32ED2D73-E9AF-4C8B-AEB6-1203EF5D75A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6590" yWindow="3830" windowWidth="28340" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
   <si>
     <t>##</t>
   </si>
@@ -206,6 +206,22 @@
   </si>
   <si>
     <t>list,Battle.Effect</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>威力</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动距离</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标生效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -334,7 +350,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -348,9 +364,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -693,10 +706,10 @@
       <c r="I1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="7"/>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -726,17 +739,17 @@
       <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="7"/>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -766,10 +779,10 @@
       <c r="I4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="7"/>
+      <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
@@ -992,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78EA14D-F5E3-4442-94A0-B5F48E7A0F1C}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,8 +1018,10 @@
     <col min="6" max="6" width="13.58203125" customWidth="1"/>
     <col min="7" max="7" width="23.08203125" customWidth="1"/>
     <col min="8" max="8" width="27.08203125" customWidth="1"/>
-    <col min="9" max="9" width="13.58203125" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="10" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08203125" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1034,12 +1049,12 @@
       <c r="H1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1066,122 +1081,144 @@
       <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>43</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>1001</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>1001</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2</v>
-      </c>
-      <c r="I5" s="2" t="s">
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>1002</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J8" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I6" s="2" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>1002</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I9" s="1"/>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I10" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="I1:L1"/>
+    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/新导表工具/DataTables/Datas/技能表.xlsx
+++ b/新导表工具/DataTables/Datas/技能表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32ED2D73-E9AF-4C8B-AEB6-1203EF5D75A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAD581A-8C81-48C5-9ADB-EA4CFD811194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6590" yWindow="3830" windowWidth="28340" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6590" yWindow="3830" windowWidth="28340" windowHeight="15460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="战斗技能表" sheetId="4" r:id="rId1"/>
@@ -881,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9D4621-89A1-2E48-BF15-04B5E89DB00B}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="5:5" x14ac:dyDescent="0.25">
@@ -1007,7 +1007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78EA14D-F5E3-4442-94A0-B5F48E7A0F1C}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>

--- a/新导表工具/DataTables/Datas/技能表.xlsx
+++ b/新导表工具/DataTables/Datas/技能表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAD581A-8C81-48C5-9ADB-EA4CFD811194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447F61B1-E809-4EC4-836B-01140C0856A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6590" yWindow="3830" windowWidth="28340" windowHeight="15460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="战斗技能表" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="56">
   <si>
     <t>##</t>
   </si>
@@ -222,6 +222,26 @@
   </si>
   <si>
     <t>##</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReleaseRange</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>十字</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle.GridRange</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -881,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9D4621-89A1-2E48-BF15-04B5E89DB00B}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78EA14D-F5E3-4442-94A0-B5F48E7A0F1C}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,15 +1036,15 @@
     <col min="3" max="3" width="13.9140625" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" customWidth="1"/>
     <col min="6" max="6" width="13.58203125" customWidth="1"/>
-    <col min="7" max="7" width="23.08203125" customWidth="1"/>
-    <col min="8" max="8" width="27.08203125" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="10" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08203125" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" customWidth="1"/>
+    <col min="7" max="9" width="23.08203125" customWidth="1"/>
+    <col min="10" max="10" width="27.08203125" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="10" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.08203125" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -1046,17 +1066,21 @@
       <c r="G1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="6"/>
-    </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1078,46 +1102,56 @@
       <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="H4" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="I4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -1139,23 +1173,23 @@
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>1001</v>
       </c>
@@ -1165,25 +1199,31 @@
       <c r="G6" s="1">
         <v>2</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="H6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="1">
+      <c r="L6" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I7" s="2" t="s">
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1" t="b">
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>1002</v>
       </c>
@@ -1193,32 +1233,40 @@
       <c r="G8" s="1">
         <v>1</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="1">
+      <c r="L8" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I9" s="2" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K9" s="1">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I10" s="1"/>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K10" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="K3:L3"/>
+  <mergeCells count="5">
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/新导表工具/DataTables/Datas/技能表.xlsx
+++ b/新导表工具/DataTables/Datas/技能表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447F61B1-E809-4EC4-836B-01140C0856A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FFBA94-F6B0-415C-ACEF-880DADE40D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5290" yWindow="7890" windowWidth="28340" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="战斗技能表" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="57">
   <si>
     <t>##</t>
   </si>
@@ -242,6 +242,10 @@
   </si>
   <si>
     <t>Battle.GridRange</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认攻击</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1025,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78EA14D-F5E3-4442-94A0-B5F48E7A0F1C}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I2"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,75 +1195,114 @@
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
-        <v>1001</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>1000</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="G6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>36</v>
       </c>
       <c r="L6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>1001</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K7" s="2" t="s">
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="1">
-        <v>1</v>
-      </c>
-      <c r="N7" s="1" t="b">
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
         <v>1002</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L9" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K9" s="2" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M9" s="1">
-        <v>1</v>
-      </c>
-      <c r="N9" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K10" s="1"/>
-    </row>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="K2:N2"/>

--- a/新导表工具/DataTables/Datas/技能表.xlsx
+++ b/新导表工具/DataTables/Datas/技能表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FFBA94-F6B0-415C-ACEF-880DADE40D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD37F98-D281-46B2-841A-B24A607A7569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5290" yWindow="7890" windowWidth="28340" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14340" yWindow="3610" windowWidth="21450" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="战斗技能表" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="60">
   <si>
     <t>##</t>
   </si>
@@ -246,6 +246,18 @@
   </si>
   <si>
     <t>默认攻击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectRange</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火云</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>正方形</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1031,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78EA14D-F5E3-4442-94A0-B5F48E7A0F1C}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,8 +1052,7 @@
     <col min="3" max="3" width="13.9140625" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" customWidth="1"/>
     <col min="6" max="6" width="13.58203125" customWidth="1"/>
-    <col min="7" max="9" width="23.08203125" customWidth="1"/>
-    <col min="10" max="10" width="27.08203125" customWidth="1"/>
+    <col min="7" max="10" width="23.08203125" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
     <col min="12" max="12" width="10" style="1" customWidth="1"/>
     <col min="13" max="13" width="9.08203125" customWidth="1"/>
@@ -1067,16 +1078,14 @@
       <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="6"/>
       <c r="K1" s="5" t="s">
         <v>45</v>
       </c>
@@ -1103,16 +1112,14 @@
       <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="6"/>
       <c r="K2" s="5" t="s">
         <v>46</v>
       </c>
@@ -1136,10 +1143,16 @@
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="G4" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="H4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="K4" s="3" t="s">
@@ -1174,12 +1187,6 @@
       <c r="F5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="K5" s="4" t="s">
         <v>39</v>
       </c>
@@ -1200,13 +1207,13 @@
       <c r="C6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="F6" s="1">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="1">
+      <c r="H6" s="1">
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -1223,13 +1230,13 @@
       <c r="C7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="1">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="1">
+      <c r="H7" s="1">
         <v>2</v>
       </c>
       <c r="K7" s="2" t="s">
@@ -1257,13 +1264,13 @@
       <c r="C9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="1">
+      <c r="H9" s="1">
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -1284,7 +1291,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>1003</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="1">
+        <v>10</v>
+      </c>
+    </row>
     <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1304,12 +1339,14 @@
     <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="M3:N3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/新导表工具/DataTables/Datas/技能表.xlsx
+++ b/新导表工具/DataTables/Datas/技能表.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD37F98-D281-46B2-841A-B24A607A7569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B4A1CC-90EE-4854-A3CF-B0090455D4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14340" yWindow="3610" windowWidth="21450" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6420" yWindow="5080" windowWidth="25160" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="战斗技能表" sheetId="4" r:id="rId1"/>
     <sheet name="移动技能表" sheetId="5" r:id="rId2"/>
     <sheet name="技能表" sheetId="6" r:id="rId3"/>
+    <sheet name="Buff表" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="66">
   <si>
     <t>##</t>
   </si>
@@ -258,6 +259,30 @@
   </si>
   <si>
     <t>正方形</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Round</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续回合</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddBuff</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffId</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -265,7 +290,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -300,6 +325,12 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -386,7 +417,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -397,6 +428,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -742,10 +776,10 @@
       <c r="I1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="6"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -775,17 +809,17 @@
       <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="6"/>
+      <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -815,10 +849,10 @@
       <c r="I4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="6"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
@@ -1041,10 +1075,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78EA14D-F5E3-4442-94A0-B5F48E7A0F1C}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,7 +1093,7 @@
     <col min="14" max="14" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -1078,22 +1112,23 @@
       <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="5" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="5" t="s">
+      <c r="J1" s="7"/>
+      <c r="K1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="7"/>
+    </row>
+    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1112,34 +1147,38 @@
       <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="5" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>50</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="7"/>
+      <c r="O3" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1167,8 +1206,11 @@
       <c r="N4" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O4" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -1200,7 +1242,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>1000</v>
       </c>
@@ -1223,7 +1265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>1001</v>
       </c>
@@ -1246,7 +1288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K8" s="2" t="s">
         <v>41</v>
       </c>
@@ -1257,7 +1299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>1002</v>
       </c>
@@ -1280,7 +1322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1291,7 +1333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>1003</v>
       </c>
@@ -1320,11 +1362,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1340,15 +1389,153 @@
     <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="K1:O1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BCE222-9C0B-4DC0-9310-BCC47B222158}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>1001</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="F3:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/新导表工具/DataTables/Datas/技能表.xlsx
+++ b/新导表工具/DataTables/Datas/技能表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B4A1CC-90EE-4854-A3CF-B0090455D4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F71993-8FB4-4A51-8D4B-BBABEA53E46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6420" yWindow="5080" windowWidth="25160" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="68">
   <si>
     <t>##</t>
   </si>
@@ -283,6 +283,14 @@
   </si>
   <si>
     <t>BuffId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火蛇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>长条</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1077,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78EA14D-F5E3-4442-94A0-B5F48E7A0F1C}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12:O12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1370,8 +1378,40 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>1004</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="1">
+        <v>4</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1001</v>
+      </c>
+    </row>
     <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/新导表工具/DataTables/Datas/技能表.xlsx
+++ b/新导表工具/DataTables/Datas/技能表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F71993-8FB4-4A51-8D4B-BBABEA53E46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FA7D56-32B3-4654-94FB-F0BB182508A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6420" yWindow="5080" windowWidth="25160" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="70">
   <si>
     <t>##</t>
   </si>
@@ -291,6 +291,14 @@
   </si>
   <si>
     <t>长条</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金光咒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚如磐石</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1086,7 +1094,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J1"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,7 +1375,7 @@
         <v>36</v>
       </c>
       <c r="L11" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1412,21 +1420,70 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>1005</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="1">
+        <v>10</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>1006</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5</v>
+      </c>
+      <c r="H17" s="1">
+        <v>3</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="M3:N3"/>

--- a/新导表工具/DataTables/Datas/技能表.xlsx
+++ b/新导表工具/DataTables/Datas/技能表.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FA7D56-32B3-4654-94FB-F0BB182508A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814B91EB-8558-40B5-B235-1128F7B8169C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="5080" windowWidth="25160" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2170" yWindow="5170" windowWidth="30030" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="战斗技能表" sheetId="4" r:id="rId1"/>
-    <sheet name="移动技能表" sheetId="5" r:id="rId2"/>
-    <sheet name="技能表" sheetId="6" r:id="rId3"/>
-    <sheet name="Buff表" sheetId="7" r:id="rId4"/>
+    <sheet name="移动技能表" sheetId="5" r:id="rId1"/>
+    <sheet name="技能表" sheetId="6" r:id="rId2"/>
+    <sheet name="Buff表" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="69">
   <si>
     <t>##</t>
   </si>
@@ -111,62 +110,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>眨眼剑法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>威力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CastDistance#default=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作用距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectDistance#default=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火弹术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敲击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平砍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小碎步</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Effect</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battle.Effect?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Attack</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -251,10 +198,6 @@
   </si>
   <si>
     <t>EffectRange</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>火云</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -298,8 +241,60 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>坚如磐石</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>灵气护体·土</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttrModify</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttrModify</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttrType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>焚风</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBuffCondType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CondType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发条件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂载生效</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -433,7 +428,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -444,6 +439,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -741,229 +739,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K8"/>
-  <sheetViews>
-    <sheetView zoomScale="108" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="9.1640625" style="1"/>
-    <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.9140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.08203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.58203125" customWidth="1"/>
-    <col min="11" max="11" width="13" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="1">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1">
-        <v>5</v>
-      </c>
-      <c r="H8" s="1">
-        <v>2</v>
-      </c>
-      <c r="J8" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J3:K3"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9D4621-89A1-2E48-BF15-04B5E89DB00B}">
   <dimension ref="A1:G21"/>
   <sheetViews>
@@ -1057,7 +832,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1089,12 +864,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78EA14D-F5E3-4442-94A0-B5F48E7A0F1C}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,21 +903,21 @@
       <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="7"/>
+      <c r="G1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="8"/>
     </row>
     <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1163,35 +938,35 @@
       <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="8"/>
     </row>
     <row r="3" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="8"/>
+      <c r="O3" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1199,36 +974,36 @@
         <v>11</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
@@ -1246,16 +1021,16 @@
         <v>16</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1263,19 +1038,19 @@
         <v>1000</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F6" s="1">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
@@ -1286,19 +1061,19 @@
         <v>1001</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="H7" s="1">
         <v>2</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="L7" s="1">
         <v>10</v>
@@ -1306,7 +1081,7 @@
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K8" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="M8" s="1">
         <v>1</v>
@@ -1320,19 +1095,19 @@
         <v>1002</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="L9" s="1">
         <v>10</v>
@@ -1340,7 +1115,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K10" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="M10" s="1">
         <v>1</v>
@@ -1354,25 +1129,25 @@
         <v>1003</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F11" s="1">
         <v>5</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H11" s="1">
         <v>3</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="L11" s="1">
         <v>8</v>
@@ -1380,7 +1155,7 @@
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K12" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="O12" s="1">
         <v>1001</v>
@@ -1391,7 +1166,7 @@
         <v>1004</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F13" s="1">
         <v>3</v>
@@ -1400,13 +1175,13 @@
         <v>1</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="J13" s="1">
         <v>4</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="L13" s="1">
         <v>10</v>
@@ -1414,7 +1189,7 @@
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K14" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="O14" s="1">
         <v>1001</v>
@@ -1425,7 +1200,7 @@
         <v>1005</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="F15" s="1">
         <v>10</v>
@@ -1434,7 +1209,7 @@
         <v>2</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="L15" s="1">
         <v>12</v>
@@ -1442,7 +1217,7 @@
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K16" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="O16" s="1">
         <v>1002</v>
@@ -1453,7 +1228,7 @@
         <v>1006</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F17" s="1">
         <v>5</v>
@@ -1462,7 +1237,7 @@
         <v>3</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="O17" s="1">
         <v>1003</v>
@@ -1499,17 +1274,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BCE222-9C0B-4DC0-9310-BCC47B222158}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -1517,16 +1297,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1534,68 +1317,74 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>1001</v>
       </c>
@@ -1603,22 +1392,63 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="1">
+        <v>67</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>1002</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>1003</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1628,9 +1458,9 @@
     <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/新导表工具/DataTables/Datas/技能表.xlsx
+++ b/新导表工具/DataTables/Datas/技能表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814B91EB-8558-40B5-B235-1128F7B8169C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAF8D9A-B3AB-4DD3-9A51-CBB6462A28F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2170" yWindow="5170" windowWidth="30030" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2170" yWindow="5170" windowWidth="30030" windowHeight="15460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="移动技能表" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="74">
   <si>
     <t>##</t>
   </si>
@@ -294,6 +294,26 @@
   </si>
   <si>
     <t>挂载生效</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法者</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果目标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果目标</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -428,7 +448,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -439,6 +459,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -866,10 +889,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78EA14D-F5E3-4442-94A0-B5F48E7A0F1C}">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,13 +901,13 @@
     <col min="5" max="5" width="8.83203125" customWidth="1"/>
     <col min="6" max="6" width="13.58203125" customWidth="1"/>
     <col min="7" max="10" width="23.08203125" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="10" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.08203125" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" customWidth="1"/>
+    <col min="11" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="10" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.08203125" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -903,23 +926,24 @@
       <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="7" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="7" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="8"/>
-    </row>
-    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="9"/>
+    </row>
+    <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -938,38 +962,39 @@
       <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="7" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="7" t="s">
+      <c r="J2" s="9"/>
+      <c r="K2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="8"/>
-    </row>
-    <row r="3" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="9"/>
+    </row>
+    <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="9"/>
+      <c r="P3" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -989,19 +1014,22 @@
         <v>31</v>
       </c>
       <c r="L4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
@@ -1023,17 +1051,20 @@
       <c r="K5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>1000</v>
       </c>
@@ -1052,11 +1083,12 @@
       <c r="K6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="2"/>
+      <c r="M6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>1001</v>
       </c>
@@ -1075,22 +1107,24 @@
       <c r="K7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="2"/>
+      <c r="M7" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="1">
+      <c r="L8" s="2"/>
+      <c r="N8" s="1">
         <v>1</v>
       </c>
-      <c r="N8" s="1" t="b">
+      <c r="O8" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>1002</v>
       </c>
@@ -1109,22 +1143,24 @@
       <c r="K9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="2"/>
+      <c r="M9" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="1">
+      <c r="L10" s="2"/>
+      <c r="N10" s="1">
         <v>1</v>
       </c>
-      <c r="N10" s="1" t="b">
+      <c r="O10" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>1003</v>
       </c>
@@ -1149,19 +1185,21 @@
       <c r="K11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="2"/>
+      <c r="M11" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O12" s="1">
+      <c r="L12" s="2"/>
+      <c r="P12" s="1">
         <v>1001</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>1004</v>
       </c>
@@ -1183,19 +1221,21 @@
       <c r="K13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="2"/>
+      <c r="M13" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O14" s="1">
+      <c r="L14" s="2"/>
+      <c r="P14" s="1">
         <v>1001</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>1005</v>
       </c>
@@ -1211,19 +1251,23 @@
       <c r="K15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="2"/>
+      <c r="M15" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O16" s="1">
+      <c r="L16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" s="1">
         <v>1002</v>
       </c>
     </row>
-    <row r="17" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>1006</v>
       </c>
@@ -1239,35 +1283,36 @@
       <c r="K17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O17" s="1">
+      <c r="L17" s="2"/>
+      <c r="P17" s="1">
         <v>1003</v>
       </c>
     </row>
-    <row r="18" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>1007</v>
       </c>
     </row>
-    <row r="19" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="N3:O3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="K1:P1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1276,20 +1321,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BCE222-9C0B-4DC0-9310-BCC47B222158}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="13.5" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="6" max="6" width="11.08203125" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -1302,14 +1348,15 @@
       <c r="D1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1322,26 +1369,27 @@
       <c r="D2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1349,16 +1397,19 @@
         <v>31</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
@@ -1374,17 +1425,20 @@
       <c r="E5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>1001</v>
       </c>
@@ -1397,11 +1451,12 @@
       <c r="E6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2"/>
+      <c r="G6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>1002</v>
       </c>
@@ -1414,14 +1469,15 @@
       <c r="E7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="2"/>
+      <c r="H7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>1003</v>
       </c>
@@ -1434,21 +1490,22 @@
       <c r="E8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="F8" s="2"/>
+      <c r="H8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1458,9 +1515,9 @@
     <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/新导表工具/DataTables/Datas/技能表.xlsx
+++ b/新导表工具/DataTables/Datas/技能表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAF8D9A-B3AB-4DD3-9A51-CBB6462A28F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21906952-59F1-46CB-B7F3-56C15D4769AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2170" yWindow="5170" windowWidth="30030" windowHeight="15460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2170" yWindow="5170" windowWidth="30030" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="移动技能表" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="75">
   <si>
     <t>##</t>
   </si>
@@ -315,6 +315,10 @@
   <si>
     <t>效果目标</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>水天需</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -891,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78EA14D-F5E3-4442-94A0-B5F48E7A0F1C}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,8 +1296,32 @@
       <c r="B18" s="1">
         <v>1007</v>
       </c>
-    </row>
-    <row r="19" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="C18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3</v>
+      </c>
+      <c r="H18" s="1">
+        <v>3</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="P18" s="1">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="P19" s="1">
+        <v>1005</v>
+      </c>
+    </row>
     <row r="20" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1323,8 +1351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BCE222-9C0B-4DC0-9310-BCC47B222158}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1498,8 +1526,36 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>1004</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>1005</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
     <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/新导表工具/DataTables/Datas/技能表.xlsx
+++ b/新导表工具/DataTables/Datas/技能表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21906952-59F1-46CB-B7F3-56C15D4769AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22611D58-E323-4624-8FD6-30FA64AA881B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2170" yWindow="5170" windowWidth="30030" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13560" yWindow="3260" windowWidth="20650" windowHeight="15460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="移动技能表" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="80">
   <si>
     <t>##</t>
   </si>
@@ -318,6 +318,26 @@
   </si>
   <si>
     <t>水天需</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵气</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>友方</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERelationType#default=敌方</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -452,7 +472,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -475,6 +495,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -893,10 +919,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78EA14D-F5E3-4442-94A0-B5F48E7A0F1C}">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,13 +931,14 @@
     <col min="5" max="5" width="8.83203125" customWidth="1"/>
     <col min="6" max="6" width="13.58203125" customWidth="1"/>
     <col min="7" max="10" width="23.08203125" customWidth="1"/>
-    <col min="11" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="10" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.08203125" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" customWidth="1"/>
+    <col min="11" max="11" width="28.4140625" customWidth="1"/>
+    <col min="12" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="10" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.08203125" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -930,24 +957,27 @@
       <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="8" t="s">
+      <c r="J1" s="11"/>
+      <c r="K1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="9"/>
-    </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="11"/>
+    </row>
+    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -966,39 +996,42 @@
       <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="8" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="8" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="9"/>
-    </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="11"/>
+    </row>
+    <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="O3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="11"/>
+      <c r="Q3" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1014,26 +1047,26 @@
       <c r="J4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
@@ -1052,23 +1085,26 @@
       <c r="F5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>1000</v>
       </c>
@@ -1084,15 +1120,15 @@
       <c r="H6" s="1">
         <v>1</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="1">
+      <c r="M6" s="2"/>
+      <c r="N6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>1001</v>
       </c>
@@ -1108,27 +1144,27 @@
       <c r="H7" s="1">
         <v>2</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="1">
+      <c r="M7" s="2"/>
+      <c r="N7" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K8" s="2" t="s">
+    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="N8" s="1">
+      <c r="M8" s="2"/>
+      <c r="O8" s="1">
         <v>1</v>
       </c>
-      <c r="O8" s="1" t="b">
+      <c r="P8" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>1002</v>
       </c>
@@ -1144,27 +1180,27 @@
       <c r="H9" s="1">
         <v>1</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="1">
+      <c r="M9" s="2"/>
+      <c r="N9" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K10" s="2" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="2"/>
-      <c r="N10" s="1">
+      <c r="M10" s="2"/>
+      <c r="O10" s="1">
         <v>1</v>
       </c>
-      <c r="O10" s="1" t="b">
+      <c r="P10" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>1003</v>
       </c>
@@ -1186,24 +1222,24 @@
       <c r="J11" s="1">
         <v>1</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="1">
+      <c r="M11" s="2"/>
+      <c r="N11" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K12" s="2" t="s">
+    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L12" s="2"/>
-      <c r="P12" s="1">
+      <c r="M12" s="2"/>
+      <c r="Q12" s="1">
         <v>1001</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>1004</v>
       </c>
@@ -1222,24 +1258,24 @@
       <c r="J13" s="1">
         <v>4</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="1">
+      <c r="M13" s="2"/>
+      <c r="N13" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K14" s="2" t="s">
+    <row r="14" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L14" s="2"/>
-      <c r="P14" s="1">
+      <c r="M14" s="2"/>
+      <c r="Q14" s="1">
         <v>1001</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>1005</v>
       </c>
@@ -1252,26 +1288,26 @@
       <c r="J15" s="1">
         <v>2</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="1">
+      <c r="M15" s="2"/>
+      <c r="N15" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K16" s="2" t="s">
+    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="P16" s="1">
+      <c r="Q16" s="1">
         <v>1002</v>
       </c>
     </row>
-    <row r="17" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>1006</v>
       </c>
@@ -1285,14 +1321,17 @@
         <v>3</v>
       </c>
       <c r="K17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L17" s="2"/>
-      <c r="P17" s="1">
+      <c r="M17" s="2"/>
+      <c r="Q17" s="1">
         <v>1003</v>
       </c>
     </row>
-    <row r="18" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>1007</v>
       </c>
@@ -1306,41 +1345,44 @@
         <v>3</v>
       </c>
       <c r="K18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L18" s="2"/>
-      <c r="P18" s="1">
+      <c r="M18" s="2"/>
+      <c r="Q18" s="1">
         <v>1004</v>
       </c>
     </row>
-    <row r="19" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K19" s="2" t="s">
+    <row r="19" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L19" s="2"/>
-      <c r="P19" s="1">
+      <c r="M19" s="2"/>
+      <c r="Q19" s="1">
         <v>1005</v>
       </c>
     </row>
-    <row r="20" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="O3:P3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="L1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1351,8 +1393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BCE222-9C0B-4DC0-9310-BCC47B222158}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,13 +1418,13 @@
       <c r="D1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="9"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1397,13 +1439,13 @@
       <c r="D2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="9"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1412,10 +1454,10 @@
       <c r="G3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1540,6 +1582,12 @@
         <v>56</v>
       </c>
       <c r="F9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
@@ -1555,6 +1603,12 @@
         <v>56</v>
       </c>
       <c r="F10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/新导表工具/DataTables/Datas/技能表.xlsx
+++ b/新导表工具/DataTables/Datas/技能表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22611D58-E323-4624-8FD6-30FA64AA881B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A06DDC5-C7FD-4D99-A111-934C4F38D2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13560" yWindow="3260" windowWidth="20650" windowHeight="15460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9940" yWindow="4590" windowWidth="20650" windowHeight="15460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="移动技能表" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="87">
   <si>
     <t>##</t>
   </si>
@@ -337,7 +337,35 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ERelationType#default=敌方</t>
+    <t>DamageType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>真伤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageType#default=真伤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERelationType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetType#default=敌方</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -919,26 +947,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78EA14D-F5E3-4442-94A0-B5F48E7A0F1C}">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.9140625" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
-    <col min="6" max="6" width="13.58203125" customWidth="1"/>
-    <col min="7" max="10" width="23.08203125" customWidth="1"/>
-    <col min="11" max="11" width="28.4140625" customWidth="1"/>
-    <col min="12" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="10" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.08203125" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.58203125" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" customWidth="1"/>
+    <col min="4" max="10" width="10.58203125" customWidth="1"/>
+    <col min="11" max="11" width="27.4140625" customWidth="1"/>
+    <col min="12" max="13" width="10.58203125" customWidth="1"/>
+    <col min="14" max="15" width="10.58203125" style="1" customWidth="1"/>
+    <col min="16" max="18" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -966,7 +992,7 @@
       </c>
       <c r="J1" s="11"/>
       <c r="K1" s="9" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="L1" s="10" t="s">
         <v>32</v>
@@ -975,9 +1001,10 @@
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
       <c r="P1" s="12"/>
-      <c r="Q1" s="11"/>
-    </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q1" s="12"/>
+      <c r="R1" s="11"/>
+    </row>
+    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1005,7 +1032,7 @@
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="9" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>33</v>
@@ -1014,24 +1041,26 @@
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
-      <c r="Q2" s="11"/>
-    </row>
-    <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q2" s="12"/>
+      <c r="R2" s="11"/>
+    </row>
+    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="11"/>
+      <c r="P3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="11"/>
+      <c r="R3" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1057,16 +1086,19 @@
         <v>27</v>
       </c>
       <c r="O4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
@@ -1098,13 +1130,16 @@
         <v>34</v>
       </c>
       <c r="O5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>1000</v>
       </c>
@@ -1127,8 +1162,11 @@
       <c r="N6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O6" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>1001</v>
       </c>
@@ -1152,19 +1190,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="L8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="M8" s="2"/>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <v>1</v>
       </c>
-      <c r="P8" s="1" t="b">
+      <c r="Q8" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>1002</v>
       </c>
@@ -1188,19 +1226,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="M10" s="2"/>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <v>1</v>
       </c>
-      <c r="P10" s="1" t="b">
+      <c r="Q10" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>1003</v>
       </c>
@@ -1229,17 +1267,20 @@
       <c r="N11" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O11" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="L12" s="2" t="s">
         <v>50</v>
       </c>
       <c r="M12" s="2"/>
-      <c r="Q12" s="1">
+      <c r="R12" s="1">
         <v>1001</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>1004</v>
       </c>
@@ -1265,17 +1306,20 @@
       <c r="N13" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O13" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="L14" s="2" t="s">
         <v>50</v>
       </c>
       <c r="M14" s="2"/>
-      <c r="Q14" s="1">
+      <c r="R14" s="1">
         <v>1001</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>1005</v>
       </c>
@@ -1295,19 +1339,22 @@
       <c r="N15" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O15" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="L16" s="2" t="s">
         <v>50</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="R16" s="1">
         <v>1002</v>
       </c>
     </row>
-    <row r="17" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>1006</v>
       </c>
@@ -1327,11 +1374,11 @@
         <v>50</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="Q17" s="1">
+      <c r="R17" s="1">
         <v>1003</v>
       </c>
     </row>
-    <row r="18" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>1007</v>
       </c>
@@ -1351,38 +1398,39 @@
         <v>50</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="Q18" s="1">
+      <c r="R18" s="1">
         <v>1004</v>
       </c>
     </row>
-    <row r="19" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="L19" s="2" t="s">
         <v>50</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="Q19" s="1">
+      <c r="R19" s="1">
         <v>1005</v>
       </c>
     </row>
-    <row r="20" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="O3:P3"/>
+  <mergeCells count="8">
+    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="L2:Q2"/>
-    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="N3:O3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1391,10 +1439,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BCE222-9C0B-4DC0-9310-BCC47B222158}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="F13" sqref="D12:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1402,10 +1450,11 @@
     <col min="4" max="4" width="13.5" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" customWidth="1"/>
     <col min="6" max="6" width="11.08203125" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -1424,9 +1473,10 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="12"/>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1445,21 +1495,23 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="12"/>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="11"/>
+      <c r="I3" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1473,13 +1525,16 @@
         <v>27</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
@@ -1502,13 +1557,16 @@
         <v>34</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>1001</v>
       </c>
@@ -1526,7 +1584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>1002</v>
       </c>
@@ -1540,14 +1598,14 @@
         <v>56</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>1003</v>
       </c>
@@ -1561,14 +1619,14 @@
         <v>56</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>1004</v>
       </c>
@@ -1582,14 +1640,14 @@
         <v>56</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>1005</v>
       </c>
@@ -1603,19 +1661,19 @@
         <v>56</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1624,10 +1682,11 @@
     <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="H3:I3"/>
+  <mergeCells count="4">
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/新导表工具/DataTables/Datas/技能表.xlsx
+++ b/新导表工具/DataTables/Datas/技能表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A06DDC5-C7FD-4D99-A111-934C4F38D2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1616D5E5-ADBE-4C9C-98EC-482C91AF6904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9940" yWindow="4590" windowWidth="20650" windowHeight="15460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38750" yWindow="7070" windowWidth="21680" windowHeight="15460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="移动技能表" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="97">
   <si>
     <t>##</t>
   </si>
@@ -366,6 +366,46 @@
   </si>
   <si>
     <t>TargetType#default=敌方</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>爪击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>掏心</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>失魂拖拽</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞扑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageTag</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害标签</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageTag</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害标签</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵护</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>诛邪</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -947,10 +987,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78EA14D-F5E3-4442-94A0-B5F48E7A0F1C}">
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,11 +1000,11 @@
     <col min="4" max="10" width="10.58203125" customWidth="1"/>
     <col min="11" max="11" width="27.4140625" customWidth="1"/>
     <col min="12" max="13" width="10.58203125" customWidth="1"/>
-    <col min="14" max="15" width="10.58203125" style="1" customWidth="1"/>
-    <col min="16" max="18" width="10.58203125" customWidth="1"/>
+    <col min="14" max="16" width="10.58203125" style="1" customWidth="1"/>
+    <col min="17" max="19" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -1002,9 +1042,10 @@
       <c r="O1" s="12"/>
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
-      <c r="R1" s="11"/>
-    </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R1" s="12"/>
+      <c r="S1" s="11"/>
+    </row>
+    <row r="2" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1042,25 +1083,27 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
-      <c r="R2" s="11"/>
-    </row>
-    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R2" s="12"/>
+      <c r="S2" s="11"/>
+    </row>
+    <row r="3" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="10" t="s">
+      <c r="O3" s="12"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="11"/>
+      <c r="S3" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1089,16 +1132,19 @@
         <v>79</v>
       </c>
       <c r="P4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
@@ -1133,13 +1179,16 @@
         <v>80</v>
       </c>
       <c r="P5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>1000</v>
       </c>
@@ -1165,8 +1214,9 @@
       <c r="O6" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>1001</v>
       </c>
@@ -1190,19 +1240,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="L8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="M8" s="2"/>
-      <c r="P8" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="1" t="b">
+      <c r="Q8" s="1">
+        <v>1</v>
+      </c>
+      <c r="R8" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>1002</v>
       </c>
@@ -1226,19 +1276,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="M10" s="2"/>
-      <c r="P10" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>1003</v>
       </c>
@@ -1270,17 +1320,20 @@
       <c r="O11" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P11" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="L12" s="2" t="s">
         <v>50</v>
       </c>
       <c r="M12" s="2"/>
-      <c r="R12" s="1">
+      <c r="S12" s="1">
         <v>1001</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>1004</v>
       </c>
@@ -1309,17 +1362,20 @@
       <c r="O13" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P13" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="L14" s="2" t="s">
         <v>50</v>
       </c>
       <c r="M14" s="2"/>
-      <c r="R14" s="1">
+      <c r="S14" s="1">
         <v>1001</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>1005</v>
       </c>
@@ -1342,19 +1398,22 @@
       <c r="O15" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P15" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="L16" s="2" t="s">
         <v>50</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="R16" s="1">
+      <c r="S16" s="1">
         <v>1002</v>
       </c>
     </row>
-    <row r="17" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>1006</v>
       </c>
@@ -1374,11 +1433,11 @@
         <v>50</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="R17" s="1">
+      <c r="S17" s="1">
         <v>1003</v>
       </c>
     </row>
-    <row r="18" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>1007</v>
       </c>
@@ -1398,39 +1457,169 @@
         <v>50</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="R18" s="1">
+      <c r="S18" s="1">
         <v>1004</v>
       </c>
     </row>
-    <row r="19" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="L19" s="2" t="s">
         <v>50</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="R19" s="1">
+      <c r="S19" s="1">
         <v>1005</v>
       </c>
     </row>
-    <row r="20" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>5001</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="1">
+        <v>6</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="L21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="S21" s="1">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>5002</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="1">
+        <v>1</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>5003</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>5004</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="Q26" s="1">
+        <v>1</v>
+      </c>
+      <c r="R26" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="Q3:R3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L2:S2"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1439,10 +1628,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BCE222-9C0B-4DC0-9310-BCC47B222158}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="D12:F13"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,11 +1639,11 @@
     <col min="4" max="4" width="13.5" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" customWidth="1"/>
     <col min="6" max="6" width="11.08203125" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="8" max="9" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -1474,9 +1663,10 @@
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
-      <c r="J1" s="11"/>
-    </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="12"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1496,22 +1686,24 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="12"/>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="10" t="s">
+      <c r="H3" s="12"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1528,13 +1720,16 @@
         <v>84</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
@@ -1560,13 +1755,16 @@
         <v>83</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>1001</v>
       </c>
@@ -1584,7 +1782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>1002</v>
       </c>
@@ -1598,14 +1796,14 @@
         <v>56</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>1003</v>
       </c>
@@ -1619,14 +1817,14 @@
         <v>56</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>1004</v>
       </c>
@@ -1640,14 +1838,14 @@
         <v>56</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>1005</v>
       </c>
@@ -1661,19 +1859,35 @@
         <v>56</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>5001</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1683,10 +1897,10 @@
     <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/新导表工具/DataTables/Datas/技能表.xlsx
+++ b/新导表工具/DataTables/Datas/技能表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1616D5E5-ADBE-4C9C-98EC-482C91AF6904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431271C8-F2E1-4CDB-8AF3-B86A51CE1F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38750" yWindow="7070" windowWidth="21680" windowHeight="15460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10150" yWindow="5120" windowWidth="21680" windowHeight="15460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="移动技能表" sheetId="5" r:id="rId1"/>
@@ -990,7 +990,7 @@
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>81</v>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>81</v>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>81</v>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>

--- a/新导表工具/DataTables/Datas/技能表.xlsx
+++ b/新导表工具/DataTables/Datas/技能表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431271C8-F2E1-4CDB-8AF3-B86A51CE1F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286299F9-70DC-496F-914D-2AC59EA443BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10150" yWindow="5120" windowWidth="21680" windowHeight="15460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14490" yWindow="4410" windowWidth="21030" windowHeight="15460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="移动技能表" sheetId="5" r:id="rId1"/>
@@ -990,7 +990,7 @@
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+      <selection activeCell="L1" sqref="L1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/新导表工具/DataTables/Datas/技能表.xlsx
+++ b/新导表工具/DataTables/Datas/技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15140" activeTab="2"/>
+    <workbookView windowHeight="15140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="技能表" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="98">
   <si>
     <t>##var</t>
   </si>
@@ -233,18 +233,30 @@
     <t>飞扑</t>
   </si>
   <si>
+    <t>ConditionId</t>
+  </si>
+  <si>
     <t>Round</t>
   </si>
   <si>
     <t>*EffectList</t>
   </si>
   <si>
+    <t>CondItion</t>
+  </si>
+  <si>
     <t>list,int</t>
   </si>
   <si>
     <t>战斗Buff</t>
   </si>
   <si>
+    <t xml:space="preserve"> 描述</t>
+  </si>
+  <si>
+    <t>条件配置</t>
+  </si>
+  <si>
     <t>Buff类型</t>
   </si>
   <si>
@@ -254,16 +266,28 @@
     <t xml:space="preserve"> 效果列表</t>
   </si>
   <si>
+    <t>功法属性成长</t>
+  </si>
+  <si>
     <t>通用</t>
   </si>
   <si>
-    <t>ConditionId</t>
+    <t>练气一层加成</t>
+  </si>
+  <si>
+    <t>练气三层加成</t>
+  </si>
+  <si>
+    <t>练气六层加成</t>
+  </si>
+  <si>
+    <t>练气九层加成</t>
   </si>
   <si>
     <t>AttrDict</t>
   </si>
   <si>
-    <t>CondItion</t>
+    <t>BuffList</t>
   </si>
   <si>
     <t>修改属性</t>
@@ -272,10 +296,34 @@
     <t>Effect类型</t>
   </si>
   <si>
-    <t>条件配置</t>
-  </si>
-  <si>
-    <t>生命成长:20|灵气成长:20</t>
+    <t>100011</t>
+  </si>
+  <si>
+    <t>生命成长:20|灵气成长:10|力量成长:20</t>
+  </si>
+  <si>
+    <t>100021</t>
+  </si>
+  <si>
+    <t>力量:1</t>
+  </si>
+  <si>
+    <t>100031</t>
+  </si>
+  <si>
+    <t>力量:1|体魄:1</t>
+  </si>
+  <si>
+    <t>100041</t>
+  </si>
+  <si>
+    <t>速度:1|力量:1|体魄:1</t>
+  </si>
+  <si>
+    <t>100051</t>
+  </si>
+  <si>
+    <t>神识:1|法身:1</t>
   </si>
 </sst>
 </file>
@@ -935,7 +983,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -943,6 +991,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1297,7 +1351,7 @@
     <col min="4" max="10" width="10.5803571428571" customWidth="1"/>
     <col min="11" max="11" width="27.4107142857143" customWidth="1"/>
     <col min="12" max="14" width="10.5803571428571" customWidth="1"/>
-    <col min="15" max="17" width="10.5803571428571" style="3" customWidth="1"/>
+    <col min="15" max="17" width="10.5803571428571" style="5" customWidth="1"/>
     <col min="18" max="20" width="10.5803571428571" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1320,28 +1374,28 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="7" t="s">
+      <c r="J1" s="8"/>
+      <c r="K1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="6"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="8"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:20">
       <c r="A2" s="1" t="s">
@@ -1362,28 +1416,28 @@
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="4" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7" t="s">
+      <c r="J2" s="8"/>
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="6"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="8"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:20">
       <c r="A3" s="1" t="s">
@@ -1392,15 +1446,15 @@
       <c r="M3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="4" t="s">
+      <c r="P3" s="9"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="6"/>
+      <c r="S3" s="8"/>
       <c r="T3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1468,16 +1522,16 @@
       <c r="F5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="6" t="s">
         <v>39</v>
       </c>
       <c r="O5" s="1" t="s">
@@ -1496,449 +1550,449 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="2:17">
-      <c r="B6" s="3">
+    <row r="6" s="5" customFormat="1" spans="2:17">
+      <c r="B6" s="5">
         <v>1000</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="5">
         <v>10</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="5">
         <v>1</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="3">
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="5">
         <v>1</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="Q6" s="5"/>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="2:15">
-      <c r="B7" s="3">
+      <c r="Q6" s="7"/>
+    </row>
+    <row r="7" s="5" customFormat="1" spans="2:15">
+      <c r="B7" s="5">
         <v>1001</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="5">
         <v>1</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="5">
         <v>2</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="3">
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="12:19">
-      <c r="L8" s="5" t="s">
+    <row r="8" s="5" customFormat="1" spans="12:19">
+      <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="R8" s="3">
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="R8" s="5">
         <v>1</v>
       </c>
-      <c r="S8" s="3" t="b">
+      <c r="S8" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="2:15">
-      <c r="B9" s="3">
+    <row r="9" s="5" customFormat="1" spans="2:15">
+      <c r="B9" s="5">
         <v>1002</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="5">
         <v>1</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="5">
         <v>1</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="3">
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="12:19">
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="R10" s="3">
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="R10" s="5">
         <v>1</v>
       </c>
-      <c r="S10" s="3" t="b">
+      <c r="S10" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" spans="2:17">
-      <c r="B11" s="3">
+    <row r="11" s="5" customFormat="1" spans="2:17">
+      <c r="B11" s="5">
         <v>1003</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="5">
         <v>5</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="5">
         <v>3</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="5">
         <v>1</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="3">
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="5">
         <v>5</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="P11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="Q11" s="5" t="s">
+      <c r="Q11" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" spans="12:20">
-      <c r="L12" s="5" t="s">
+    <row r="12" s="5" customFormat="1" spans="12:20">
+      <c r="L12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="T12" s="3">
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="T12" s="5">
         <v>1001</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" spans="2:17">
-      <c r="B13" s="3">
+    <row r="13" s="5" customFormat="1" spans="2:17">
+      <c r="B13" s="5">
         <v>1004</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="5">
         <v>3</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="5">
         <v>1</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="5">
         <v>4</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="3">
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="5">
         <v>6</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="P13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="Q13" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" spans="12:20">
-      <c r="L14" s="5" t="s">
+    <row r="14" s="5" customFormat="1" spans="12:20">
+      <c r="L14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="T14" s="3">
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="T14" s="5">
         <v>1001</v>
       </c>
     </row>
-    <row r="15" s="3" customFormat="1" spans="2:17">
-      <c r="B15" s="3">
+    <row r="15" s="5" customFormat="1" spans="2:17">
+      <c r="B15" s="5">
         <v>1005</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="5">
         <v>10</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="5">
         <v>2</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="3">
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="5">
         <v>8</v>
       </c>
-      <c r="P15" s="5" t="s">
+      <c r="P15" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="Q15" s="5" t="s">
+      <c r="Q15" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" spans="12:20">
-      <c r="L16" s="5" t="s">
+    <row r="16" s="5" customFormat="1" spans="12:20">
+      <c r="L16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5" t="s">
+      <c r="M16" s="7"/>
+      <c r="N16" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="T16" s="3">
+      <c r="T16" s="5">
         <v>1002</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" spans="2:20">
-      <c r="B17" s="3">
+    <row r="17" s="5" customFormat="1" spans="2:20">
+      <c r="B17" s="5">
         <v>1006</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="5">
         <v>5</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="5">
         <v>3</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="T17" s="3">
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="T17" s="5">
         <v>1003</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" spans="2:20">
-      <c r="B18" s="3">
+    <row r="18" s="5" customFormat="1" spans="2:20">
+      <c r="B18" s="5">
         <v>1007</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="5">
         <v>3</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="5">
         <v>3</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="T18" s="3">
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="T18" s="5">
         <v>1004</v>
       </c>
     </row>
-    <row r="19" s="3" customFormat="1" spans="12:20">
-      <c r="L19" s="5" t="s">
+    <row r="19" s="5" customFormat="1" spans="12:20">
+      <c r="L19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="T19" s="3">
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="T19" s="5">
         <v>1005</v>
       </c>
     </row>
-    <row r="20" s="3" customFormat="1" spans="2:17">
-      <c r="B20" s="3">
+    <row r="20" s="5" customFormat="1" spans="2:17">
+      <c r="B20" s="5">
         <v>5001</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="5">
         <v>0</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="5">
         <v>1</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="L20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="3">
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="5">
         <v>4</v>
       </c>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-    </row>
-    <row r="21" s="3" customFormat="1" spans="3:20">
-      <c r="C21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="L21" s="5" t="s">
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+    </row>
+    <row r="21" s="5" customFormat="1" spans="3:20">
+      <c r="C21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="L21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="T21" s="3">
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="T21" s="5">
         <v>5001</v>
       </c>
     </row>
-    <row r="22" s="3" customFormat="1" spans="2:17">
-      <c r="B22" s="3">
+    <row r="22" s="5" customFormat="1" spans="2:17">
+      <c r="B22" s="5">
         <v>5002</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="5">
         <v>1</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="5">
         <v>1</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="L22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="3">
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="5">
         <v>1</v>
       </c>
-      <c r="P22" s="5" t="s">
+      <c r="P22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="Q22" s="5" t="s">
+      <c r="Q22" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" s="3" customFormat="1" spans="2:15">
-      <c r="B23" s="3">
+    <row r="23" s="5" customFormat="1" spans="2:15">
+      <c r="B23" s="5">
         <v>5003</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="5">
         <v>3</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="5">
         <v>1</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="L23" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="3">
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="24" s="3" customFormat="1" spans="3:14">
-      <c r="C24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-    </row>
-    <row r="25" s="3" customFormat="1" spans="2:15">
-      <c r="B25" s="3">
+    <row r="24" s="5" customFormat="1" spans="3:14">
+      <c r="C24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+    </row>
+    <row r="25" s="5" customFormat="1" spans="2:15">
+      <c r="B25" s="5">
         <v>5004</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="5">
         <v>0</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="5">
         <v>1</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="L25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="3">
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="26" s="3" customFormat="1" spans="12:19">
-      <c r="L26" s="5" t="s">
+    <row r="26" s="5" customFormat="1" spans="12:19">
+      <c r="L26" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="R26" s="3">
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="R26" s="5">
         <v>1</v>
       </c>
-      <c r="S26" s="3" t="b">
+      <c r="S26" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" s="3" customFormat="1"/>
-    <row r="28" s="3" customFormat="1"/>
-    <row r="29" s="3" customFormat="1"/>
-    <row r="30" s="3" customFormat="1"/>
-    <row r="31" s="3" customFormat="1"/>
+    <row r="27" s="5" customFormat="1"/>
+    <row r="28" s="5" customFormat="1"/>
+    <row r="29" s="5" customFormat="1"/>
+    <row r="30" s="5" customFormat="1"/>
+    <row r="31" s="5" customFormat="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G1:H1"/>
@@ -1958,20 +2012,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="6"/>
   <cols>
+    <col min="1" max="1" width="8.14285714285714" customWidth="1"/>
     <col min="2" max="2" width="6.57142857142857" customWidth="1"/>
-    <col min="3" max="3" width="9.78571428571429" customWidth="1"/>
-    <col min="4" max="5" width="10.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="14.9285714285714" customWidth="1"/>
+    <col min="4" max="4" width="12.3571428571429" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.78571428571429" customWidth="1"/>
+    <col min="6" max="6" width="10.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="11.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1979,38 +2037,50 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="G1" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:4">
+      <c r="G2" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2018,30 +2088,104 @@
         <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="2:5">
-      <c r="B5" s="3">
+        <v>74</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" s="5" customFormat="1" spans="2:7">
+      <c r="B5" s="5">
         <v>10001</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="3">
-        <v>10011</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="1"/>
-    <row r="7" s="3" customFormat="1"/>
-    <row r="8" s="3" customFormat="1"/>
-    <row r="9" s="3" customFormat="1"/>
+      <c r="C5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="5">
+        <v>100011</v>
+      </c>
+    </row>
+    <row r="6" s="5" customFormat="1" spans="2:7">
+      <c r="B6" s="5">
+        <v>10002</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10001</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="5">
+        <v>100021</v>
+      </c>
+    </row>
+    <row r="7" s="5" customFormat="1" spans="2:7">
+      <c r="B7" s="5">
+        <v>10003</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="2">
+        <v>10002</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="5">
+        <v>100031</v>
+      </c>
+    </row>
+    <row r="8" s="5" customFormat="1" spans="2:7">
+      <c r="B8" s="5">
+        <v>10004</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="2">
+        <v>10003</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="5">
+        <v>100041</v>
+      </c>
+    </row>
+    <row r="9" s="5" customFormat="1" spans="2:7">
+      <c r="B9" s="5">
+        <v>10005</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="2">
+        <v>10004</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="5">
+        <v>100051</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2051,111 +2195,145 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="8.14285714285714" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.57142857142857" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.57142857142857" style="3" customWidth="1"/>
     <col min="3" max="3" width="11.3571428571429" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.2410714285714" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.1428571428571" style="2" customWidth="1"/>
-    <col min="6" max="9" width="9.14285714285714" style="2"/>
+    <col min="4" max="4" width="41.8035714285714" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.07142857142857" style="2" customWidth="1"/>
+    <col min="6" max="8" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:4">
+    <row r="4" s="1" customFormat="1" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:9">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2">
-        <v>10010</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2">
-        <v>10001</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2">
-        <v>10001</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="2">
-        <v>10011</v>
+        <v>86</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:8">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>81</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" customFormat="1" spans="1:8">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" customFormat="1" spans="1:8">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" customFormat="1" spans="1:8">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2166,13 +2344,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="8" width="9.14285714285714" style="2"/>
   </cols>
@@ -2225,8 +2403,50 @@
         <v>10001</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:8">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2">
+        <v>10002</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" customFormat="1" spans="1:8">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2">
+        <v>10003</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" customFormat="1" spans="1:8">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2">
+        <v>10004</v>
+      </c>
+      <c r="C9" s="2">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/新导表工具/DataTables/Datas/技能表.xlsx
+++ b/新导表工具/DataTables/Datas/技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15140" activeTab="1"/>
+    <workbookView windowHeight="15140"/>
   </bookViews>
   <sheets>
     <sheet name="技能表" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
   <si>
     <t>##var</t>
   </si>
@@ -59,7 +59,7 @@
     <t>TargetType#default=敌方</t>
   </si>
   <si>
-    <t>*Effect</t>
+    <t>*EffectList</t>
   </si>
   <si>
     <t>##type</t>
@@ -77,253 +77,202 @@
     <t>ERelationType</t>
   </si>
   <si>
-    <t>list,Battle.Effect</t>
+    <t>list,int</t>
   </si>
   <si>
     <t>##</t>
   </si>
   <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>Attack</t>
-  </si>
-  <si>
-    <t>Move</t>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>简介</t>
+  </si>
+  <si>
+    <t>图标</t>
+  </si>
+  <si>
+    <t>释放消耗灵气</t>
+  </si>
+  <si>
+    <t>目标类型</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 效果列表</t>
+  </si>
+  <si>
+    <t>挥砍</t>
+  </si>
+  <si>
+    <t>默认</t>
+  </si>
+  <si>
+    <t>射击</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>锋锐</t>
+  </si>
+  <si>
+    <t>100013</t>
+  </si>
+  <si>
+    <t>$type</t>
+  </si>
+  <si>
+    <t>ConditionId</t>
+  </si>
+  <si>
+    <t>EffectList</t>
+  </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>CondItion</t>
+  </si>
+  <si>
+    <t>(list#sep=,),int</t>
+  </si>
+  <si>
+    <t>战斗Buff</t>
+  </si>
+  <si>
+    <t>Buff类型</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 描述</t>
+  </si>
+  <si>
+    <t>条件配置</t>
+  </si>
+  <si>
+    <t>持续回合</t>
+  </si>
+  <si>
+    <t>通用</t>
+  </si>
+  <si>
+    <t>功法属性成长</t>
+  </si>
+  <si>
+    <t>100011,100012</t>
+  </si>
+  <si>
+    <t>练气一层加成</t>
+  </si>
+  <si>
+    <t>练气三层加成</t>
+  </si>
+  <si>
+    <t>练气六层加成</t>
+  </si>
+  <si>
+    <t>练气九层加成</t>
+  </si>
+  <si>
+    <t>战斗</t>
+  </si>
+  <si>
+    <t>100014</t>
+  </si>
+  <si>
+    <t>AttrDict</t>
+  </si>
+  <si>
+    <t>DamageRatio#default=100</t>
+  </si>
+  <si>
+    <t>DamageType</t>
+  </si>
+  <si>
+    <t>BuffList</t>
+  </si>
+  <si>
+    <t>SkillList</t>
+  </si>
+  <si>
+    <t>修改属性</t>
+  </si>
+  <si>
+    <t>攻击</t>
   </si>
   <si>
     <t>AddBuff</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Distance</t>
-  </si>
-  <si>
-    <t>$type</t>
+    <t>获取技能</t>
+  </si>
+  <si>
+    <t>Effect类型</t>
+  </si>
+  <si>
+    <t>伤害比例%</t>
+  </si>
+  <si>
+    <t>伤害类型</t>
+  </si>
+  <si>
+    <t>100011</t>
+  </si>
+  <si>
+    <t>生命成长:20|灵气成长:10|力量成长:20</t>
+  </si>
+  <si>
+    <t>100012</t>
+  </si>
+  <si>
+    <t>力量:3</t>
+  </si>
+  <si>
+    <t>100021</t>
+  </si>
+  <si>
+    <t>力量:1</t>
+  </si>
+  <si>
+    <t>100031</t>
+  </si>
+  <si>
+    <t>力量:1|体魄:1</t>
+  </si>
+  <si>
+    <t>100041</t>
+  </si>
+  <si>
+    <t>速度:1|力量:1|体魄:1</t>
+  </si>
+  <si>
+    <t>100051</t>
+  </si>
+  <si>
+    <t>神识:1|法身:1</t>
+  </si>
+  <si>
+    <t>10011</t>
+  </si>
+  <si>
+    <t>物理</t>
+  </si>
+  <si>
+    <t>10012</t>
   </si>
   <si>
     <t>Level</t>
   </si>
   <si>
-    <t>TargetType</t>
-  </si>
-  <si>
-    <t>Power</t>
-  </si>
-  <si>
-    <t>DamageType</t>
-  </si>
-  <si>
-    <t>DamageTag</t>
-  </si>
-  <si>
-    <t>IsTarget</t>
-  </si>
-  <si>
-    <t>BuffId</t>
-  </si>
-  <si>
-    <t>编号</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>简介</t>
-  </si>
-  <si>
-    <t>图标</t>
-  </si>
-  <si>
-    <t>释放消耗灵气</t>
-  </si>
-  <si>
-    <t>目标类型</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
     <t>境界</t>
-  </si>
-  <si>
-    <t>效果目标</t>
-  </si>
-  <si>
-    <t>威力</t>
-  </si>
-  <si>
-    <t>伤害类型</t>
-  </si>
-  <si>
-    <t>伤害标签</t>
-  </si>
-  <si>
-    <t>移动距离</t>
-  </si>
-  <si>
-    <t>对目标生效</t>
-  </si>
-  <si>
-    <t>默认攻击</t>
-  </si>
-  <si>
-    <t>默认</t>
-  </si>
-  <si>
-    <t>真伤</t>
-  </si>
-  <si>
-    <t>基础剑招·刺</t>
-  </si>
-  <si>
-    <t>十字</t>
-  </si>
-  <si>
-    <t>基础剑招·崩</t>
-  </si>
-  <si>
-    <t>焚风</t>
-  </si>
-  <si>
-    <t>正方形</t>
-  </si>
-  <si>
-    <t>法术</t>
-  </si>
-  <si>
-    <t>诛邪</t>
-  </si>
-  <si>
-    <t>火蛇</t>
-  </si>
-  <si>
-    <t>长条</t>
-  </si>
-  <si>
-    <t>金光咒</t>
-  </si>
-  <si>
-    <t>施法者</t>
-  </si>
-  <si>
-    <t>灵气护体·土</t>
-  </si>
-  <si>
-    <t>友方</t>
-  </si>
-  <si>
-    <t>水天需</t>
-  </si>
-  <si>
-    <t>爪击</t>
-  </si>
-  <si>
-    <t>掏心</t>
-  </si>
-  <si>
-    <t>灵护</t>
-  </si>
-  <si>
-    <t>失魂拖拽</t>
-  </si>
-  <si>
-    <t>飞扑</t>
-  </si>
-  <si>
-    <t>ConditionId</t>
-  </si>
-  <si>
-    <t>Round</t>
-  </si>
-  <si>
-    <t>*EffectList</t>
-  </si>
-  <si>
-    <t>CondItion</t>
-  </si>
-  <si>
-    <t>list,int</t>
-  </si>
-  <si>
-    <t>战斗Buff</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 描述</t>
-  </si>
-  <si>
-    <t>条件配置</t>
-  </si>
-  <si>
-    <t>Buff类型</t>
-  </si>
-  <si>
-    <t>持续回合</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 效果列表</t>
-  </si>
-  <si>
-    <t>功法属性成长</t>
-  </si>
-  <si>
-    <t>通用</t>
-  </si>
-  <si>
-    <t>练气一层加成</t>
-  </si>
-  <si>
-    <t>练气三层加成</t>
-  </si>
-  <si>
-    <t>练气六层加成</t>
-  </si>
-  <si>
-    <t>练气九层加成</t>
-  </si>
-  <si>
-    <t>AttrDict</t>
-  </si>
-  <si>
-    <t>BuffList</t>
-  </si>
-  <si>
-    <t>修改属性</t>
-  </si>
-  <si>
-    <t>Effect类型</t>
-  </si>
-  <si>
-    <t>100011</t>
-  </si>
-  <si>
-    <t>生命成长:20|灵气成长:10|力量成长:20</t>
-  </si>
-  <si>
-    <t>100021</t>
-  </si>
-  <si>
-    <t>力量:1</t>
-  </si>
-  <si>
-    <t>100031</t>
-  </si>
-  <si>
-    <t>力量:1|体魄:1</t>
-  </si>
-  <si>
-    <t>100041</t>
-  </si>
-  <si>
-    <t>速度:1|力量:1|体魄:1</t>
-  </si>
-  <si>
-    <t>100051</t>
-  </si>
-  <si>
-    <t>神识:1|法身:1</t>
   </si>
 </sst>
 </file>
@@ -999,16 +948,16 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="22" applyBorder="1" applyAlignment="1">
@@ -1338,28 +1287,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
   <cols>
-    <col min="2" max="2" width="10.5803571428571" customWidth="1"/>
-    <col min="3" max="3" width="15.5803571428571" customWidth="1"/>
-    <col min="4" max="10" width="10.5803571428571" customWidth="1"/>
-    <col min="11" max="11" width="27.4107142857143" customWidth="1"/>
-    <col min="12" max="14" width="10.5803571428571" customWidth="1"/>
-    <col min="15" max="17" width="10.5803571428571" style="5" customWidth="1"/>
-    <col min="18" max="20" width="10.5803571428571" customWidth="1"/>
+    <col min="1" max="1" width="8.14285714285714" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.57142857142857" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.1428571428571" style="2" customWidth="1"/>
+    <col min="4" max="5" width="6.57142857142857" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.9285714285714" style="2" customWidth="1"/>
+    <col min="7" max="7" width="5.92857142857143" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.28571428571429" style="2" customWidth="1"/>
+    <col min="9" max="9" width="5.92857142857143" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.28571428571429" style="2" customWidth="1"/>
+    <col min="11" max="11" width="26.9285714285714" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.2857142857143" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:20">
+    <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1377,31 +1331,23 @@
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8"/>
+      <c r="H1" s="7"/>
       <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="8"/>
+      <c r="J1" s="7"/>
       <c r="K1" s="9" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="8"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:20">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1419,590 +1365,132 @@
       <c r="G2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="8"/>
+      <c r="J2" s="7"/>
       <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="8"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:20">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="S3" s="8"/>
-      <c r="T3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:20">
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B4" s="4"/>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:19">
+        <v>18</v>
+      </c>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="2:12">
+      <c r="B6" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>10011</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="2:12">
+      <c r="B7" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="L7" s="2">
+        <v>10021</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="2:12">
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" s="5" customFormat="1" spans="2:17">
-      <c r="B6" s="5">
-        <v>1000</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="5">
-        <v>10</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="5">
-        <v>1</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="5">
-        <v>1</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q6" s="7"/>
-    </row>
-    <row r="7" s="5" customFormat="1" spans="2:15">
-      <c r="B7" s="5">
-        <v>1001</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="5">
-        <v>2</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" s="5" customFormat="1" spans="12:19">
-      <c r="L8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="R8" s="5">
-        <v>1</v>
-      </c>
-      <c r="S8" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" s="5" customFormat="1" spans="2:15">
-      <c r="B9" s="5">
-        <v>1002</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="5">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="5">
-        <v>1</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="12:19">
-      <c r="L10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="R10" s="5">
-        <v>1</v>
-      </c>
-      <c r="S10" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" s="5" customFormat="1" spans="2:17">
-      <c r="B11" s="5">
-        <v>1003</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="5">
-        <v>5</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="5">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" s="5">
-        <v>1</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="5">
-        <v>5</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" s="5" customFormat="1" spans="12:20">
-      <c r="L12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="T12" s="5">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="13" s="5" customFormat="1" spans="2:17">
-      <c r="B13" s="5">
-        <v>1004</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="5">
-        <v>3</v>
-      </c>
-      <c r="H13" s="5">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J13" s="5">
-        <v>4</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="5">
-        <v>6</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" s="5" customFormat="1" spans="12:20">
-      <c r="L14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="T14" s="5">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="15" s="5" customFormat="1" spans="2:17">
-      <c r="B15" s="5">
-        <v>1005</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="5">
-        <v>10</v>
-      </c>
-      <c r="J15" s="5">
-        <v>2</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="5">
-        <v>8</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" s="5" customFormat="1" spans="12:20">
-      <c r="L16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="T16" s="5">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="17" s="5" customFormat="1" spans="2:20">
-      <c r="B17" s="5">
-        <v>1006</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="5">
-        <v>5</v>
-      </c>
-      <c r="H17" s="5">
-        <v>3</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="T17" s="5">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="18" s="5" customFormat="1" spans="2:20">
-      <c r="B18" s="5">
-        <v>1007</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="5">
-        <v>3</v>
-      </c>
-      <c r="H18" s="5">
-        <v>3</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="T18" s="5">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="19" s="5" customFormat="1" spans="12:20">
-      <c r="L19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="T19" s="5">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="20" s="5" customFormat="1" spans="2:17">
-      <c r="B20" s="5">
-        <v>5001</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="5">
-        <v>1</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="5">
-        <v>4</v>
-      </c>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-    </row>
-    <row r="21" s="5" customFormat="1" spans="3:20">
-      <c r="C21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="L21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="T21" s="5">
-        <v>5001</v>
-      </c>
-    </row>
-    <row r="22" s="5" customFormat="1" spans="2:17">
-      <c r="B22" s="5">
-        <v>5002</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="5">
-        <v>1</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" s="5">
-        <v>1</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="5">
-        <v>1</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" s="5" customFormat="1" spans="2:15">
-      <c r="B23" s="5">
-        <v>5003</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="5">
-        <v>3</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="5">
-        <v>1</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" s="5" customFormat="1" spans="3:14">
-      <c r="C24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-    </row>
-    <row r="25" s="5" customFormat="1" spans="2:15">
-      <c r="B25" s="5">
-        <v>5004</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="5">
-        <v>0</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="5">
-        <v>1</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" s="5" customFormat="1" spans="12:19">
-      <c r="L26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="R26" s="5">
-        <v>1</v>
-      </c>
-      <c r="S26" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" s="5" customFormat="1"/>
-    <row r="28" s="5" customFormat="1"/>
-    <row r="29" s="5" customFormat="1"/>
-    <row r="30" s="5" customFormat="1"/>
-    <row r="31" s="5" customFormat="1"/>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="2:2">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="2:2">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="2:2">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="2:2">
+      <c r="B12" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="4">
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="L1:T1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R3:S3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2012,21 +1500,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="$A11:$XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="6.57142857142857" customWidth="1"/>
-    <col min="3" max="3" width="14.9285714285714" customWidth="1"/>
-    <col min="4" max="4" width="12.3571428571429" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.78571428571429" customWidth="1"/>
-    <col min="6" max="6" width="10.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="11.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="8.14285714285714" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.57142857142857" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.78571428571429" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.9285714285714" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.3571428571429" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.1428571428571" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
@@ -2037,19 +1526,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>69</v>
+        <v>33</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
@@ -2059,25 +1548,26 @@
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>72</v>
+      <c r="F3" s="4"/>
+      <c r="G3" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:7">
@@ -2085,105 +1575,119 @@
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" s="5" customFormat="1" spans="2:7">
-      <c r="B5" s="5">
+        <v>41</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="2:6">
+      <c r="B5" s="2">
         <v>10001</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" s="5">
-        <v>100011</v>
-      </c>
-    </row>
-    <row r="6" s="5" customFormat="1" spans="2:7">
-      <c r="B6" s="5">
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="2:6">
+      <c r="B6" s="2">
         <v>10002</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="2">
         <v>10001</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="F6" s="3">
         <v>100021</v>
       </c>
     </row>
-    <row r="7" s="5" customFormat="1" spans="2:7">
-      <c r="B7" s="5">
+    <row r="7" s="2" customFormat="1" spans="2:6">
+      <c r="B7" s="2">
         <v>10003</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="2">
         <v>10002</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="F7" s="3">
         <v>100031</v>
       </c>
     </row>
-    <row r="8" s="5" customFormat="1" spans="2:7">
-      <c r="B8" s="5">
+    <row r="8" s="2" customFormat="1" spans="2:6">
+      <c r="B8" s="2">
         <v>10004</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="2">
         <v>10003</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="F8" s="3">
         <v>100041</v>
       </c>
     </row>
-    <row r="9" s="5" customFormat="1" spans="2:7">
-      <c r="B9" s="5">
+    <row r="9" s="2" customFormat="1" spans="2:6">
+      <c r="B9" s="2">
         <v>10005</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="2">
         <v>10004</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="F9" s="3">
         <v>100051</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="2">
+        <v>10031</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2195,10 +1699,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A14" sqref="$A14:$XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
@@ -2207,11 +1711,13 @@
     <col min="2" max="2" width="7.57142857142857" style="3" customWidth="1"/>
     <col min="3" max="3" width="11.3571428571429" style="2" customWidth="1"/>
     <col min="4" max="4" width="41.8035714285714" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.07142857142857" style="2" customWidth="1"/>
-    <col min="6" max="8" width="9.14285714285714" style="2"/>
+    <col min="5" max="5" width="27.7142857142857" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.7142857142857" style="2" customWidth="1"/>
+    <col min="7" max="8" width="9.07142857142857" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2219,13 +1725,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>53</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:2">
@@ -2236,106 +1751,168 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:5">
+    <row r="3" s="1" customFormat="1" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:3">
+        <v>58</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>87</v>
+        <v>61</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="3" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:8">
-      <c r="A6" s="2"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="2:8">
       <c r="B6" s="3" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" customFormat="1" spans="1:8">
-      <c r="A7" s="2"/>
+      <c r="H6" s="2">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="2:7">
       <c r="B7" s="3" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" customFormat="1" spans="1:8">
-      <c r="A8" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="G7" s="2">
+        <v>10031</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="2:4">
       <c r="B8" s="3" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" customFormat="1" spans="1:8">
-      <c r="A9" s="2"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="2:4">
       <c r="B9" s="3" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="2:4">
+      <c r="B10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="2:4">
+      <c r="B11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="2:4">
+      <c r="B12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="2">
+        <v>100</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="2:6">
+      <c r="B14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2">
+        <v>90</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2344,15 +1921,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="8" width="9.14285714285714" style="2"/>
+    <col min="1" max="16384" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
@@ -2363,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
@@ -2392,10 +1969,10 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="2:3">
@@ -2406,47 +1983,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:8">
-      <c r="A7" s="2"/>
+    <row r="7" s="2" customFormat="1" spans="2:3">
       <c r="B7" s="2">
         <v>10002</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" customFormat="1" spans="1:8">
-      <c r="A8" s="2"/>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="2:3">
       <c r="B8" s="2">
         <v>10003</v>
       </c>
       <c r="C8" s="2">
         <v>6</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" customFormat="1" spans="1:8">
-      <c r="A9" s="2"/>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="2:3">
       <c r="B9" s="2">
         <v>10004</v>
       </c>
       <c r="C9" s="2">
         <v>9</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/新导表工具/DataTables/Datas/技能表.xlsx
+++ b/新导表工具/DataTables/Datas/技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15140"/>
+    <workbookView windowWidth="23260" windowHeight="14000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="技能表" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="80">
   <si>
     <t>##var</t>
   </si>
@@ -138,9 +138,6 @@
   </si>
   <si>
     <t>Round</t>
-  </si>
-  <si>
-    <t>CondItion</t>
   </si>
   <si>
     <t>(list#sep=,),int</t>
@@ -1289,23 +1286,23 @@
   <sheetPr/>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.14285714285714" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.57142857142857" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.1428571428571" style="2" customWidth="1"/>
-    <col min="4" max="5" width="6.57142857142857" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.9285714285714" style="2" customWidth="1"/>
-    <col min="7" max="7" width="5.92857142857143" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.28571428571429" style="2" customWidth="1"/>
-    <col min="9" max="9" width="5.92857142857143" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.28571428571429" style="2" customWidth="1"/>
-    <col min="11" max="11" width="26.9285714285714" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.2857142857143" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.14166666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.575" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.1416666666667" style="2" customWidth="1"/>
+    <col min="4" max="5" width="6.575" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.925" style="2" customWidth="1"/>
+    <col min="7" max="7" width="5.925" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.28333333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="5.925" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.28333333333333" style="2" customWidth="1"/>
+    <col min="11" max="11" width="26.925" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.2833333333333" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1502,19 +1499,19 @@
   <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="$A11:$XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.14285714285714" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.57142857142857" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.78571428571429" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.9285714285714" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.3571428571429" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.5714285714286" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.1428571428571" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.14166666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.575" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.78333333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.925" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.3583333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.575" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.1416666666667" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1552,10 +1549,10 @@
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1567,7 +1564,7 @@
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:7">
@@ -1578,19 +1575,19 @@
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="2:6">
@@ -1598,14 +1595,14 @@
         <v>10001</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="2:6">
@@ -1613,10 +1610,10 @@
         <v>10002</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2">
         <v>10001</v>
@@ -1630,10 +1627,10 @@
         <v>10003</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2">
         <v>10002</v>
@@ -1647,10 +1644,10 @@
         <v>10004</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2">
         <v>10003</v>
@@ -1664,10 +1661,10 @@
         <v>10005</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2">
         <v>10004</v>
@@ -1681,10 +1678,10 @@
         <v>10031</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="G10" s="2">
         <v>3</v>
@@ -1705,16 +1702,16 @@
       <selection activeCell="A14" sqref="$A14:$XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.14285714285714" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.57142857142857" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.3571428571429" style="2" customWidth="1"/>
-    <col min="4" max="4" width="41.8035714285714" style="2" customWidth="1"/>
-    <col min="5" max="5" width="27.7142857142857" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.7142857142857" style="2" customWidth="1"/>
-    <col min="7" max="8" width="9.07142857142857" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.14285714285714" style="2"/>
+    <col min="1" max="1" width="8.14166666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.575" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.3583333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="41.8" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.7166666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.7166666666667" style="2" customWidth="1"/>
+    <col min="7" max="8" width="9.075" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.14166666666667" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
@@ -1728,19 +1725,19 @@
         <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:2">
@@ -1758,16 +1755,16 @@
       <c r="B3" s="4"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
@@ -1778,32 +1775,32 @@
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="2:8">
       <c r="B6" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1818,7 +1815,7 @@
         <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2"/>
       <c r="G7" s="2">
@@ -1827,86 +1824,86 @@
     </row>
     <row r="8" s="2" customFormat="1" spans="2:4">
       <c r="B8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="2:4">
       <c r="B9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="2:4">
       <c r="B10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="2:4">
       <c r="B11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="2:4">
       <c r="B12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="2">
         <v>100</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="2:6">
       <c r="B14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2">
         <v>90</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1927,9 +1924,9 @@
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="16384" width="9.14285714285714" style="2"/>
+    <col min="1" max="16384" width="9.14166666666667" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
@@ -1940,7 +1937,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
@@ -1972,7 +1969,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="2:3">

--- a/新导表工具/DataTables/Datas/技能表.xlsx
+++ b/新导表工具/DataTables/Datas/技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23260" windowHeight="14000" activeTab="1"/>
+    <workbookView windowHeight="15300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="技能表" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="82">
   <si>
     <t>##var</t>
   </si>
@@ -264,6 +264,12 @@
   </si>
   <si>
     <t>10012</t>
+  </si>
+  <si>
+    <t>20001</t>
+  </si>
+  <si>
+    <t>生命:10</t>
   </si>
   <si>
     <t>Level</t>
@@ -1290,19 +1296,19 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="8.14166666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.575" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.1416666666667" style="2" customWidth="1"/>
-    <col min="4" max="5" width="6.575" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.925" style="2" customWidth="1"/>
-    <col min="7" max="7" width="5.925" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.28333333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="5.925" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.28333333333333" style="2" customWidth="1"/>
-    <col min="11" max="11" width="26.925" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.2833333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.14285714285714" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.57142857142857" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.1428571428571" style="2" customWidth="1"/>
+    <col min="4" max="5" width="6.57142857142857" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.9285714285714" style="2" customWidth="1"/>
+    <col min="7" max="7" width="5.92857142857143" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.28571428571429" style="2" customWidth="1"/>
+    <col min="9" max="9" width="5.92857142857143" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.28571428571429" style="2" customWidth="1"/>
+    <col min="11" max="11" width="26.9285714285714" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.2857142857143" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1499,19 +1505,19 @@
   <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.14166666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.575" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.78333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.925" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.3583333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.575" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.1416666666667" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.14285714285714" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.57142857142857" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.78571428571429" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.9285714285714" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.3571428571429" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.1428571428571" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1696,22 +1702,22 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="$A14:$XFD14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.14166666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.575" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.3583333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="41.8" style="2" customWidth="1"/>
-    <col min="5" max="5" width="27.7166666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.7166666666667" style="2" customWidth="1"/>
-    <col min="7" max="8" width="9.075" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.14166666666667" style="2"/>
+    <col min="1" max="1" width="8.14285714285714" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.57142857142857" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.3571428571429" style="2" customWidth="1"/>
+    <col min="4" max="4" width="41.8035714285714" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.7142857142857" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.7142857142857" style="2" customWidth="1"/>
+    <col min="7" max="8" width="9.07142857142857" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
@@ -1904,6 +1910,17 @@
       </c>
       <c r="F14" s="2" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="2:4">
+      <c r="B15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1924,9 +1941,9 @@
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="16384" width="9.14166666666667" style="2"/>
+    <col min="1" max="16384" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
@@ -1937,7 +1954,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
@@ -1969,7 +1986,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="2:3">

--- a/新导表工具/DataTables/Datas/技能表.xlsx
+++ b/新导表工具/DataTables/Datas/技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15300" activeTab="2"/>
+    <workbookView windowHeight="15140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="技能表" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="113">
   <si>
     <t>##var</t>
   </si>
@@ -254,7 +254,7 @@
     <t>100051</t>
   </si>
   <si>
-    <t>神识:1|法身:1</t>
+    <t>神识:1|灵抗:1</t>
   </si>
   <si>
     <t>10011</t>
@@ -270,6 +270,99 @@
   </si>
   <si>
     <t>生命:10</t>
+  </si>
+  <si>
+    <t>20002</t>
+  </si>
+  <si>
+    <t>灵气:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">## </t>
+  </si>
+  <si>
+    <t>天赋相关效果</t>
+  </si>
+  <si>
+    <t>30001</t>
+  </si>
+  <si>
+    <t>最大生命:3</t>
+  </si>
+  <si>
+    <t>30002</t>
+  </si>
+  <si>
+    <t>最大灵气:3</t>
+  </si>
+  <si>
+    <t>30003</t>
+  </si>
+  <si>
+    <t>体魄:1</t>
+  </si>
+  <si>
+    <t>30004</t>
+  </si>
+  <si>
+    <t>30005</t>
+  </si>
+  <si>
+    <t>神识:1</t>
+  </si>
+  <si>
+    <t>30006</t>
+  </si>
+  <si>
+    <t>速度:1</t>
+  </si>
+  <si>
+    <t>30007</t>
+  </si>
+  <si>
+    <t>灵抗:1</t>
+  </si>
+  <si>
+    <t>30008</t>
+  </si>
+  <si>
+    <t>生命成长:20</t>
+  </si>
+  <si>
+    <t>30009</t>
+  </si>
+  <si>
+    <t>灵气成长:20</t>
+  </si>
+  <si>
+    <t>30010</t>
+  </si>
+  <si>
+    <t>体魄成长:10</t>
+  </si>
+  <si>
+    <t>30011</t>
+  </si>
+  <si>
+    <t>力量成长:10</t>
+  </si>
+  <si>
+    <t>30012</t>
+  </si>
+  <si>
+    <t>神识成长:10</t>
+  </si>
+  <si>
+    <t>30013</t>
+  </si>
+  <si>
+    <t>速度成长:10</t>
+  </si>
+  <si>
+    <t>30014</t>
+  </si>
+  <si>
+    <t>灵抗成长:10</t>
   </si>
   <si>
     <t>Level</t>
@@ -288,7 +381,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -299,6 +392,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -448,7 +548,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -458,6 +558,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,75 +896,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -868,74 +971,77 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -945,10 +1051,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1299,7 +1414,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="1" width="8.14285714285714" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.57142857142857" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.57142857142857" style="4" customWidth="1"/>
     <col min="3" max="3" width="10.1428571428571" style="2" customWidth="1"/>
     <col min="4" max="5" width="6.57142857142857" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.9285714285714" style="2" customWidth="1"/>
@@ -1316,7 +1431,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1331,18 +1446,18 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="9" t="s">
+      <c r="J1" s="10"/>
+      <c r="K1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1350,7 +1465,7 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1365,18 +1480,18 @@
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="9" t="s">
+      <c r="J2" s="10"/>
+      <c r="K2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1384,13 +1499,13 @@
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="5"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="5"/>
       <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1403,13 +1518,13 @@
       <c r="J4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="6"/>
+      <c r="L4" s="9"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1424,7 +1539,7 @@
       <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="9" t="s">
         <v>24</v>
       </c>
       <c r="L5" s="1" t="s">
@@ -1432,13 +1547,13 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="2:12">
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>1001</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="11" t="s">
         <v>27</v>
       </c>
       <c r="H6" s="2">
@@ -1449,13 +1564,13 @@
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="2:12">
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>1002</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="11" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="2">
@@ -1466,27 +1581,27 @@
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="2:12">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="2:2">
-      <c r="B9" s="3"/>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" s="2" customFormat="1" spans="2:2">
-      <c r="B10" s="3"/>
+      <c r="B10" s="4"/>
     </row>
     <row r="11" s="2" customFormat="1" spans="2:2">
-      <c r="B11" s="3"/>
+      <c r="B11" s="4"/>
     </row>
     <row r="12" s="2" customFormat="1" spans="2:2">
-      <c r="B12" s="3"/>
+      <c r="B12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1516,7 +1631,7 @@
     <col min="3" max="3" width="9.78571428571429" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.9285714285714" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.3571428571429" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.5714285714286" style="4" customWidth="1"/>
     <col min="7" max="7" width="10.1428571428571" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
@@ -1537,7 +1652,7 @@
       <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="8" t="s">
         <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1557,7 +1672,7 @@
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>36</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1568,7 +1683,7 @@
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="1" t="s">
         <v>37</v>
       </c>
@@ -1589,7 +1704,7 @@
       <c r="E4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="8" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -1607,7 +1722,7 @@
         <v>43</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1624,7 +1739,7 @@
       <c r="E6" s="2">
         <v>10001</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>100021</v>
       </c>
     </row>
@@ -1641,7 +1756,7 @@
       <c r="E7" s="2">
         <v>10002</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>100031</v>
       </c>
     </row>
@@ -1658,7 +1773,7 @@
       <c r="E8" s="2">
         <v>10003</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>100041</v>
       </c>
     </row>
@@ -1675,7 +1790,7 @@
       <c r="E9" s="2">
         <v>10004</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>100051</v>
       </c>
     </row>
@@ -1686,7 +1801,7 @@
       <c r="C10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>50</v>
       </c>
       <c r="G10" s="2">
@@ -1702,16 +1817,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.14285714285714" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.57142857142857" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.88392857142857" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.57142857142857" style="4" customWidth="1"/>
     <col min="3" max="3" width="11.3571428571429" style="2" customWidth="1"/>
     <col min="4" max="4" width="41.8035714285714" style="2" customWidth="1"/>
     <col min="5" max="5" width="27.7142857142857" style="2" customWidth="1"/>
@@ -1724,7 +1839,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1750,7 +1865,7 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1758,7 +1873,7 @@
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>56</v>
@@ -1777,7 +1892,7 @@
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1791,7 +1906,7 @@
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1802,7 +1917,7 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="2:8">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1817,7 +1932,7 @@
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="2:7">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1829,7 +1944,7 @@
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="2:4">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1840,7 +1955,7 @@
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="2:4">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1851,7 +1966,7 @@
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="2:4">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1862,7 +1977,7 @@
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="2:4">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1873,7 +1988,7 @@
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="2:4">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1884,7 +1999,7 @@
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1898,7 +2013,7 @@
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="2:6">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1913,7 +2028,7 @@
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="2:4">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1921,6 +2036,179 @@
       </c>
       <c r="D15" s="2" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="2:4">
+      <c r="B16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="1:2">
+      <c r="A17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1954,7 +2242,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
@@ -1986,7 +2274,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="2:3">

--- a/新导表工具/DataTables/Datas/技能表.xlsx
+++ b/新导表工具/DataTables/Datas/技能表.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15140" activeTab="2"/>
+    <workbookView windowWidth="24580" windowHeight="16600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="技能表" sheetId="6" r:id="rId1"/>
-    <sheet name="Buff表" sheetId="7" r:id="rId2"/>
-    <sheet name="Effect表" sheetId="8" r:id="rId3"/>
-    <sheet name="条件表" sheetId="9" r:id="rId4"/>
+    <sheet name="移动技能表" sheetId="10" r:id="rId2"/>
+    <sheet name="Buff表" sheetId="7" r:id="rId3"/>
+    <sheet name="Effect表" sheetId="8" r:id="rId4"/>
+    <sheet name="条件表" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="117">
   <si>
     <t>##var</t>
   </si>
@@ -126,6 +127,18 @@
   </si>
   <si>
     <t>100013</t>
+  </si>
+  <si>
+    <t>MOV</t>
+  </si>
+  <si>
+    <t>移动力</t>
+  </si>
+  <si>
+    <t>疾行</t>
+  </si>
+  <si>
+    <t>奔袭</t>
   </si>
   <si>
     <t>$type</t>
@@ -1041,7 +1054,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1067,6 +1080,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="22" applyBorder="1" applyAlignment="1">
@@ -1408,22 +1427,22 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.14285714285714" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.57142857142857" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.1428571428571" style="2" customWidth="1"/>
-    <col min="4" max="5" width="6.57142857142857" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.9285714285714" style="2" customWidth="1"/>
-    <col min="7" max="7" width="5.92857142857143" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.28571428571429" style="2" customWidth="1"/>
-    <col min="9" max="9" width="5.92857142857143" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.28571428571429" style="2" customWidth="1"/>
-    <col min="11" max="11" width="26.9285714285714" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.2857142857143" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.14166666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.575" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.1416666666667" style="2" customWidth="1"/>
+    <col min="4" max="5" width="6.575" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.925" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.66666666666667" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.8333333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="5.925" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.28333333333333" style="2" customWidth="1"/>
+    <col min="11" max="11" width="26.925" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.2833333333333" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1446,18 +1465,18 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="9" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="12" t="s">
+      <c r="J1" s="12"/>
+      <c r="K1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1480,18 +1499,18 @@
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="9" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="12" t="s">
+      <c r="J2" s="12"/>
+      <c r="K2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1518,7 +1537,7 @@
       <c r="J4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="9"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:12">
       <c r="A5" s="1" t="s">
@@ -1539,7 +1558,7 @@
       <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="11" t="s">
         <v>24</v>
       </c>
       <c r="L5" s="1" t="s">
@@ -1553,7 +1572,7 @@
       <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H6" s="2">
@@ -1570,7 +1589,7 @@
       <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="2">
@@ -1618,198 +1637,85 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F$1:F$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="8.14285714285714" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.57142857142857" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.78571428571429" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.9285714285714" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.3571428571429" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.5714285714286" style="4" customWidth="1"/>
-    <col min="7" max="7" width="10.1428571428571" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="9" customFormat="1" spans="1:4">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" s="9" customFormat="1" spans="1:4">
+      <c r="A2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" s="9" customFormat="1" spans="1:1">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="9" customFormat="1" spans="1:4">
+      <c r="A4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="8" t="s">
+    </row>
+    <row r="5" s="10" customFormat="1" spans="2:4">
+      <c r="B5" s="10">
+        <v>1001</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D5" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" s="10" customFormat="1" spans="2:4">
+      <c r="B6" s="10">
+        <v>1002</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="2:6">
-      <c r="B5" s="2">
-        <v>10001</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="2:6">
-      <c r="B6" s="2">
-        <v>10002</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="2">
-        <v>10001</v>
-      </c>
-      <c r="F6" s="4">
-        <v>100021</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="2:6">
-      <c r="B7" s="2">
-        <v>10003</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="2">
-        <v>10002</v>
-      </c>
-      <c r="F7" s="4">
-        <v>100031</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="2:6">
-      <c r="B8" s="2">
-        <v>10004</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="2">
-        <v>10003</v>
-      </c>
-      <c r="F8" s="4">
-        <v>100041</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="2:6">
-      <c r="B9" s="2">
-        <v>10005</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="2">
-        <v>10004</v>
-      </c>
-      <c r="F9" s="4">
-        <v>100051</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="2">
-        <v>10031</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="2">
-        <v>3</v>
+      <c r="D6" s="10">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1817,22 +1723,221 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F$1:F$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="8.14166666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.575" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.78333333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.925" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.3583333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.575" style="4" customWidth="1"/>
+    <col min="7" max="7" width="10.1416666666667" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="2:6">
+      <c r="B5" s="2">
+        <v>10001</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="2:6">
+      <c r="B6" s="2">
+        <v>10002</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10001</v>
+      </c>
+      <c r="F6" s="4">
+        <v>100021</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="2:6">
+      <c r="B7" s="2">
+        <v>10003</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10002</v>
+      </c>
+      <c r="F7" s="4">
+        <v>100031</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="2:6">
+      <c r="B8" s="2">
+        <v>10004</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10003</v>
+      </c>
+      <c r="F8" s="4">
+        <v>100041</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="2:6">
+      <c r="B9" s="2">
+        <v>10005</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10004</v>
+      </c>
+      <c r="F9" s="4">
+        <v>100051</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="2">
+        <v>10031</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="7.88392857142857" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.57142857142857" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.3571428571429" style="2" customWidth="1"/>
-    <col min="4" max="4" width="41.8035714285714" style="2" customWidth="1"/>
-    <col min="5" max="5" width="27.7142857142857" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.7142857142857" style="2" customWidth="1"/>
-    <col min="7" max="8" width="9.07142857142857" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.14285714285714" style="2"/>
+    <col min="1" max="1" width="7.88333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.575" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.3583333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="41.8" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.7166666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.7166666666667" style="2" customWidth="1"/>
+    <col min="7" max="8" width="9.075" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.14166666666667" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
@@ -1843,22 +1948,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:2">
@@ -1876,16 +1981,16 @@
       <c r="B3" s="5"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
@@ -1896,32 +2001,32 @@
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="2:8">
       <c r="B6" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1936,7 +2041,7 @@
         <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2"/>
       <c r="G7" s="2">
@@ -1945,270 +2050,270 @@
     </row>
     <row r="8" s="2" customFormat="1" spans="2:4">
       <c r="B8" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="2:4">
       <c r="B9" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="2:4">
       <c r="B10" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="2:4">
       <c r="B11" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="2:4">
       <c r="B12" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E13" s="2">
         <v>100</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="2:6">
       <c r="B14" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2">
         <v>90</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="2:4">
       <c r="B15" s="4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" spans="2:4">
       <c r="B16" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2220,7 +2325,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C9"/>
@@ -2229,9 +2334,9 @@
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="16384" width="9.14285714285714" style="2"/>
+    <col min="1" max="16384" width="9.14166666666667" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
@@ -2242,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
@@ -2274,7 +2379,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="2:3">

--- a/新导表工具/DataTables/Datas/技能表.xlsx
+++ b/新导表工具/DataTables/Datas/技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24580" windowHeight="16600" activeTab="1"/>
+    <workbookView windowHeight="15140"/>
   </bookViews>
   <sheets>
     <sheet name="技能表" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="117">
   <si>
     <t>##var</t>
   </si>
@@ -111,22 +111,16 @@
     <t xml:space="preserve"> 效果列表</t>
   </si>
   <si>
-    <t>挥砍</t>
+    <t>剑斩</t>
   </si>
   <si>
     <t>默认</t>
   </si>
   <si>
-    <t>射击</t>
-  </si>
-  <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>锋锐</t>
-  </si>
-  <si>
-    <t>100013</t>
+    <t>曲射</t>
+  </si>
+  <si>
+    <t>10021</t>
   </si>
   <si>
     <t>MOV</t>
@@ -171,15 +165,24 @@
     <t>持续回合</t>
   </si>
   <si>
+    <t>战斗</t>
+  </si>
+  <si>
+    <t>100014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">## </t>
+  </si>
+  <si>
+    <t>道术相关</t>
+  </si>
+  <si>
     <t>通用</t>
   </si>
   <si>
     <t>功法属性成长</t>
   </si>
   <si>
-    <t>100011,100012</t>
-  </si>
-  <si>
     <t>练气一层加成</t>
   </si>
   <si>
@@ -192,16 +195,34 @@
     <t>练气九层加成</t>
   </si>
   <si>
-    <t>战斗</t>
-  </si>
-  <si>
-    <t>100014</t>
+    <t>40011</t>
+  </si>
+  <si>
+    <t>40012</t>
+  </si>
+  <si>
+    <t>40021</t>
+  </si>
+  <si>
+    <t>40022</t>
+  </si>
+  <si>
+    <t>40031</t>
+  </si>
+  <si>
+    <t>40032</t>
+  </si>
+  <si>
+    <t>40041</t>
+  </si>
+  <si>
+    <t>40042</t>
   </si>
   <si>
     <t>AttrDict</t>
   </si>
   <si>
-    <t>DamageRatio#default=100</t>
+    <t>Powner</t>
   </si>
   <si>
     <t>DamageType</t>
@@ -228,96 +249,57 @@
     <t>Effect类型</t>
   </si>
   <si>
-    <t>伤害比例%</t>
+    <t>威力</t>
   </si>
   <si>
     <t>伤害类型</t>
   </si>
   <si>
-    <t>100011</t>
-  </si>
-  <si>
-    <t>生命成长:20|灵气成长:10|力量成长:20</t>
-  </si>
-  <si>
-    <t>100012</t>
-  </si>
-  <si>
-    <t>力量:3</t>
-  </si>
-  <si>
-    <t>100021</t>
+    <t>10011</t>
+  </si>
+  <si>
+    <t>物理</t>
+  </si>
+  <si>
+    <t>20001</t>
+  </si>
+  <si>
+    <t>生命:10</t>
+  </si>
+  <si>
+    <t>20002</t>
+  </si>
+  <si>
+    <t>灵气:10</t>
+  </si>
+  <si>
+    <t>天赋相关效果</t>
+  </si>
+  <si>
+    <t>30001</t>
+  </si>
+  <si>
+    <t>最大生命:3</t>
+  </si>
+  <si>
+    <t>30002</t>
+  </si>
+  <si>
+    <t>最大灵气:3</t>
+  </si>
+  <si>
+    <t>30003</t>
+  </si>
+  <si>
+    <t>体魄:1</t>
+  </si>
+  <si>
+    <t>30004</t>
   </si>
   <si>
     <t>力量:1</t>
   </si>
   <si>
-    <t>100031</t>
-  </si>
-  <si>
-    <t>力量:1|体魄:1</t>
-  </si>
-  <si>
-    <t>100041</t>
-  </si>
-  <si>
-    <t>速度:1|力量:1|体魄:1</t>
-  </si>
-  <si>
-    <t>100051</t>
-  </si>
-  <si>
-    <t>神识:1|灵抗:1</t>
-  </si>
-  <si>
-    <t>10011</t>
-  </si>
-  <si>
-    <t>物理</t>
-  </si>
-  <si>
-    <t>10012</t>
-  </si>
-  <si>
-    <t>20001</t>
-  </si>
-  <si>
-    <t>生命:10</t>
-  </si>
-  <si>
-    <t>20002</t>
-  </si>
-  <si>
-    <t>灵气:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">## </t>
-  </si>
-  <si>
-    <t>天赋相关效果</t>
-  </si>
-  <si>
-    <t>30001</t>
-  </si>
-  <si>
-    <t>最大生命:3</t>
-  </si>
-  <si>
-    <t>30002</t>
-  </si>
-  <si>
-    <t>最大灵气:3</t>
-  </si>
-  <si>
-    <t>30003</t>
-  </si>
-  <si>
-    <t>体魄:1</t>
-  </si>
-  <si>
-    <t>30004</t>
-  </si>
-  <si>
     <t>30005</t>
   </si>
   <si>
@@ -376,6 +358,24 @@
   </si>
   <si>
     <t>灵抗成长:10</t>
+  </si>
+  <si>
+    <t>生命成长:10|力量成长:10|速度成长:5|灵抗成长:-5</t>
+  </si>
+  <si>
+    <t>灵气成长:20|神识成长:10|力量成长:-5</t>
+  </si>
+  <si>
+    <t>生命成长:10|体魄成长:10|速度成长:-5</t>
+  </si>
+  <si>
+    <t>灵气成长:20|灵抗成长:10|力量成长:-5</t>
+  </si>
+  <si>
+    <t>生命成长:20|灵气成长:10</t>
+  </si>
+  <si>
+    <t>生命:3</t>
   </si>
   <si>
     <t>Level</t>
@@ -561,7 +561,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -577,6 +577,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,7 +936,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -954,16 +960,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -975,86 +981,86 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1067,6 +1073,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1079,8 +1088,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1424,25 +1442,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="8.14166666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.575" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.1416666666667" style="2" customWidth="1"/>
-    <col min="4" max="5" width="6.575" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.925" style="2" customWidth="1"/>
-    <col min="7" max="7" width="7.66666666666667" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.8333333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="5.925" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.28333333333333" style="2" customWidth="1"/>
-    <col min="11" max="11" width="26.925" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.2833333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.14285714285714" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.57142857142857" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.1428571428571" style="2" customWidth="1"/>
+    <col min="4" max="5" width="6.57142857142857" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.9285714285714" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.66964285714286" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.8303571428571" style="2" customWidth="1"/>
+    <col min="9" max="9" width="5.92857142857143" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.28571428571429" style="2" customWidth="1"/>
+    <col min="11" max="11" width="26.9285714285714" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.2857142857143" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1450,7 +1468,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1465,18 +1483,18 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="11" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="14" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="15" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1484,7 +1502,7 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1499,18 +1517,18 @@
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="11" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="14" t="s">
+      <c r="J2" s="16"/>
+      <c r="K2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1518,13 +1536,13 @@
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="6"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="6"/>
       <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1537,13 +1555,13 @@
       <c r="J4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="11"/>
+      <c r="L4" s="15"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1558,7 +1576,7 @@
       <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L5" s="1" t="s">
@@ -1566,13 +1584,13 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="2:12">
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>1001</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="17" t="s">
         <v>27</v>
       </c>
       <c r="H6" s="2">
@@ -1583,44 +1601,33 @@
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="2:12">
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>1002</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="17" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="2">
-        <v>2</v>
-      </c>
-      <c r="L7" s="2">
-        <v>10021</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="2:12">
-      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>31</v>
-      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="2:2">
+      <c r="B8" s="5"/>
     </row>
     <row r="9" s="2" customFormat="1" spans="2:2">
-      <c r="B9" s="4"/>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" s="2" customFormat="1" spans="2:2">
-      <c r="B10" s="4"/>
+      <c r="B10" s="5"/>
     </row>
     <row r="11" s="2" customFormat="1" spans="2:2">
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="2:2">
-      <c r="B12" s="4"/>
+      <c r="B11" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1639,78 +1646,78 @@
   <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.66964285714286" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" s="9" customFormat="1" spans="1:4">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="13" customFormat="1" spans="1:4">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" s="13" customFormat="1" spans="1:4">
+      <c r="A2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" s="13" customFormat="1" spans="1:1">
+      <c r="A3" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="13" customFormat="1" spans="1:4">
+      <c r="A4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" s="14" customFormat="1" spans="2:4">
+      <c r="B5" s="14">
+        <v>1001</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" s="9" customFormat="1" spans="1:4">
-      <c r="A2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" s="9" customFormat="1" spans="1:1">
-      <c r="A3" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" s="9" customFormat="1" spans="1:4">
-      <c r="A4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="D5" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" s="14" customFormat="1" spans="2:4">
+      <c r="B6" s="14">
+        <v>1002</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" s="10" customFormat="1" spans="2:4">
-      <c r="B5" s="10">
-        <v>1001</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" s="10" customFormat="1" spans="2:4">
-      <c r="B6" s="10">
-        <v>1002</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="10">
+      <c r="D6" s="14">
         <v>6</v>
       </c>
     </row>
@@ -1723,21 +1730,21 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F$1:F$1048576"/>
+      <selection activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="8.14166666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.575" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.78333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.925" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.3583333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.575" style="4" customWidth="1"/>
-    <col min="7" max="7" width="10.1416666666667" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.14285714285714" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.5982142857143" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.78571428571429" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.3571428571429" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.5714285714286" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.1428571428571" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1749,19 +1756,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
@@ -1777,8 +1784,8 @@
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>40</v>
+      <c r="F2" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1788,9 +1795,9 @@
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:7">
@@ -1801,116 +1808,466 @@
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="1" t="s">
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="2">
+        <v>10031</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="F5" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="2:6">
-      <c r="B5" s="2">
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" s="10" customFormat="1" spans="1:9">
+      <c r="A6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="2">
+        <v>40001</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="2">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="2">
+        <v>40002</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="2">
         <v>10001</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="4" t="s">
+      <c r="F8" s="2">
+        <v>40002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="2">
+        <v>40003</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="2:6">
-      <c r="B6" s="2">
+      <c r="D9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="2">
         <v>10002</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="F9" s="2">
+        <v>40002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="2">
+        <v>40004</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10003</v>
+      </c>
+      <c r="F10" s="2">
+        <v>40002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="2">
+        <v>40005</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10004</v>
+      </c>
+      <c r="F11" s="2">
+        <v>40002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="2">
+        <v>40010</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="2">
+        <v>40011</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="2">
         <v>10001</v>
       </c>
-      <c r="F6" s="4">
-        <v>100021</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="2:6">
-      <c r="B7" s="2">
+      <c r="F13" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="2">
+        <v>40012</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10002</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="2">
+        <v>40013</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="2">
         <v>10003</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="F15" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="2">
+        <v>40014</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="2">
+        <v>10004</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="2">
+        <v>40020</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="2">
+        <v>40021</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E18" s="2">
+        <v>10001</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="2">
+        <v>40022</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="2">
         <v>10002</v>
       </c>
-      <c r="F7" s="4">
-        <v>100031</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="2:6">
-      <c r="B8" s="2">
+      <c r="F19" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="2">
+        <v>40023</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="2">
+        <v>10003</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="2">
+        <v>40024</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="2">
         <v>10004</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="F21" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="2">
+        <v>40030</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="2">
+        <v>40031</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="2">
+        <v>10001</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="2">
+        <v>40032</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E24" s="2">
+        <v>10002</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="2">
+        <v>40033</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="2">
         <v>10003</v>
       </c>
-      <c r="F8" s="4">
-        <v>100041</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="2:6">
-      <c r="B9" s="2">
-        <v>10005</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="F25" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="2">
+        <v>40034</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="2">
+        <v>10004</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="2">
+        <v>40040</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="2">
+        <v>40041</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="2">
+        <v>10001</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="2">
+        <v>40042</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="2">
+        <v>10002</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="2">
+        <v>40043</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E30" s="2">
+        <v>10003</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="2">
+        <v>40044</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="2">
         <v>10004</v>
       </c>
-      <c r="F9" s="4">
-        <v>100051</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="2">
-        <v>10031</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="2">
-        <v>3</v>
+      <c r="F31" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1922,55 +2279,55 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="A7" sqref="$A7:$XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="7.88333333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.575" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.3583333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="41.8" style="2" customWidth="1"/>
-    <col min="5" max="5" width="27.7166666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.7166666666667" style="2" customWidth="1"/>
-    <col min="7" max="8" width="9.075" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.14166666666667" style="2"/>
+    <col min="1" max="1" width="7.88392857142857" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.7678571428571" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.3571428571429" style="2" customWidth="1"/>
+    <col min="4" max="4" width="54.9107142857143" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.9464285714286" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.7142857142857" style="2" customWidth="1"/>
+    <col min="7" max="8" width="9.07142857142857" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1978,341 +2335,366 @@
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="2:6">
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="2:4">
+      <c r="B7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="2:4">
+      <c r="B8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="1:2">
+      <c r="A9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" s="4" customFormat="1" spans="1:2">
+      <c r="A24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="2">
+        <v>40001</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="2">
+        <v>40002</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="2:8">
-      <c r="B6" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="2:7">
-      <c r="B7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="G7" s="2">
-        <v>10031</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="2:4">
-      <c r="B8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="2:4">
-      <c r="B9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="2:4">
-      <c r="B10" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="2:4">
-      <c r="B11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="2:4">
-      <c r="B12" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="C33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="2">
-        <v>100</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="2:6">
-      <c r="B14" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2">
-        <v>90</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" s="2" customFormat="1" spans="2:4">
-      <c r="B15" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="2:4">
-      <c r="B16" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" s="3" customFormat="1" spans="1:2">
-      <c r="A17" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="C34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2334,9 +2716,9 @@
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="16384" width="9.14166666666667" style="2"/>
+    <col min="1" max="16384" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">

--- a/新导表工具/DataTables/Datas/技能表.xlsx
+++ b/新导表工具/DataTables/Datas/技能表.xlsx
@@ -1445,7 +1445,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -1457,9 +1457,9 @@
     <col min="6" max="6" width="14.9285714285714" style="2" customWidth="1"/>
     <col min="7" max="7" width="7.66964285714286" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.8303571428571" style="2" customWidth="1"/>
-    <col min="9" max="9" width="5.92857142857143" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.28571428571429" style="2" customWidth="1"/>
-    <col min="11" max="11" width="26.9285714285714" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.58035714285714" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.1964285714286" style="2" customWidth="1"/>
+    <col min="11" max="11" width="25.4375" style="2" customWidth="1"/>
     <col min="12" max="12" width="11.2857142857143" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
   </cols>

--- a/新导表工具/DataTables/Datas/技能表.xlsx
+++ b/新导表工具/DataTables/Datas/技能表.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="121">
   <si>
     <t>##var</t>
   </si>
@@ -123,6 +123,15 @@
     <t>10021</t>
   </si>
   <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>火蛇</t>
+  </si>
+  <si>
+    <t>10031</t>
+  </si>
+  <si>
     <t>MOV</t>
   </si>
   <si>
@@ -259,6 +268,9 @@
   </si>
   <si>
     <t>物理</t>
+  </si>
+  <si>
+    <t>法术</t>
   </si>
   <si>
     <t>20001</t>
@@ -1445,7 +1457,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -1617,8 +1629,22 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="2:2">
-      <c r="B8" s="5"/>
+    <row r="8" s="2" customFormat="1" spans="2:12">
+      <c r="B8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="2:2">
       <c r="B9" s="5"/>
@@ -1647,7 +1673,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66964285714286" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -1663,7 +1689,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" s="13" customFormat="1" spans="1:4">
@@ -1696,7 +1722,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" s="14" customFormat="1" spans="2:4">
@@ -1704,10 +1730,10 @@
         <v>1001</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D5" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" s="14" customFormat="1" spans="2:4">
@@ -1715,10 +1741,10 @@
         <v>1002</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D6" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1756,19 +1782,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
@@ -1785,7 +1811,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1797,7 +1823,7 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:7">
@@ -1808,19 +1834,19 @@
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -1828,10 +1854,10 @@
         <v>10031</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G5" s="2">
         <v>3</v>
@@ -1839,10 +1865,10 @@
     </row>
     <row r="6" s="10" customFormat="1" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -1857,10 +1883,10 @@
         <v>40001</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F7" s="2">
         <v>40001</v>
@@ -1871,10 +1897,10 @@
         <v>40002</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2">
         <v>10001</v>
@@ -1888,10 +1914,10 @@
         <v>40003</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E9" s="2">
         <v>10002</v>
@@ -1905,10 +1931,10 @@
         <v>40004</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2">
         <v>10003</v>
@@ -1922,10 +1948,10 @@
         <v>40005</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2">
         <v>10004</v>
@@ -1939,13 +1965,13 @@
         <v>40010</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G12"/>
       <c r="I12" s="2"/>
@@ -1955,16 +1981,16 @@
         <v>40011</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E13" s="2">
         <v>10001</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -1972,16 +1998,16 @@
         <v>40012</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E14" s="2">
         <v>10002</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -1989,16 +2015,16 @@
         <v>40013</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E15" s="2">
         <v>10003</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -2006,16 +2032,16 @@
         <v>40014</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E16" s="2">
         <v>10004</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -2023,13 +2049,13 @@
         <v>40020</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G17"/>
       <c r="I17" s="2"/>
@@ -2039,16 +2065,16 @@
         <v>40021</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E18" s="2">
         <v>10001</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -2056,16 +2082,16 @@
         <v>40022</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E19" s="2">
         <v>10002</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -2073,16 +2099,16 @@
         <v>40023</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E20" s="2">
         <v>10003</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -2090,16 +2116,16 @@
         <v>40024</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E21" s="2">
         <v>10004</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -2107,13 +2133,13 @@
         <v>40030</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G22"/>
       <c r="I22" s="2"/>
@@ -2123,16 +2149,16 @@
         <v>40031</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E23" s="2">
         <v>10001</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="2:6">
@@ -2140,16 +2166,16 @@
         <v>40032</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E24" s="2">
         <v>10002</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="2:6">
@@ -2157,16 +2183,16 @@
         <v>40033</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E25" s="2">
         <v>10003</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -2174,16 +2200,16 @@
         <v>40034</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E26" s="2">
         <v>10004</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="2:9">
@@ -2191,13 +2217,13 @@
         <v>40040</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G27"/>
       <c r="I27" s="2"/>
@@ -2207,16 +2233,16 @@
         <v>40041</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E28" s="2">
         <v>10001</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="2:6">
@@ -2224,16 +2250,16 @@
         <v>40042</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E29" s="2">
         <v>10002</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="2:6">
@@ -2241,16 +2267,16 @@
         <v>40043</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E30" s="2">
         <v>10003</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="2:6">
@@ -2258,16 +2284,16 @@
         <v>40044</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E31" s="2">
         <v>10004</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2279,10 +2305,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="$A7:$XFD8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
@@ -2305,22 +2331,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:2">
@@ -2338,16 +2364,16 @@
       <c r="B3" s="6"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
@@ -2358,27 +2384,27 @@
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2">
         <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="2:6">
@@ -2386,316 +2412,330 @@
         <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2">
         <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="2:4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="2:6">
       <c r="B7" s="5" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="2:4">
       <c r="B8" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" s="3" customFormat="1" spans="1:2">
-      <c r="A9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="2" t="s">
+    </row>
+    <row r="9" s="2" customFormat="1" spans="2:4">
+      <c r="B9" s="5" t="s">
         <v>82</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="1:2">
+      <c r="A10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="8" t="s">
-        <v>83</v>
+      <c r="B11" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="5" t="s">
-        <v>91</v>
+      <c r="B15" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" s="4" customFormat="1" spans="1:2">
-      <c r="A24" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="2">
-        <v>40001</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" s="4" customFormat="1" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="2">
+        <v>40001</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="2">
         <v>40002</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="C27" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2729,7 +2769,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
@@ -2761,7 +2801,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="2:3">

--- a/新导表工具/DataTables/Datas/技能表.xlsx
+++ b/新导表工具/DataTables/Datas/技能表.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="126">
   <si>
     <t>##var</t>
   </si>
@@ -51,6 +51,9 @@
     <t>Cost</t>
   </si>
   <si>
+    <t>Hit#default=100</t>
+  </si>
+  <si>
     <t>ReleaseRange</t>
   </si>
   <si>
@@ -105,6 +108,9 @@
     <t>释放消耗灵气</t>
   </si>
   <si>
+    <t>命中率</t>
+  </si>
+  <si>
     <t>目标类型</t>
   </si>
   <si>
@@ -117,6 +123,9 @@
     <t>默认</t>
   </si>
   <si>
+    <t>1002</t>
+  </si>
+  <si>
     <t>曲射</t>
   </si>
   <si>
@@ -130,6 +139,12 @@
   </si>
   <si>
     <t>10031</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>挑飞</t>
   </si>
   <si>
     <t>MOV</t>
@@ -1072,7 +1087,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1118,13 +1133,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="22" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="22" applyBorder="1" applyAlignment="1">
@@ -1454,10 +1478,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -1467,16 +1491,17 @@
     <col min="3" max="3" width="10.1428571428571" style="2" customWidth="1"/>
     <col min="4" max="5" width="6.57142857142857" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.9285714285714" style="2" customWidth="1"/>
-    <col min="7" max="7" width="7.66964285714286" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.8303571428571" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.58035714285714" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.1964285714286" style="2" customWidth="1"/>
-    <col min="11" max="11" width="25.4375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.2857142857143" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="7" max="7" width="18.2946428571429" style="15" customWidth="1"/>
+    <col min="8" max="8" width="7.66964285714286" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.8303571428571" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.58035714285714" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.1964285714286" style="2" customWidth="1"/>
+    <col min="12" max="12" width="25.4375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.2857142857143" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:12">
+    <row r="1" s="1" customFormat="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1495,172 +1520,202 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="15" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="18" t="s">
+      <c r="I1" s="20"/>
+      <c r="J1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="K1" s="20"/>
+      <c r="L1" s="21" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:12">
+      <c r="M1" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="I2" s="20"/>
+      <c r="J2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:2">
+      <c r="M2" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="6"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:12">
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="G4" s="16"/>
       <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="15"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:12">
+      <c r="K4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="17"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="G5" s="16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="2:12">
+      <c r="L5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="2:13">
       <c r="B6" s="5">
         <v>1001</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="2">
+        <v>28</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="2">
         <v>1</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <v>10011</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="2:12">
-      <c r="B7" s="5">
-        <v>1002</v>
+    <row r="7" s="2" customFormat="1" spans="2:13">
+      <c r="B7" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="2">
-        <v>3</v>
-      </c>
-      <c r="L7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="19" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="2:12">
+      <c r="I7" s="2">
+        <v>2</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="2:13">
       <c r="B8" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="2">
+        <v>34</v>
+      </c>
+      <c r="G8" s="15">
+        <v>95</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="2">
         <v>2</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="2:2">
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="2:2">
+      <c r="M8" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="2:9">
+      <c r="B9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="2:7">
       <c r="B10" s="5"/>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="2:2">
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="2:7">
       <c r="B11" s="5"/>
+      <c r="G11" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1689,21 +1744,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" s="13" customFormat="1" spans="1:4">
       <c r="A2" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" s="13" customFormat="1" spans="1:1">
@@ -1713,16 +1768,16 @@
     </row>
     <row r="4" s="13" customFormat="1" spans="1:4">
       <c r="A4" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" s="14" customFormat="1" spans="2:4">
@@ -1730,7 +1785,7 @@
         <v>1001</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D5" s="14">
         <v>4</v>
@@ -1741,7 +1796,7 @@
         <v>1002</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D6" s="14">
         <v>5</v>
@@ -1782,71 +1837,71 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -1854,10 +1909,10 @@
         <v>10031</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G5" s="2">
         <v>3</v>
@@ -1865,10 +1920,10 @@
     </row>
     <row r="6" s="10" customFormat="1" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -1883,10 +1938,10 @@
         <v>40001</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F7" s="2">
         <v>40001</v>
@@ -1897,10 +1952,10 @@
         <v>40002</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2">
         <v>10001</v>
@@ -1914,10 +1969,10 @@
         <v>40003</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E9" s="2">
         <v>10002</v>
@@ -1931,10 +1986,10 @@
         <v>40004</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2">
         <v>10003</v>
@@ -1948,10 +2003,10 @@
         <v>40005</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E11" s="2">
         <v>10004</v>
@@ -1965,13 +2020,13 @@
         <v>40010</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G12"/>
       <c r="I12" s="2"/>
@@ -1981,16 +2036,16 @@
         <v>40011</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E13" s="2">
         <v>10001</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -1998,16 +2053,16 @@
         <v>40012</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E14" s="2">
         <v>10002</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -2015,16 +2070,16 @@
         <v>40013</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E15" s="2">
         <v>10003</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -2032,16 +2087,16 @@
         <v>40014</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E16" s="2">
         <v>10004</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -2049,13 +2104,13 @@
         <v>40020</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G17"/>
       <c r="I17" s="2"/>
@@ -2065,16 +2120,16 @@
         <v>40021</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E18" s="2">
         <v>10001</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -2082,16 +2137,16 @@
         <v>40022</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E19" s="2">
         <v>10002</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -2099,16 +2154,16 @@
         <v>40023</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E20" s="2">
         <v>10003</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -2116,16 +2171,16 @@
         <v>40024</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E21" s="2">
         <v>10004</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -2133,13 +2188,13 @@
         <v>40030</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G22"/>
       <c r="I22" s="2"/>
@@ -2149,16 +2204,16 @@
         <v>40031</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E23" s="2">
         <v>10001</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="2:6">
@@ -2166,16 +2221,16 @@
         <v>40032</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E24" s="2">
         <v>10002</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="2:6">
@@ -2183,16 +2238,16 @@
         <v>40033</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E25" s="2">
         <v>10003</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -2200,16 +2255,16 @@
         <v>40034</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E26" s="2">
         <v>10004</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="2:9">
@@ -2217,13 +2272,13 @@
         <v>40040</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G27"/>
       <c r="I27" s="2"/>
@@ -2233,16 +2288,16 @@
         <v>40041</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E28" s="2">
         <v>10001</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="2:6">
@@ -2250,16 +2305,16 @@
         <v>40042</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E29" s="2">
         <v>10002</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="2:6">
@@ -2267,16 +2322,16 @@
         <v>40043</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E30" s="2">
         <v>10003</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="2:6">
@@ -2284,16 +2339,16 @@
         <v>40044</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E31" s="2">
         <v>10004</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2308,7 +2363,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
@@ -2320,7 +2375,8 @@
     <col min="5" max="5" width="12.9464285714286" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.7142857142857" style="2" customWidth="1"/>
     <col min="7" max="8" width="9.07142857142857" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.14285714285714" style="2"/>
+    <col min="9" max="16382" width="9.14285714285714" style="2"/>
+    <col min="16384" max="16384" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
@@ -2331,301 +2387,301 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2">
         <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="2:6">
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2">
         <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="2:6">
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2">
         <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="2:4">
       <c r="B8" s="5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="2:4">
       <c r="B9" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" spans="1:2">
       <c r="A10" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="5" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="8" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="8" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="5" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="5" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" s="4" customFormat="1" spans="1:2">
       <c r="A25" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -2633,10 +2689,10 @@
         <v>40001</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -2644,98 +2700,98 @@
         <v>40002</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2769,23 +2825,23 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:1">
@@ -2795,13 +2851,13 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="2:3">

--- a/新导表工具/DataTables/Datas/技能表.xlsx
+++ b/新导表工具/DataTables/Datas/技能表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513F82CE-E638-4A9D-94FD-5FBA72247645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="15140"/>
+    <workbookView xWindow="6980" yWindow="3040" windowWidth="28800" windowHeight="15460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="技能表" sheetId="6" r:id="rId1"/>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="136">
   <si>
     <t>##var</t>
   </si>
@@ -393,35 +399,70 @@
     <t>灵气成长:20|神识成长:10|力量成长:-5</t>
   </si>
   <si>
+    <t>灵气成长:20|灵抗成长:10|力量成长:-5</t>
+  </si>
+  <si>
+    <t>生命成长:20|灵气成长:10</t>
+  </si>
+  <si>
+    <t>生命:3</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>境界</t>
+  </si>
+  <si>
+    <t>50001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地形相关</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>身法:10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>50002</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>生命成长:10|体魄成长:10|速度成长:-5</t>
-  </si>
-  <si>
-    <t>灵气成长:20|灵抗成长:10|力量成长:-5</t>
-  </si>
-  <si>
-    <t>生命成长:20|灵气成长:10</t>
-  </si>
-  <si>
-    <t>生命:3</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>境界</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>体魄:2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>踏浪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>踏仞</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>踏叶</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>踏焰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>踏岳</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -433,6 +474,7 @@
       <sz val="12"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -440,155 +482,27 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -615,186 +529,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -854,244 +594,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1106,7 +622,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1121,13 +637,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1136,85 +652,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="22" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="22" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="22" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="007F7F7F"/>
+      <color rgb="FF7F7F7F"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1472,36 +963,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.14285714285714" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.57142857142857" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.1428571428571" style="2" customWidth="1"/>
-    <col min="4" max="5" width="6.57142857142857" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.9285714285714" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.2946428571429" style="15" customWidth="1"/>
-    <col min="8" max="8" width="7.66964285714286" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.8303571428571" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.58035714285714" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.1964285714286" style="2" customWidth="1"/>
-    <col min="12" max="12" width="25.4375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.2857142857143" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.58203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="6.58203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.9140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.25" style="15" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.58203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="25.4140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.25" style="2" customWidth="1"/>
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:13">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1523,22 +1014,22 @@
       <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="17" t="s">
+      <c r="I1" s="26"/>
+      <c r="J1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="21" t="s">
+      <c r="K1" s="26"/>
+      <c r="L1" s="20" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:13">
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1560,29 +1051,29 @@
       <c r="G2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="17" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="21" t="s">
+      <c r="K2" s="26"/>
+      <c r="L2" s="20" t="s">
         <v>15</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:7">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="6"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:13">
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1602,7 +1093,7 @@
       </c>
       <c r="M4" s="17"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:13">
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1631,14 +1122,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="2:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <v>1001</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="15"/>
       <c r="H6" s="19" t="s">
         <v>29</v>
       </c>
@@ -1649,14 +1139,13 @@
         <v>10011</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="2:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="15"/>
       <c r="H7" s="19" t="s">
         <v>29</v>
       </c>
@@ -1667,7 +1156,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="2:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>33</v>
       </c>
@@ -1687,28 +1176,19 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="2:9">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="15"/>
       <c r="H9" s="19" t="s">
         <v>29</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="2:7">
-      <c r="B10" s="5"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="2:7">
-      <c r="B11" s="5"/>
-      <c r="G11" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1717,23 +1197,22 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66964285714286" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="13" customFormat="1" spans="1:4">
+    <row r="1" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1747,7 +1226,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" s="13" customFormat="1" spans="1:4">
+    <row r="2" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>11</v>
       </c>
@@ -1761,12 +1240,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" s="13" customFormat="1" spans="1:1">
+    <row r="3" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="13" customFormat="1" spans="1:4">
+    <row r="4" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>17</v>
       </c>
@@ -1780,7 +1259,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" s="14" customFormat="1" spans="2:4">
+    <row r="5" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14">
         <v>1001</v>
       </c>
@@ -1791,7 +1270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" s="14" customFormat="1" spans="2:4">
+    <row r="6" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <v>1002</v>
       </c>
@@ -1802,34 +1281,88 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="15">
+        <v>2001</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="15">
+        <v>2002</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="15">
+        <v>2002</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="15">
+        <v>2002</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="15">
+        <v>2002</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="15">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD5"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.14285714285714" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5982142857143" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.78571428571429" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.3571428571429" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.5714285714286" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.1428571428571" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.58203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.58203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1852,7 +1385,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1872,7 +1405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:7">
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1881,7 +1414,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1904,7 +1437,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>10031</v>
       </c>
@@ -1918,22 +1451,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" s="10" customFormat="1" spans="1:9">
+    <row r="6" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>40001</v>
       </c>
@@ -1947,7 +1476,7 @@
         <v>40001</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>40002</v>
       </c>
@@ -1964,7 +1493,7 @@
         <v>40002</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>40003</v>
       </c>
@@ -1981,7 +1510,7 @@
         <v>40002</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>40004</v>
       </c>
@@ -1998,7 +1527,7 @@
         <v>40002</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>40005</v>
       </c>
@@ -2015,7 +1544,7 @@
         <v>40002</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>40010</v>
       </c>
@@ -2031,7 +1560,7 @@
       <c r="G12"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>40011</v>
       </c>
@@ -2048,7 +1577,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>40012</v>
       </c>
@@ -2065,7 +1594,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>40013</v>
       </c>
@@ -2082,7 +1611,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>40014</v>
       </c>
@@ -2099,7 +1628,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>40020</v>
       </c>
@@ -2115,7 +1644,7 @@
       <c r="G17"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>40021</v>
       </c>
@@ -2132,7 +1661,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>40022</v>
       </c>
@@ -2149,7 +1678,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>40023</v>
       </c>
@@ -2166,7 +1695,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>40024</v>
       </c>
@@ -2183,7 +1712,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>40030</v>
       </c>
@@ -2199,7 +1728,7 @@
       <c r="G22"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>40031</v>
       </c>
@@ -2216,7 +1745,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>40032</v>
       </c>
@@ -2233,7 +1762,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>40033</v>
       </c>
@@ -2250,7 +1779,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>40034</v>
       </c>
@@ -2267,7 +1796,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>40040</v>
       </c>
@@ -2283,7 +1812,7 @@
       <c r="G27"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>40041</v>
       </c>
@@ -2300,7 +1829,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>40042</v>
       </c>
@@ -2317,7 +1846,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>40043</v>
       </c>
@@ -2334,7 +1863,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>40044</v>
       </c>
@@ -2351,35 +1880,64 @@
         <v>69</v>
       </c>
     </row>
+    <row r="32" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <v>50001</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="2">
+        <v>50001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <v>50002</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="2">
+        <v>50002</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:XFC38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.88392857142857" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.7678571428571" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.3571428571429" style="2" customWidth="1"/>
-    <col min="4" max="4" width="54.9107142857143" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.9464285714286" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.7142857142857" style="2" customWidth="1"/>
-    <col min="7" max="8" width="9.07142857142857" style="2" customWidth="1"/>
-    <col min="9" max="16382" width="9.14285714285714" style="2"/>
-    <col min="16384" max="16384" width="9.14285714285714" style="2"/>
+    <col min="1" max="1" width="7.9140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="54.9140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.9140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="2" customWidth="1"/>
+    <col min="7" max="8" width="9.08203125" style="2" customWidth="1"/>
+    <col min="9" max="16382" width="9.1640625" style="2"/>
+    <col min="16384" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2405,7 +1963,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:2">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2413,18 +1971,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:8">
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="27" t="s">
         <v>76</v>
       </c>
+      <c r="F3" s="27"/>
       <c r="G3" s="1" t="s">
         <v>77</v>
       </c>
@@ -2432,7 +1990,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:6">
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -2449,7 +2007,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>82</v>
       </c>
@@ -2463,14 +2021,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="2:6">
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="2"/>
       <c r="E6" s="2">
         <v>4</v>
       </c>
@@ -2478,7 +2035,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="2:6">
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>35</v>
       </c>
@@ -2492,7 +2049,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="2:4">
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>85</v>
       </c>
@@ -2503,7 +2060,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="2:4">
+    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>87</v>
       </c>
@@ -2514,7 +2071,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="1:2">
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>54</v>
       </c>
@@ -2522,7 +2079,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>90</v>
       </c>
@@ -2533,7 +2090,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>92</v>
       </c>
@@ -2544,7 +2101,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>94</v>
       </c>
@@ -2555,7 +2112,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>96</v>
       </c>
@@ -2566,7 +2123,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>98</v>
       </c>
@@ -2577,7 +2134,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>100</v>
       </c>
@@ -2588,7 +2145,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>102</v>
       </c>
@@ -2599,7 +2156,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>104</v>
       </c>
@@ -2610,7 +2167,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>106</v>
       </c>
@@ -2621,7 +2178,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>108</v>
       </c>
@@ -2632,7 +2189,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>110</v>
       </c>
@@ -2643,7 +2200,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>112</v>
       </c>
@@ -2654,7 +2211,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>114</v>
       </c>
@@ -2665,7 +2222,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>116</v>
       </c>
@@ -2676,7 +2233,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" s="4" customFormat="1" spans="1:2">
+    <row r="25" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>54</v>
       </c>
@@ -2684,7 +2241,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>40001</v>
       </c>
@@ -2695,7 +2252,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>40002</v>
       </c>
@@ -2706,7 +2263,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>62</v>
       </c>
@@ -2717,7 +2274,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>63</v>
       </c>
@@ -2728,18 +2285,18 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
+      <c r="D30" s="24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>65</v>
       </c>
@@ -2750,7 +2307,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>66</v>
       </c>
@@ -2758,10 +2315,10 @@
         <v>75</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>67</v>
       </c>
@@ -2772,7 +2329,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>68</v>
       </c>
@@ -2780,10 +2337,10 @@
         <v>75</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>69</v>
       </c>
@@ -2791,33 +2348,62 @@
         <v>75</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E3:F3"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.14285714285714" style="2"/>
+    <col min="1" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2825,10 +2411,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2839,17 +2425,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:1">
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:1">
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:3">
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -2857,10 +2443,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>10001</v>
       </c>
@@ -2868,7 +2454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="2:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>10002</v>
       </c>
@@ -2876,7 +2462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="2:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>10003</v>
       </c>
@@ -2884,7 +2470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="2:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>10004</v>
       </c>
@@ -2893,7 +2479,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/新导表工具/DataTables/Datas/技能表.xlsx
+++ b/新导表工具/DataTables/Datas/技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15140" activeTab="1"/>
+    <workbookView windowHeight="15140" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="技能表" sheetId="6" r:id="rId1"/>
@@ -1770,7 +1770,7 @@
   <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -2486,8 +2486,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6"/>

--- a/新导表工具/DataTables/Datas/技能表.xlsx
+++ b/新导表工具/DataTables/Datas/技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15140" activeTab="3"/>
+    <workbookView windowHeight="15140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="技能表" sheetId="6" r:id="rId1"/>
@@ -1770,8 +1770,8 @@
   <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66071428571429" defaultRowHeight="17.6" outlineLevelCol="3"/>
@@ -2486,8 +2486,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6"/>

--- a/新导表工具/DataTables/Datas/技能表.xlsx
+++ b/新导表工具/DataTables/Datas/技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800" activeTab="2"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="技能表" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="129">
   <si>
     <t>##var</t>
   </si>
@@ -59,6 +59,9 @@
     <t>TargetPos</t>
   </si>
   <si>
+    <t>IsMulti</t>
+  </si>
+  <si>
     <t>*EffectList</t>
   </si>
   <si>
@@ -72,6 +75,9 @@
   </si>
   <si>
     <t>(list#sep=,),int</t>
+  </si>
+  <si>
+    <t>bool</t>
   </si>
   <si>
     <t>list,int</t>
@@ -98,10 +104,13 @@
     <t>命中率</t>
   </si>
   <si>
+    <t>是否多目标</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 效果列表</t>
   </si>
   <si>
-    <t>剑斩</t>
+    <t>斩</t>
   </si>
   <si>
     <t>1,2</t>
@@ -110,25 +119,28 @@
     <t>1002</t>
   </si>
   <si>
-    <t>曲射</t>
+    <t>刺</t>
   </si>
   <si>
-    <t>3,4</t>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
   </si>
   <si>
     <t>1003</t>
   </si>
   <si>
-    <t>火蛇</t>
+    <t>横扫</t>
   </si>
   <si>
-    <t>1004</t>
+    <t xml:space="preserve">## </t>
   </si>
   <si>
-    <t>挑飞</t>
+    <t>野怪技能</t>
   </si>
   <si>
-    <t>1005</t>
+    <t>2001</t>
   </si>
   <si>
     <t>撕咬</t>
@@ -168,9 +180,6 @@
   </si>
   <si>
     <t>100014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">## </t>
   </si>
   <si>
     <t>道术相关</t>
@@ -260,16 +269,16 @@
     <t>技能</t>
   </si>
   <si>
-    <t>10001</t>
+    <t>100101</t>
   </si>
   <si>
     <t>物理</t>
   </si>
   <si>
-    <t>10002</t>
+    <t>100201</t>
   </si>
   <si>
-    <t>法术</t>
+    <t>100301</t>
   </si>
   <si>
     <t>历练相关</t>
@@ -1477,27 +1486,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.16666666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.0833333333333" style="8" customWidth="1"/>
     <col min="3" max="3" width="10.1666666666667" style="2" customWidth="1"/>
     <col min="4" max="5" width="6.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="14" style="2" customWidth="1"/>
     <col min="7" max="7" width="17" style="2" customWidth="1"/>
     <col min="8" max="8" width="17.8333333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.8333333333333" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="9" max="10" width="18" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.8333333333333" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1528,49 +1537,56 @@
       <c r="J1" s="22" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="22" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:10">
+    <row r="2" s="1" customFormat="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="H2" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:9">
+    <row r="3" s="1" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="9"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:10">
+    <row r="4" s="1" customFormat="1" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1578,76 +1594,85 @@
       <c r="H4" s="22"/>
       <c r="I4" s="22"/>
       <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:10">
+    <row r="5" s="1" customFormat="1" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:11">
       <c r="B6" s="8">
         <v>1001</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="G6" s="2">
+        <v>95</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="25">
-        <v>10001</v>
+        <v>27</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="25">
+        <v>100101</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:11">
       <c r="B7" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="25">
-        <v>10001</v>
+        <v>31</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="25">
+        <v>100201</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:11">
       <c r="B8" s="8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G8" s="2">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H8" s="24" t="s">
         <v>27</v>
@@ -1655,45 +1680,39 @@
       <c r="I8" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="25">
-        <v>10002</v>
+      <c r="J8" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="25">
+        <v>100301</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="25">
-        <v>10001</v>
+    <row r="9" s="7" customFormat="1" spans="1:2">
+      <c r="A9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:11">
       <c r="B10" s="8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G10" s="2">
         <v>90</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="25">
-        <v>10001</v>
+        <v>27</v>
+      </c>
+      <c r="K10" s="25">
+        <v>100101</v>
       </c>
     </row>
   </sheetData>
@@ -1731,71 +1750,71 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -1803,10 +1822,10 @@
         <v>10031</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G5" s="2">
         <v>3</v>
@@ -1814,10 +1833,10 @@
     </row>
     <row r="6" s="19" customFormat="1" spans="1:9">
       <c r="A6" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F6" s="16"/>
       <c r="H6" s="21"/>
@@ -1828,10 +1847,10 @@
         <v>40001</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F7" s="2">
         <v>40001</v>
@@ -1842,10 +1861,10 @@
         <v>40002</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2">
         <v>10001</v>
@@ -1859,10 +1878,10 @@
         <v>40003</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E9" s="2">
         <v>10002</v>
@@ -1876,10 +1895,10 @@
         <v>40004</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2">
         <v>10003</v>
@@ -1893,10 +1912,10 @@
         <v>40005</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2">
         <v>10004</v>
@@ -1910,13 +1929,13 @@
         <v>40010</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G12"/>
       <c r="I12" s="2"/>
@@ -1926,16 +1945,16 @@
         <v>40011</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E13" s="2">
         <v>10001</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -1943,16 +1962,16 @@
         <v>40012</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E14" s="2">
         <v>10002</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -1960,16 +1979,16 @@
         <v>40013</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E15" s="2">
         <v>10003</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -1977,16 +1996,16 @@
         <v>40014</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E16" s="2">
         <v>10004</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -1994,13 +2013,13 @@
         <v>40020</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G17"/>
       <c r="I17" s="2"/>
@@ -2010,16 +2029,16 @@
         <v>40021</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E18" s="2">
         <v>10001</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -2027,16 +2046,16 @@
         <v>40022</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E19" s="2">
         <v>10002</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -2044,16 +2063,16 @@
         <v>40023</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E20" s="2">
         <v>10003</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -2061,16 +2080,16 @@
         <v>40024</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E21" s="2">
         <v>10004</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -2078,13 +2097,13 @@
         <v>40030</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G22"/>
       <c r="I22" s="2"/>
@@ -2094,16 +2113,16 @@
         <v>40031</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E23" s="2">
         <v>10001</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="2:6">
@@ -2111,16 +2130,16 @@
         <v>40032</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E24" s="2">
         <v>10002</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="2:6">
@@ -2128,16 +2147,16 @@
         <v>40033</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E25" s="2">
         <v>10003</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -2145,16 +2164,16 @@
         <v>40034</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E26" s="2">
         <v>10004</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="2:9">
@@ -2162,13 +2181,13 @@
         <v>40040</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G27"/>
       <c r="I27" s="2"/>
@@ -2178,16 +2197,16 @@
         <v>40041</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E28" s="2">
         <v>10001</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="2:6">
@@ -2195,16 +2214,16 @@
         <v>40042</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E29" s="2">
         <v>10002</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="2:6">
@@ -2212,16 +2231,16 @@
         <v>40043</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E30" s="2">
         <v>10003</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="2:6">
@@ -2229,24 +2248,24 @@
         <v>40044</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E31" s="2">
         <v>10004</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" s="7" customFormat="1" spans="1:2">
       <c r="A32" s="7" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="2:6">
@@ -2254,7 +2273,7 @@
         <v>50001</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F33" s="2">
         <v>50001</v>
@@ -2265,7 +2284,7 @@
         <v>50002</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F34" s="2">
         <v>50002</v>
@@ -2280,10 +2299,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD39"/>
+  <dimension ref="A1:XFD40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15"/>
@@ -2307,73 +2326,73 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="9"/>
       <c r="D3" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:16384">
       <c r="A5" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -18760,374 +18779,390 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="2:16383">
       <c r="B7" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E7" s="2">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="XFC7" s="2"/>
     </row>
-    <row r="8" s="4" customFormat="1" spans="1:16383">
-      <c r="A8" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    <row r="8" customFormat="1" spans="1:16383">
+      <c r="A8" s="2"/>
+      <c r="B8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="XFC8" s="18"/>
+      <c r="XFC8" s="2"/>
     </row>
-    <row r="9" spans="2:16383">
-      <c r="B9" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="XFC9" s="2"/>
+    <row r="9" s="4" customFormat="1" spans="1:16383">
+      <c r="A9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="XFC9" s="18"/>
     </row>
     <row r="10" spans="2:16383">
       <c r="B10" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="XFC10" s="2"/>
     </row>
-    <row r="11" s="5" customFormat="1" spans="1:2">
-      <c r="A11" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>85</v>
-      </c>
+    <row r="11" spans="2:16383">
+      <c r="B11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="XFC11" s="2"/>
     </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>87</v>
+    <row r="12" s="5" customFormat="1" spans="1:2">
+      <c r="A12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="26" s="6" customFormat="1" spans="1:2">
-      <c r="A26" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>47</v>
+    <row r="26" spans="2:4">
+      <c r="B26" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="2">
-        <v>40001</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>114</v>
+    <row r="27" s="6" customFormat="1" spans="1:2">
+      <c r="A27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="2">
-        <v>40002</v>
+        <v>40001</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="8" t="s">
-        <v>54</v>
+      <c r="B29" s="2">
+        <v>40002</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="37" s="7" customFormat="1" spans="1:2">
-      <c r="A37" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>62</v>
+    <row r="37" spans="2:4">
+      <c r="B37" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>121</v>
+    <row r="38" s="7" customFormat="1" spans="1:2">
+      <c r="A38" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -19161,23 +19196,23 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:1">
@@ -19187,13 +19222,13 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="2:3">

--- a/新导表工具/DataTables/Datas/技能表.xlsx
+++ b/新导表工具/DataTables/Datas/技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800"/>
+    <workbookView windowHeight="17800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="技能表" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="146">
   <si>
     <t>##var</t>
   </si>
@@ -50,6 +50,9 @@
     <t>Cost</t>
   </si>
   <si>
+    <t>UseCount</t>
+  </si>
+  <si>
     <t>Hit#default=100</t>
   </si>
   <si>
@@ -57,6 +60,9 @@
   </si>
   <si>
     <t>TargetPos</t>
+  </si>
+  <si>
+    <t>TargetType#default=敌方</t>
   </si>
   <si>
     <t>IsMulti</t>
@@ -75,6 +81,9 @@
   </si>
   <si>
     <t>(list#sep=,),int</t>
+  </si>
+  <si>
+    <t>ERelationType</t>
   </si>
   <si>
     <t>bool</t>
@@ -101,7 +110,13 @@
     <t>释放消耗灵气</t>
   </si>
   <si>
+    <t>使用次数</t>
+  </si>
+  <si>
     <t>命中率</t>
+  </si>
+  <si>
+    <t>目标类型</t>
   </si>
   <si>
     <t>是否多目标</t>
@@ -132,6 +147,30 @@
   </si>
   <si>
     <t>横扫</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>活血</t>
+  </si>
+  <si>
+    <t>自己</t>
+  </si>
+  <si>
+    <t>1102</t>
+  </si>
+  <si>
+    <t>守护</t>
+  </si>
+  <si>
+    <t>友方</t>
+  </si>
+  <si>
+    <t>1103</t>
+  </si>
+  <si>
+    <t>铁山靠</t>
   </si>
   <si>
     <t xml:space="preserve">## </t>
@@ -239,6 +278,9 @@
     <t>DamageType</t>
   </si>
   <si>
+    <t>CureRate</t>
+  </si>
+  <si>
     <t>BuffList</t>
   </si>
   <si>
@@ -249,6 +291,9 @@
   </si>
   <si>
     <t>攻击</t>
+  </si>
+  <si>
+    <t>治疗</t>
   </si>
   <si>
     <t>AddBuff</t>
@@ -266,6 +311,9 @@
     <t>伤害类型</t>
   </si>
   <si>
+    <t>治疗比例</t>
+  </si>
+  <si>
     <t>技能</t>
   </si>
   <si>
@@ -279,6 +327,9 @@
   </si>
   <si>
     <t>100301</t>
+  </si>
+  <si>
+    <t>110101</t>
   </si>
   <si>
     <t>历练相关</t>
@@ -1083,7 +1134,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1123,6 +1174,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1150,11 +1204,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1486,10 +1540,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1498,15 +1552,17 @@
     <col min="2" max="2" width="10.0833333333333" style="8" customWidth="1"/>
     <col min="3" max="3" width="10.1666666666667" style="2" customWidth="1"/>
     <col min="4" max="5" width="6.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.8333333333333" style="2" customWidth="1"/>
-    <col min="9" max="10" width="18" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.8333333333333" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="6" max="7" width="14" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.8333333333333" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18" style="2" customWidth="1"/>
+    <col min="11" max="11" width="22" style="2" customWidth="1"/>
+    <col min="12" max="12" width="18" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.8333333333333" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1528,190 +1584,275 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="24" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:11">
+    <row r="2" s="1" customFormat="1" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="22" t="s">
+      <c r="I2" s="24" t="s">
         <v>16</v>
       </c>
+      <c r="J2" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:10">
+    <row r="3" s="1" customFormat="1" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3" s="9"/>
-      <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:11">
+    <row r="4" s="1" customFormat="1" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:11">
+    <row r="5" s="1" customFormat="1" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:13">
       <c r="B6" s="8">
         <v>1001</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="2">
+        <v>31</v>
+      </c>
+      <c r="H6" s="2">
         <v>95</v>
       </c>
-      <c r="H6" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="25">
+      <c r="I6" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="26">
         <v>100101</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:13">
       <c r="B7" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="25">
+        <v>34</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="26">
         <v>100201</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:13">
       <c r="B8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="2">
+        <v>90</v>
+      </c>
+      <c r="I8" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="J8" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" s="26">
+        <v>100301</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:13">
+      <c r="A9" s="2"/>
+      <c r="B9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="25"/>
+      <c r="M9" s="26">
+        <v>110101</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:13">
+      <c r="A10" s="2"/>
+      <c r="B10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="25"/>
+      <c r="M10" s="26"/>
+    </row>
+    <row r="11" customFormat="1" spans="1:13">
+      <c r="A11" s="2"/>
+      <c r="B11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="26"/>
+    </row>
+    <row r="12" s="7" customFormat="1" spans="1:2">
+      <c r="A12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="2">
         <v>90</v>
       </c>
-      <c r="H8" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8" s="25">
-        <v>100301</v>
-      </c>
-    </row>
-    <row r="9" s="7" customFormat="1" spans="1:2">
-      <c r="A9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="2">
-        <v>90</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="25">
+      <c r="I13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="26">
         <v>100101</v>
       </c>
     </row>
@@ -1750,71 +1891,71 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>41</v>
+        <v>53</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="20" t="s">
         <v>14</v>
       </c>
+      <c r="F2" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>25</v>
+        <v>59</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>30</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -1822,35 +1963,35 @@
         <v>10031</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="G5" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="6" s="19" customFormat="1" spans="1:9">
+    <row r="6" s="20" customFormat="1" spans="1:9">
       <c r="A6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+        <v>47</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="2">
         <v>40001</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F7" s="2">
         <v>40001</v>
@@ -1861,10 +2002,10 @@
         <v>40002</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E8" s="2">
         <v>10001</v>
@@ -1878,10 +2019,10 @@
         <v>40003</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2">
         <v>10002</v>
@@ -1895,10 +2036,10 @@
         <v>40004</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E10" s="2">
         <v>10003</v>
@@ -1912,10 +2053,10 @@
         <v>40005</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E11" s="2">
         <v>10004</v>
@@ -1929,13 +2070,13 @@
         <v>40010</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G12"/>
       <c r="I12" s="2"/>
@@ -1945,16 +2086,16 @@
         <v>40011</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E13" s="2">
         <v>10001</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -1962,16 +2103,16 @@
         <v>40012</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E14" s="2">
         <v>10002</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -1979,16 +2120,16 @@
         <v>40013</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E15" s="2">
         <v>10003</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -1996,16 +2137,16 @@
         <v>40014</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E16" s="2">
         <v>10004</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -2013,13 +2154,13 @@
         <v>40020</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G17"/>
       <c r="I17" s="2"/>
@@ -2029,16 +2170,16 @@
         <v>40021</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E18" s="2">
         <v>10001</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -2046,16 +2187,16 @@
         <v>40022</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E19" s="2">
         <v>10002</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -2063,16 +2204,16 @@
         <v>40023</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E20" s="2">
         <v>10003</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -2080,16 +2221,16 @@
         <v>40024</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E21" s="2">
         <v>10004</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -2097,13 +2238,13 @@
         <v>40030</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="G22"/>
       <c r="I22" s="2"/>
@@ -2113,16 +2254,16 @@
         <v>40031</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E23" s="2">
         <v>10001</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="2:6">
@@ -2130,16 +2271,16 @@
         <v>40032</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E24" s="2">
         <v>10002</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="2:6">
@@ -2147,16 +2288,16 @@
         <v>40033</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E25" s="2">
         <v>10003</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -2164,16 +2305,16 @@
         <v>40034</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E26" s="2">
         <v>10004</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="2:9">
@@ -2181,13 +2322,13 @@
         <v>40040</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="G27"/>
       <c r="I27" s="2"/>
@@ -2197,16 +2338,16 @@
         <v>40041</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E28" s="2">
         <v>10001</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="2:6">
@@ -2214,16 +2355,16 @@
         <v>40042</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E29" s="2">
         <v>10002</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="2:6">
@@ -2231,16 +2372,16 @@
         <v>40043</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E30" s="2">
         <v>10003</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="2:6">
@@ -2248,24 +2389,24 @@
         <v>40044</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E31" s="2">
         <v>10004</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" s="7" customFormat="1" spans="1:2">
       <c r="A32" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>65</v>
+        <v>47</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="2:6">
@@ -2273,7 +2414,7 @@
         <v>50001</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F33" s="2">
         <v>50001</v>
@@ -2284,7 +2425,7 @@
         <v>50002</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F34" s="2">
         <v>50002</v>
@@ -2299,10 +2440,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD40"/>
+  <dimension ref="A1:XFB41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15"/>
@@ -2312,13 +2453,15 @@
     <col min="3" max="3" width="11.3333333333333" style="2" customWidth="1"/>
     <col min="4" max="4" width="54.8333333333333" style="2" customWidth="1"/>
     <col min="5" max="5" width="23.1666666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.6666666666667" style="2" customWidth="1"/>
-    <col min="7" max="8" width="9" style="2" customWidth="1"/>
-    <col min="9" max="16382" width="9.16666666666667" style="2"/>
-    <col min="16384" max="16384" width="9.16666666666667" style="2"/>
+    <col min="6" max="6" width="15.9166666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.9166666666667" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.8333333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.8333333333333" style="2" customWidth="1"/>
+    <col min="10" max="16380" width="9.16666666666667" style="2"/>
+    <col min="16382" max="16384" width="9.16666666666667" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2326,73 +2469,82 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:8">
+    <row r="3" s="1" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3" s="9"/>
       <c r="D3" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:6">
+    <row r="4" s="1" customFormat="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:16384">
+    <row r="5" s="3" customFormat="1" spans="1:16382">
       <c r="A5" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -18774,395 +18926,409 @@
       <c r="XEZ5" s="12"/>
       <c r="XFA5" s="12"/>
       <c r="XFB5" s="12"/>
-      <c r="XFC5" s="12"/>
-      <c r="XFD5" s="12"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="8" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="7" spans="2:16383">
+    <row r="7" spans="2:16381">
       <c r="B7" s="8" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2">
         <v>1.1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="XFC7" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="XFA7" s="2"/>
     </row>
-    <row r="8" customFormat="1" spans="1:16383">
+    <row r="8" customFormat="1" spans="1:16381">
       <c r="A8" s="2"/>
       <c r="B8" s="8" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E8" s="2">
         <v>0.6</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="XFC8" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="XFA8" s="2"/>
     </row>
-    <row r="9" s="4" customFormat="1" spans="1:16383">
-      <c r="A9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="XFC9" s="18"/>
+    <row r="9" customFormat="1" spans="1:16381">
+      <c r="A9" s="2"/>
+      <c r="B9" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="XFA9" s="2"/>
     </row>
-    <row r="10" spans="2:16383">
-      <c r="B10" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="2" t="s">
+    <row r="10" s="4" customFormat="1" spans="1:16381">
+      <c r="A10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="XFA10" s="19"/>
+    </row>
+    <row r="11" spans="2:16381">
+      <c r="B11" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="XFC10" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="XFA11" s="2"/>
     </row>
-    <row r="11" spans="2:16383">
-      <c r="B11" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="XFC11" s="2"/>
+    <row r="12" spans="2:16381">
+      <c r="B12" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="XFA12" s="2"/>
     </row>
-    <row r="12" s="5" customFormat="1" spans="1:2">
-      <c r="A12" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>90</v>
+    <row r="13" s="5" customFormat="1" spans="1:2">
+      <c r="A13" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="8" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="8" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="8" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="8" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="8" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="8" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="8" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="8" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="8" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="8" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="8" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="8" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="27" s="6" customFormat="1" spans="1:2">
-      <c r="A27" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>50</v>
+    <row r="27" spans="2:4">
+      <c r="B27" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="2">
-        <v>40001</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>117</v>
+    <row r="28" s="6" customFormat="1" spans="1:2">
+      <c r="A28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="2">
-        <v>40002</v>
+        <v>40001</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="8" t="s">
-        <v>57</v>
+      <c r="B30" s="2">
+        <v>40002</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="8" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="8" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="8" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="8" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="8" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="8" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="8" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="38" s="7" customFormat="1" spans="1:2">
-      <c r="A38" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>65</v>
+    <row r="38" spans="2:4">
+      <c r="B38" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>124</v>
+    <row r="39" s="7" customFormat="1" spans="1:2">
+      <c r="A39" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="8" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>126</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -19196,23 +19362,23 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:1">
@@ -19222,13 +19388,13 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="2:3">

--- a/新导表工具/DataTables/Datas/技能表.xlsx
+++ b/新导表工具/DataTables/Datas/技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800" activeTab="2"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="技能表" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="156">
   <si>
     <t>##var</t>
   </si>
@@ -68,7 +68,7 @@
     <t>IsMulti</t>
   </si>
   <si>
-    <t>*EffectList</t>
+    <t>EffectList</t>
   </si>
   <si>
     <t>##type</t>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>bool</t>
-  </si>
-  <si>
-    <t>list,int</t>
   </si>
   <si>
     <t>##</t>
@@ -173,6 +170,12 @@
     <t>铁山靠</t>
   </si>
   <si>
+    <t>2,3,4</t>
+  </si>
+  <si>
+    <t>110301,110302,110303</t>
+  </si>
+  <si>
     <t xml:space="preserve">## </t>
   </si>
   <si>
@@ -192,9 +195,6 @@
   </si>
   <si>
     <t>ConditionId</t>
-  </si>
-  <si>
-    <t>EffectList</t>
   </si>
   <si>
     <t>Round</t>
@@ -269,6 +269,9 @@
     <t>地形相关</t>
   </si>
   <si>
+    <t>TargetType</t>
+  </si>
+  <si>
     <t>AttrDict</t>
   </si>
   <si>
@@ -287,6 +290,12 @@
     <t>SkillList</t>
   </si>
   <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>EEffectTargetType</t>
+  </si>
+  <si>
     <t>修改属性</t>
   </si>
   <si>
@@ -302,7 +311,13 @@
     <t>获取技能</t>
   </si>
   <si>
+    <t>位移</t>
+  </si>
+  <si>
     <t>Effect类型</t>
+  </si>
+  <si>
+    <t>效果目标</t>
   </si>
   <si>
     <t>伤害比例</t>
@@ -312,6 +327,9 @@
   </si>
   <si>
     <t>治疗比例</t>
+  </si>
+  <si>
+    <t>距离</t>
   </si>
   <si>
     <t>技能</t>
@@ -330,6 +348,18 @@
   </si>
   <si>
     <t>110101</t>
+  </si>
+  <si>
+    <t>110301</t>
+  </si>
+  <si>
+    <t>110302</t>
+  </si>
+  <si>
+    <t>施法者</t>
+  </si>
+  <si>
+    <t>110303</t>
   </si>
   <si>
     <t>历练相关</t>
@@ -1134,7 +1164,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1174,7 +1204,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
@@ -1204,16 +1234,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="22" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1542,317 +1575,319 @@
   <sheetPr/>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M10 M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.16666666666667" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.16666666666667" style="8" customWidth="1"/>
     <col min="2" max="2" width="10.0833333333333" style="8" customWidth="1"/>
-    <col min="3" max="3" width="10.1666666666667" style="2" customWidth="1"/>
-    <col min="4" max="5" width="6.5" style="2" customWidth="1"/>
-    <col min="6" max="7" width="14" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.8333333333333" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18" style="2" customWidth="1"/>
-    <col min="11" max="11" width="22" style="2" customWidth="1"/>
-    <col min="12" max="12" width="18" style="2" customWidth="1"/>
-    <col min="13" max="13" width="15.8333333333333" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="10.1666666666667" style="8" customWidth="1"/>
+    <col min="4" max="5" width="6.5" style="8" customWidth="1"/>
+    <col min="6" max="7" width="14" style="8" customWidth="1"/>
+    <col min="8" max="8" width="17" style="8" customWidth="1"/>
+    <col min="9" max="9" width="17.8333333333333" style="8" customWidth="1"/>
+    <col min="10" max="10" width="18" style="8" customWidth="1"/>
+    <col min="11" max="11" width="24.4166666666667" style="8" customWidth="1"/>
+    <col min="12" max="12" width="18" style="8" customWidth="1"/>
+    <col min="13" max="13" width="25.25" style="8" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="9" customFormat="1" spans="1:13">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:13">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="9" customFormat="1" spans="1:13">
+      <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" s="9" customFormat="1" spans="1:12">
+      <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
+      <c r="B3" s="9"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:12">
-      <c r="A3" s="1" t="s">
+    <row r="4" s="9" customFormat="1" spans="1:13">
+      <c r="A4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+    </row>
+    <row r="5" s="9" customFormat="1" spans="1:13">
+      <c r="A5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:13">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="K5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="8">
         <v>1001</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="8">
+        <v>95</v>
+      </c>
+      <c r="I6" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="2">
-        <v>95</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="26">
+      <c r="J6" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="27">
         <v>100101</v>
       </c>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="I7" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="J7" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="26">
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="27">
         <v>100201</v>
       </c>
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="H8" s="8">
+        <v>90</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" s="27">
+        <v>100301</v>
+      </c>
+    </row>
+    <row r="9" s="23" customFormat="1" spans="1:13">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="2">
-        <v>90</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" s="26">
-        <v>100301</v>
+      <c r="C9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="8">
+        <v>3</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="26"/>
+      <c r="M9" s="27">
+        <v>110101</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:13">
-      <c r="A9" s="2"/>
-      <c r="B9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="2">
-        <v>3</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25" t="s">
+    <row r="10" s="23" customFormat="1" spans="1:13">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="25"/>
-      <c r="M9" s="26">
-        <v>110101</v>
-      </c>
+      <c r="C10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="26"/>
+      <c r="M10" s="27"/>
     </row>
-    <row r="10" customFormat="1" spans="1:13">
-      <c r="A10" s="2"/>
-      <c r="B10" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25" t="s">
+    <row r="11" s="23" customFormat="1" spans="1:13">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="25"/>
-      <c r="M10" s="26"/>
+      <c r="C11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="27" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="11" customFormat="1" spans="1:13">
-      <c r="A11" s="2"/>
-      <c r="B11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="26"/>
-    </row>
-    <row r="12" s="7" customFormat="1" spans="1:2">
-      <c r="A12" s="7" t="s">
-        <v>47</v>
+    <row r="12" s="24" customFormat="1" spans="1:2">
+      <c r="A12" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="2">
+      <c r="C13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="8">
         <v>90</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" s="26">
+      <c r="I13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="27">
         <v>100101</v>
       </c>
     </row>
@@ -1891,16 +1926,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>55</v>
@@ -1928,7 +1963,7 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="1" t="s">
@@ -1937,10 +1972,10 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:7">
       <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>57</v>
@@ -1952,7 +1987,7 @@
         <v>59</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>60</v>
@@ -1974,7 +2009,7 @@
     </row>
     <row r="6" s="20" customFormat="1" spans="1:9">
       <c r="A6" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>63</v>
@@ -2403,7 +2438,7 @@
     </row>
     <row r="32" s="7" customFormat="1" spans="1:2">
       <c r="A32" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32" s="18" t="s">
         <v>78</v>
@@ -2440,10 +2475,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFB41"/>
+  <dimension ref="A1:XFC44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="D10:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15"/>
@@ -2451,17 +2486,19 @@
     <col min="1" max="1" width="7.83333333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.6666666666667" style="8" customWidth="1"/>
     <col min="3" max="3" width="11.3333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="54.8333333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.1666666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.9166666666667" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.9166666666667" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.8333333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.8333333333333" style="2" customWidth="1"/>
-    <col min="10" max="16380" width="9.16666666666667" style="2"/>
-    <col min="16382" max="16384" width="9.16666666666667" style="2"/>
+    <col min="4" max="4" width="19.4166666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="54.8333333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.1666666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.9166666666667" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.9166666666667" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.8333333333333" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.8333333333333" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.5833333333333" style="2" customWidth="1"/>
+    <col min="12" max="16381" width="9.16666666666667" style="2"/>
+    <col min="16383" max="16384" width="9.16666666666667" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2469,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>79</v>
@@ -2489,62 +2526,80 @@
       <c r="I1" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:2">
+    <row r="2" s="1" customFormat="1" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:9">
+    <row r="3" s="1" customFormat="1" spans="1:11">
       <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="E3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="D3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>89</v>
+      <c r="C4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="1:16382">
+    <row r="5" s="3" customFormat="1" spans="1:16383">
       <c r="A5" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -18926,414 +18981,472 @@
       <c r="XEZ5" s="12"/>
       <c r="XFA5" s="12"/>
       <c r="XFB5" s="12"/>
+      <c r="XFC5" s="12"/>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:7">
       <c r="B6" s="8" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="2">
+        <v>89</v>
+      </c>
+      <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>96</v>
+      <c r="G6" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="7" spans="2:16381">
+    <row r="7" spans="2:16382">
       <c r="B7" s="8" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="2">
+        <v>89</v>
+      </c>
+      <c r="F7" s="2">
         <v>1.1</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="XFA7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="XFB7" s="2"/>
     </row>
-    <row r="8" customFormat="1" spans="1:16381">
+    <row r="8" customFormat="1" spans="1:16382">
       <c r="A8" s="2"/>
       <c r="B8" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="2">
+        <v>104</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="F8" s="2">
         <v>0.6</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="XFA8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="XFB8" s="2"/>
     </row>
-    <row r="9" customFormat="1" spans="1:16381">
+    <row r="9" customFormat="1" spans="1:16382">
       <c r="A9" s="2"/>
       <c r="B9" s="8" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="13">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2">
         <v>0.15</v>
       </c>
-      <c r="XFA9" s="2"/>
+      <c r="XFB9" s="2"/>
     </row>
-    <row r="10" s="4" customFormat="1" spans="1:16381">
-      <c r="A10" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="XFA10" s="19"/>
+    <row r="10" customFormat="1" spans="1:16382">
+      <c r="A10" s="2"/>
+      <c r="B10" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="XFB10" s="2"/>
     </row>
-    <row r="11" spans="2:16381">
+    <row r="11" customFormat="1" spans="1:16382">
+      <c r="A11" s="2"/>
       <c r="B11" s="8" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="XFA11" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="K11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="XFB11" s="2"/>
     </row>
-    <row r="12" spans="2:16381">
+    <row r="12" customFormat="1" spans="1:16382">
+      <c r="A12" s="2"/>
       <c r="B12" s="8" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="XFA12" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="XFB12" s="2"/>
     </row>
-    <row r="13" s="5" customFormat="1" spans="1:2">
-      <c r="A13" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>105</v>
-      </c>
+    <row r="13" s="4" customFormat="1" spans="1:16382">
+      <c r="A13" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="XFB13" s="19"/>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:16382">
       <c r="B14" s="8" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>107</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="XFB14" s="2"/>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:16382">
       <c r="B15" s="8" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>109</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="XFB15" s="2"/>
     </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>111</v>
+    <row r="16" s="5" customFormat="1" spans="1:2">
+      <c r="A16" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>115</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:5">
       <c r="B17" s="8" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>113</v>
+        <v>88</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:5">
       <c r="B18" s="8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>115</v>
+        <v>88</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:5">
       <c r="B19" s="8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>117</v>
+        <v>88</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:5">
       <c r="B20" s="8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>119</v>
+        <v>88</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:5">
       <c r="B21" s="8" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" s="6" customFormat="1" spans="1:2">
+      <c r="A31" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="2">
+        <v>40001</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="2">
+        <v>40002</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>123</v>
+    <row r="38" spans="2:5">
+      <c r="B38" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>125</v>
+    <row r="39" spans="2:5">
+      <c r="B39" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>127</v>
+    <row r="40" spans="2:5">
+      <c r="B40" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>129</v>
+    <row r="41" spans="2:5">
+      <c r="B41" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>131</v>
+    <row r="42" s="7" customFormat="1" spans="1:2">
+      <c r="A42" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>133</v>
+    <row r="43" spans="2:5">
+      <c r="B43" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
-    <row r="28" s="6" customFormat="1" spans="1:2">
-      <c r="A28" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="2">
-        <v>40001</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="2">
-        <v>40002</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39" s="7" customFormat="1" spans="1:2">
-      <c r="A39" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>143</v>
+    <row r="44" spans="2:5">
+      <c r="B44" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -19362,7 +19475,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
@@ -19378,7 +19491,7 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:1">
@@ -19388,13 +19501,13 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="2:3">

--- a/新导表工具/DataTables/Datas/技能表.xlsx
+++ b/新导表工具/DataTables/Datas/技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800"/>
+    <workbookView windowHeight="17800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="技能表" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="167">
   <si>
     <t>##var</t>
   </si>
@@ -176,6 +176,39 @@
     <t>110301,110302,110303</t>
   </si>
   <si>
+    <t>1201</t>
+  </si>
+  <si>
+    <t>灵气护体</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>120101</t>
+  </si>
+  <si>
+    <t>1202</t>
+  </si>
+  <si>
+    <t>火蛇</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>120201</t>
+  </si>
+  <si>
+    <t>1203</t>
+  </si>
+  <si>
+    <t>火云</t>
+  </si>
+  <si>
+    <t>120301</t>
+  </si>
+  <si>
     <t xml:space="preserve">## </t>
   </si>
   <si>
@@ -186,9 +219,6 @@
   </si>
   <si>
     <t>撕咬</t>
-  </si>
-  <si>
-    <t>1,2,3,4</t>
   </si>
   <si>
     <t>$type</t>
@@ -215,10 +245,10 @@
     <t>持续回合</t>
   </si>
   <si>
-    <t>战斗</t>
+    <t>护盾</t>
   </si>
   <si>
-    <t>100014</t>
+    <t>获得护盾(耐久受神识加成)</t>
   </si>
   <si>
     <t>道术相关</t>
@@ -360,6 +390,9 @@
   </si>
   <si>
     <t>110303</t>
+  </si>
+  <si>
+    <t>法术</t>
   </si>
   <si>
     <t>历练相关</t>
@@ -1243,10 +1276,10 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1573,10 +1606,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M10 M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1744,15 +1777,15 @@
       <c r="H6" s="8">
         <v>95</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="27">
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="26">
         <v>100101</v>
       </c>
     </row>
@@ -1763,15 +1796,15 @@
       <c r="C7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="27">
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="26">
         <v>100201</v>
       </c>
     </row>
@@ -1785,17 +1818,17 @@
       <c r="H8" s="8">
         <v>90</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26" t="b">
+      <c r="K8" s="27"/>
+      <c r="L8" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="M8" s="27">
+      <c r="M8" s="26">
         <v>100301</v>
       </c>
     </row>
@@ -1811,15 +1844,15 @@
         <v>3</v>
       </c>
       <c r="H9" s="8"/>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26" t="s">
+      <c r="J9" s="27"/>
+      <c r="K9" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="27">
+      <c r="L9" s="27"/>
+      <c r="M9" s="26">
         <v>110101</v>
       </c>
     </row>
@@ -1832,15 +1865,15 @@
         <v>42</v>
       </c>
       <c r="H10" s="8"/>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26" t="s">
+      <c r="J10" s="27"/>
+      <c r="K10" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="26"/>
-      <c r="M10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="26"/>
     </row>
     <row r="11" s="23" customFormat="1" spans="1:13">
       <c r="A11" s="8"/>
@@ -1851,43 +1884,108 @@
         <v>45</v>
       </c>
       <c r="H11" s="8"/>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="27" t="s">
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" s="24" customFormat="1" spans="1:2">
-      <c r="A12" s="24" t="s">
+    <row r="12" s="23" customFormat="1" spans="1:13">
+      <c r="A12" s="8"/>
+      <c r="B12" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="C12" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="27"/>
+      <c r="M12" s="26" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="8" t="s">
+    <row r="13" s="23" customFormat="1" spans="1:13">
+      <c r="A13" s="8"/>
+      <c r="B13" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" s="23" customFormat="1" spans="1:13">
+      <c r="A14" s="8"/>
+      <c r="B14" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="8">
+      <c r="J14" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" s="24" customFormat="1" spans="1:2">
+      <c r="A15" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="8">
         <v>90</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" s="8" t="s">
+      <c r="I16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M13" s="27">
+      <c r="M16" s="26">
         <v>100101</v>
       </c>
     </row>
@@ -1903,7 +2001,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1911,7 +2009,7 @@
     <col min="1" max="1" width="8.16666666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.66666666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.8333333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.5833333333333" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.3333333333333" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="8" customWidth="1"/>
     <col min="7" max="7" width="10.1666666666667" style="2" customWidth="1"/>
@@ -1926,19 +2024,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
@@ -1967,7 +2065,7 @@
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:7">
@@ -1978,41 +2076,43 @@
         <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F4" s="21" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" customFormat="1" spans="1:7">
+      <c r="A5" s="2"/>
       <c r="B5" s="2">
-        <v>10031</v>
+        <v>120101</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>62</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="8"/>
       <c r="G5" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="6" s="20" customFormat="1" spans="1:9">
       <c r="A6" s="6" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F6" s="17"/>
       <c r="H6" s="22"/>
@@ -2023,10 +2123,10 @@
         <v>40001</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F7" s="2">
         <v>40001</v>
@@ -2037,10 +2137,10 @@
         <v>40002</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2">
         <v>10001</v>
@@ -2054,10 +2154,10 @@
         <v>40003</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2">
         <v>10002</v>
@@ -2071,10 +2171,10 @@
         <v>40004</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2">
         <v>10003</v>
@@ -2088,10 +2188,10 @@
         <v>40005</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E11" s="2">
         <v>10004</v>
@@ -2105,13 +2205,13 @@
         <v>40010</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G12"/>
       <c r="I12" s="2"/>
@@ -2121,16 +2221,16 @@
         <v>40011</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2">
         <v>10001</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -2138,16 +2238,16 @@
         <v>40012</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E14" s="2">
         <v>10002</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -2155,16 +2255,16 @@
         <v>40013</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E15" s="2">
         <v>10003</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -2172,16 +2272,16 @@
         <v>40014</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E16" s="2">
         <v>10004</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -2189,13 +2289,13 @@
         <v>40020</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="G17"/>
       <c r="I17" s="2"/>
@@ -2205,16 +2305,16 @@
         <v>40021</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2">
         <v>10001</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -2222,16 +2322,16 @@
         <v>40022</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E19" s="2">
         <v>10002</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -2239,16 +2339,16 @@
         <v>40023</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E20" s="2">
         <v>10003</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -2256,16 +2356,16 @@
         <v>40024</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E21" s="2">
         <v>10004</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -2273,13 +2373,13 @@
         <v>40030</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G22"/>
       <c r="I22" s="2"/>
@@ -2289,16 +2389,16 @@
         <v>40031</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2">
         <v>10001</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="2:6">
@@ -2306,16 +2406,16 @@
         <v>40032</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E24" s="2">
         <v>10002</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="2:6">
@@ -2323,16 +2423,16 @@
         <v>40033</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E25" s="2">
         <v>10003</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -2340,16 +2440,16 @@
         <v>40034</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E26" s="2">
         <v>10004</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="2:9">
@@ -2357,13 +2457,13 @@
         <v>40040</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G27"/>
       <c r="I27" s="2"/>
@@ -2373,16 +2473,16 @@
         <v>40041</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E28" s="2">
         <v>10001</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="2:6">
@@ -2390,16 +2490,16 @@
         <v>40042</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E29" s="2">
         <v>10002</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="2:6">
@@ -2407,16 +2507,16 @@
         <v>40043</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E30" s="2">
         <v>10003</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="2:6">
@@ -2424,47 +2524,39 @@
         <v>40044</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E31" s="2">
         <v>10004</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" s="7" customFormat="1" spans="1:2">
       <c r="A32" s="7" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="2">
-        <v>50001</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33" s="2">
-        <v>50001</v>
-      </c>
+    <row r="33" spans="3:9">
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="F33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="2">
-        <v>50002</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" s="2">
-        <v>50002</v>
-      </c>
+    <row r="34" spans="3:9">
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="F34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2475,10 +2567,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFC44"/>
+  <dimension ref="A1:XFC47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="D10:K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15"/>
@@ -2506,31 +2598,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
@@ -2541,7 +2633,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:11">
@@ -2550,22 +2642,22 @@
       </c>
       <c r="B3" s="9"/>
       <c r="E3" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:11">
@@ -2576,22 +2668,22 @@
         <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:16383">
@@ -2599,7 +2691,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -18985,57 +19077,57 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="8" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="2:16382">
       <c r="B7" s="8" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F7" s="2">
         <v>1.1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="XFB7" s="2"/>
     </row>
     <row r="8" customFormat="1" spans="1:16382">
       <c r="A8" s="2"/>
       <c r="B8" s="8" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D8" s="2"/>
       <c r="F8" s="2">
         <v>0.6</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="XFB8" s="2"/>
     </row>
     <row r="9" customFormat="1" spans="1:16382">
       <c r="A9" s="2"/>
       <c r="B9" s="8" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -19049,10 +19141,10 @@
     <row r="10" customFormat="1" spans="1:16382">
       <c r="A10" s="2"/>
       <c r="B10" s="8" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -19066,13 +19158,13 @@
     <row r="11" customFormat="1" spans="1:16382">
       <c r="A11" s="2"/>
       <c r="B11" s="8" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -19086,10 +19178,10 @@
     <row r="12" customFormat="1" spans="1:16382">
       <c r="A12" s="2"/>
       <c r="B12" s="8" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -19101,347 +19193,406 @@
       </c>
       <c r="XFB12" s="2"/>
     </row>
-    <row r="13" s="4" customFormat="1" spans="1:16382">
-      <c r="A13" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="XFB13" s="19"/>
+    <row r="13" customFormat="1" spans="1:16382">
+      <c r="A13" s="2"/>
+      <c r="B13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2">
+        <v>120101</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="XFB13" s="2"/>
     </row>
-    <row r="14" spans="2:16382">
+    <row r="14" customFormat="1" spans="1:16382">
+      <c r="A14" s="2"/>
       <c r="B14" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>112</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="K14" s="2"/>
       <c r="XFB14" s="2"/>
     </row>
-    <row r="15" spans="2:16382">
+    <row r="15" customFormat="1" spans="1:16382">
+      <c r="A15" s="2"/>
       <c r="B15" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>114</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="K15" s="2"/>
       <c r="XFB15" s="2"/>
     </row>
-    <row r="16" s="5" customFormat="1" spans="1:2">
-      <c r="A16" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>115</v>
-      </c>
+    <row r="16" s="4" customFormat="1" spans="1:16382">
+      <c r="A16" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="XFB16" s="19"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:16382">
       <c r="B17" s="8" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>117</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="XFB17" s="2"/>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:16382">
       <c r="B18" s="8" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>119</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="XFB18" s="2"/>
     </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>121</v>
+    <row r="19" s="5" customFormat="1" spans="1:2">
+      <c r="A19" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="8" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="8" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="8" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="8" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="8" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="8" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="8" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="8" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="8" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="8" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="31" s="6" customFormat="1" spans="1:2">
-      <c r="A31" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>63</v>
+    <row r="31" spans="2:5">
+      <c r="B31" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="2">
-        <v>40001</v>
+      <c r="B32" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="2">
-        <v>40002</v>
+      <c r="B33" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
     </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>145</v>
+    <row r="34" s="6" customFormat="1" spans="1:2">
+      <c r="A34" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="8" t="s">
-        <v>71</v>
+      <c r="B35" s="2">
+        <v>40001</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="8" t="s">
-        <v>72</v>
+      <c r="B36" s="2">
+        <v>40002</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="8" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="8" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="8" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="8" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="8" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="42" s="7" customFormat="1" spans="1:2">
-      <c r="A42" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>78</v>
+    <row r="42" spans="2:5">
+      <c r="B42" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="8" t="s">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" s="8" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" s="7" customFormat="1" spans="1:2">
+      <c r="A45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>153</v>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -19475,7 +19626,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
@@ -19507,7 +19658,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="2:3">

--- a/新导表工具/DataTables/Datas/技能表.xlsx
+++ b/新导表工具/DataTables/Datas/技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800" activeTab="2"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="技能表" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="177">
   <si>
     <t>##var</t>
   </si>
@@ -134,6 +134,9 @@
     <t>刺</t>
   </si>
   <si>
+    <t>90</t>
+  </si>
+  <si>
     <t>2,3</t>
   </si>
   <si>
@@ -158,10 +161,10 @@
     <t>1102</t>
   </si>
   <si>
-    <t>守护</t>
+    <t>直拳</t>
   </si>
   <si>
-    <t>友方</t>
+    <t>110201,110202</t>
   </si>
   <si>
     <t>1103</t>
@@ -182,7 +185,13 @@
     <t>灵气护体</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>3,4</t>
+  </si>
+  <si>
+    <t>友方</t>
   </si>
   <si>
     <t>120101</t>
@@ -221,6 +230,9 @@
     <t>撕咬</t>
   </si>
   <si>
+    <t>80</t>
+  </si>
+  <si>
     <t>$type</t>
   </si>
   <si>
@@ -243,6 +255,15 @@
   </si>
   <si>
     <t>持续回合</t>
+  </si>
+  <si>
+    <t>战斗通用</t>
+  </si>
+  <si>
+    <t>眩晕</t>
+  </si>
+  <si>
+    <t>110203</t>
   </si>
   <si>
     <t>护盾</t>
@@ -378,6 +399,15 @@
   </si>
   <si>
     <t>110101</t>
+  </si>
+  <si>
+    <t>110201</t>
+  </si>
+  <si>
+    <t>110202</t>
+  </si>
+  <si>
+    <t>眩晕:1</t>
   </si>
   <si>
     <t>110301</t>
@@ -1608,8 +1638,8 @@
   <sheetPr/>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1796,11 +1826,14 @@
       <c r="C7" s="8" t="s">
         <v>33</v>
       </c>
+      <c r="H7" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="I7" s="27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="27"/>
       <c r="L7" s="27"/>
@@ -1810,10 +1843,10 @@
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" s="8">
         <v>90</v>
@@ -1835,10 +1868,10 @@
     <row r="9" s="23" customFormat="1" spans="1:13">
       <c r="A9" s="8"/>
       <c r="B9" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G9" s="8">
         <v>3</v>
@@ -1849,7 +1882,7 @@
       </c>
       <c r="J9" s="27"/>
       <c r="K9" s="27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L9" s="27"/>
       <c r="M9" s="26">
@@ -1859,33 +1892,35 @@
     <row r="10" s="23" customFormat="1" spans="1:13">
       <c r="A10" s="8"/>
       <c r="B10" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27" t="s">
-        <v>43</v>
-      </c>
+      <c r="J10" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="27"/>
       <c r="L10" s="27"/>
-      <c r="M10" s="26"/>
+      <c r="M10" s="26" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="11" s="23" customFormat="1" spans="1:13">
       <c r="A11" s="8"/>
       <c r="B11" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J11" s="27" t="s">
         <v>31</v>
@@ -1893,97 +1928,100 @@
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
       <c r="M11" s="26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" s="23" customFormat="1" spans="1:13">
       <c r="A12" s="8"/>
       <c r="B12" s="26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J12" s="27"/>
       <c r="K12" s="27" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="L12" s="27"/>
       <c r="M12" s="26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" s="23" customFormat="1" spans="1:13">
       <c r="A13" s="8"/>
       <c r="B13" s="26" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
       <c r="M13" s="26" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" s="23" customFormat="1" spans="1:13">
       <c r="A14" s="8"/>
       <c r="B14" s="26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K14" s="27"/>
       <c r="L14" s="27" t="b">
         <v>1</v>
       </c>
       <c r="M14" s="26" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" s="24" customFormat="1" spans="1:2">
       <c r="A15" s="24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="8">
-        <v>90</v>
+        <v>65</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M16" s="26">
         <v>100101</v>
@@ -1998,10 +2036,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2024,19 +2062,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
@@ -2065,7 +2103,7 @@
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:7">
@@ -2076,91 +2114,92 @@
         <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F4" s="21" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:7">
       <c r="A5" s="2"/>
       <c r="B5" s="2">
+        <v>110201</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:7">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2">
         <v>120101</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="2">
-        <v>3</v>
+      <c r="C6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="2">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" s="20" customFormat="1" spans="1:9">
-      <c r="A6" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="17"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="2">
-        <v>40001</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="2">
-        <v>40001</v>
-      </c>
+    <row r="7" s="20" customFormat="1" spans="1:9">
+      <c r="A7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="2">
-        <v>40002</v>
+        <v>40001</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="2">
-        <v>10001</v>
+        <v>82</v>
       </c>
       <c r="F8" s="2">
-        <v>40002</v>
+        <v>40001</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="2">
-        <v>40003</v>
+        <v>40002</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E9" s="2">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="F9" s="2">
         <v>40002</v>
@@ -2168,16 +2207,16 @@
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="2">
-        <v>40004</v>
+        <v>40003</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E10" s="2">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="F10" s="2">
         <v>40002</v>
@@ -2185,371 +2224,381 @@
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="2">
-        <v>40005</v>
+        <v>40004</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E11" s="2">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="F11" s="2">
         <v>40002</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:6">
       <c r="B12" s="2">
+        <v>40005</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10004</v>
+      </c>
+      <c r="F12" s="2">
+        <v>40002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="2">
         <v>40010</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="2">
-        <v>40011</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="2">
-        <v>10001</v>
+        <v>82</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>81</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G13"/>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="2">
-        <v>40012</v>
+        <v>40011</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E14" s="2">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="2">
-        <v>40013</v>
+        <v>40012</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E15" s="2">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="2">
+        <v>40013</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="2">
+        <v>10003</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="2">
         <v>40014</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="C17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="2">
         <v>10004</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F17" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="2">
+        <v>40020</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="2">
-        <v>40020</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="8" t="s">
+      <c r="D18" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G17"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="2">
-        <v>40021</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="2">
-        <v>10001</v>
-      </c>
       <c r="F18" s="8" t="s">
-        <v>83</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G18"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="2">
-        <v>40022</v>
+        <v>40021</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E19" s="2">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="2">
-        <v>40023</v>
+        <v>40022</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E20" s="2">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="2">
+        <v>40023</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="2">
+        <v>10003</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="2">
         <v>40024</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="C22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="2">
         <v>10004</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>83</v>
+      <c r="F22" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="2">
+    <row r="23" spans="2:9">
+      <c r="B23" s="2">
         <v>40030</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G22"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="2">
-        <v>40031</v>
-      </c>
       <c r="C23" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="2">
-        <v>10001</v>
+        <v>82</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>85</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G23"/>
+      <c r="I23" s="2"/>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="2">
-        <v>40032</v>
+        <v>40031</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E24" s="2">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="2">
-        <v>40033</v>
+        <v>40032</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E25" s="2">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="2">
+        <v>40033</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="2">
+        <v>10003</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="2">
         <v>40034</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="C27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="2">
         <v>10004</v>
       </c>
-      <c r="F26" s="8" t="s">
-        <v>85</v>
+      <c r="F27" s="8" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="2">
+    <row r="28" spans="2:9">
+      <c r="B28" s="2">
         <v>40040</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G27"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="2">
-        <v>40041</v>
-      </c>
       <c r="C28" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="2">
-        <v>10001</v>
+        <v>82</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>87</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G28"/>
+      <c r="I28" s="2"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="2">
-        <v>40042</v>
+        <v>40041</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E29" s="2">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="2">
-        <v>40043</v>
+        <v>40042</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E30" s="2">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="2">
+        <v>40043</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="2">
+        <v>10003</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="2">
         <v>40044</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" s="2">
+      <c r="C32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="2">
         <v>10004</v>
       </c>
-      <c r="F31" s="8" t="s">
-        <v>87</v>
+      <c r="F32" s="8" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="32" s="7" customFormat="1" spans="1:2">
-      <c r="A32" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="3:9">
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="F33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
+    <row r="33" s="7" customFormat="1" spans="1:2">
+      <c r="A33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="34" spans="3:9">
       <c r="C34"/>
@@ -2557,6 +2606,13 @@
       <c r="F34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="3:9">
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="F35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2567,10 +2623,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFC47"/>
+  <dimension ref="A1:XFC50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15"/>
@@ -2598,31 +2654,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
@@ -2633,7 +2689,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:11">
@@ -2642,22 +2698,22 @@
       </c>
       <c r="B3" s="9"/>
       <c r="E3" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:11">
@@ -2668,22 +2724,22 @@
         <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:16383">
@@ -2691,7 +2747,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -19077,57 +19133,57 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="2:16382">
       <c r="B7" s="8" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F7" s="2">
         <v>1.1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="XFB7" s="2"/>
     </row>
     <row r="8" customFormat="1" spans="1:16382">
       <c r="A8" s="2"/>
       <c r="B8" s="8" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D8" s="2"/>
       <c r="F8" s="2">
         <v>0.6</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="XFB8" s="2"/>
     </row>
     <row r="9" customFormat="1" spans="1:16382">
       <c r="A9" s="2"/>
       <c r="B9" s="8" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -19141,458 +19197,512 @@
     <row r="10" customFormat="1" spans="1:16382">
       <c r="A10" s="2"/>
       <c r="B10" s="8" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="XFB10" s="2"/>
     </row>
     <row r="11" customFormat="1" spans="1:16382">
       <c r="A11" s="2"/>
       <c r="B11" s="8" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>118</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="K11" s="2">
-        <v>-1</v>
+      <c r="I11" s="2">
+        <v>110201</v>
       </c>
       <c r="XFB11" s="2"/>
     </row>
     <row r="12" customFormat="1" spans="1:16382">
       <c r="A12" s="2"/>
       <c r="B12" s="8" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="K12" s="2">
-        <v>1</v>
-      </c>
       <c r="XFB12" s="2"/>
     </row>
     <row r="13" customFormat="1" spans="1:16382">
       <c r="A13" s="2"/>
       <c r="B13" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>101</v>
+        <v>126</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>106</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2">
+        <v>0.5</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="2">
-        <v>120101</v>
-      </c>
-      <c r="K13" s="2"/>
       <c r="XFB13" s="2"/>
     </row>
     <row r="14" customFormat="1" spans="1:16382">
       <c r="A14" s="2"/>
       <c r="B14" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>120</v>
-      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="K14" s="2">
+        <v>-1</v>
+      </c>
       <c r="XFB14" s="2"/>
     </row>
     <row r="15" customFormat="1" spans="1:16382">
       <c r="A15" s="2"/>
       <c r="B15" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>99</v>
+        <v>129</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>120</v>
-      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
       <c r="XFB15" s="2"/>
     </row>
-    <row r="16" s="4" customFormat="1" spans="1:16382">
-      <c r="A16" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="XFB16" s="19"/>
+    <row r="16" customFormat="1" spans="1:16382">
+      <c r="A16" s="2"/>
+      <c r="B16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2">
+        <v>120101</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="XFB16" s="2"/>
     </row>
-    <row r="17" spans="2:16382">
+    <row r="17" customFormat="1" spans="1:16382">
+      <c r="A17" s="2"/>
       <c r="B17" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>123</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="K17" s="2"/>
       <c r="XFB17" s="2"/>
     </row>
-    <row r="18" spans="2:16382">
+    <row r="18" customFormat="1" spans="1:16382">
+      <c r="A18" s="2"/>
       <c r="B18" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>125</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="K18" s="2"/>
       <c r="XFB18" s="2"/>
     </row>
-    <row r="19" s="5" customFormat="1" spans="1:2">
-      <c r="A19" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>126</v>
-      </c>
+    <row r="19" s="4" customFormat="1" spans="1:16382">
+      <c r="A19" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="XFB19" s="19"/>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:16382">
       <c r="B20" s="8" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>128</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="XFB20" s="2"/>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:16382">
       <c r="B21" s="8" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>130</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="XFB21" s="2"/>
     </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>132</v>
+    <row r="22" s="5" customFormat="1" spans="1:2">
+      <c r="A22" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="8" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="8" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="8" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="8" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="8" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="8" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="8" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="8" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="34" s="6" customFormat="1" spans="1:2">
-      <c r="A34" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>73</v>
+    <row r="34" spans="2:5">
+      <c r="B34" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="2">
-        <v>40001</v>
+      <c r="B35" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="2">
-        <v>40002</v>
+      <c r="B36" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="8" t="s">
+    <row r="37" s="6" customFormat="1" spans="1:2">
+      <c r="A37" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="17" t="s">
         <v>80</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="8" t="s">
-        <v>81</v>
+      <c r="B38" s="2">
+        <v>40001</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="8" t="s">
-        <v>82</v>
+      <c r="B39" s="2">
+        <v>40002</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="8" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" s="8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
-    <row r="45" s="7" customFormat="1" spans="1:2">
-      <c r="A45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>88</v>
+    <row r="45" spans="2:5">
+      <c r="B45" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="2:5">
       <c r="B46" s="8" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="2:5">
       <c r="B47" s="8" t="s">
-        <v>163</v>
+        <v>94</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" s="7" customFormat="1" spans="1:2">
+      <c r="A48" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -19626,7 +19736,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
@@ -19658,7 +19768,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="2:3">

--- a/新导表工具/DataTables/Datas/技能表.xlsx
+++ b/新导表工具/DataTables/Datas/技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800"/>
+    <workbookView windowWidth="25600" windowHeight="10600"/>
   </bookViews>
   <sheets>
     <sheet name="技能表" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="181">
   <si>
     <t>##var</t>
   </si>
@@ -215,6 +215,9 @@
     <t>火云</t>
   </si>
   <si>
+    <t>TRUE</t>
+  </si>
+  <si>
     <t>120301</t>
   </si>
   <si>
@@ -231,6 +234,15 @@
   </si>
   <si>
     <t>80</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>天谴</t>
+  </si>
+  <si>
+    <t>1000</t>
   </si>
   <si>
     <t>$type</t>
@@ -386,10 +398,10 @@
     <t>技能</t>
   </si>
   <si>
-    <t>100101</t>
+    <t>物理</t>
   </si>
   <si>
-    <t>物理</t>
+    <t>100101</t>
   </si>
   <si>
     <t>100201</t>
@@ -1636,10 +1648,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1992,30 +2004,30 @@
         <v>52</v>
       </c>
       <c r="K14" s="27"/>
-      <c r="L14" s="27" t="b">
-        <v>1</v>
+      <c r="L14" s="27" t="s">
+        <v>61</v>
       </c>
       <c r="M14" s="26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" s="24" customFormat="1" spans="1:2">
       <c r="A15" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>57</v>
@@ -2025,6 +2037,29 @@
       </c>
       <c r="M16" s="26">
         <v>100101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2062,19 +2097,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
@@ -2103,7 +2138,7 @@
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:7">
@@ -2114,19 +2149,19 @@
         <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F4" s="21" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:7">
@@ -2135,13 +2170,13 @@
         <v>110201</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
@@ -2153,10 +2188,10 @@
         <v>120101</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="2">
@@ -2165,10 +2200,10 @@
     </row>
     <row r="7" s="20" customFormat="1" spans="1:9">
       <c r="A7" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F7" s="17"/>
       <c r="H7" s="22"/>
@@ -2179,10 +2214,10 @@
         <v>40001</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F8" s="2">
         <v>40001</v>
@@ -2193,10 +2228,10 @@
         <v>40002</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E9" s="2">
         <v>10001</v>
@@ -2210,10 +2245,10 @@
         <v>40003</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E10" s="2">
         <v>10002</v>
@@ -2227,10 +2262,10 @@
         <v>40004</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E11" s="2">
         <v>10003</v>
@@ -2244,10 +2279,10 @@
         <v>40005</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E12" s="2">
         <v>10004</v>
@@ -2261,13 +2296,13 @@
         <v>40010</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G13"/>
       <c r="I13" s="2"/>
@@ -2277,16 +2312,16 @@
         <v>40011</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E14" s="2">
         <v>10001</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -2294,16 +2329,16 @@
         <v>40012</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E15" s="2">
         <v>10002</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -2311,16 +2346,16 @@
         <v>40013</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E16" s="2">
         <v>10003</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -2328,16 +2363,16 @@
         <v>40014</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E17" s="2">
         <v>10004</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="2:9">
@@ -2345,13 +2380,13 @@
         <v>40020</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G18"/>
       <c r="I18" s="2"/>
@@ -2361,16 +2396,16 @@
         <v>40021</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E19" s="2">
         <v>10001</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -2378,16 +2413,16 @@
         <v>40022</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E20" s="2">
         <v>10002</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -2395,16 +2430,16 @@
         <v>40023</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E21" s="2">
         <v>10003</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -2412,16 +2447,16 @@
         <v>40024</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E22" s="2">
         <v>10004</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="2:9">
@@ -2429,13 +2464,13 @@
         <v>40030</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G23"/>
       <c r="I23" s="2"/>
@@ -2445,16 +2480,16 @@
         <v>40031</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E24" s="2">
         <v>10001</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="2:6">
@@ -2462,16 +2497,16 @@
         <v>40032</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E25" s="2">
         <v>10002</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -2479,16 +2514,16 @@
         <v>40033</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E26" s="2">
         <v>10003</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="2:6">
@@ -2496,16 +2531,16 @@
         <v>40034</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E27" s="2">
         <v>10004</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="2:9">
@@ -2513,13 +2548,13 @@
         <v>40040</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G28"/>
       <c r="I28" s="2"/>
@@ -2529,16 +2564,16 @@
         <v>40041</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E29" s="2">
         <v>10001</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="2:6">
@@ -2546,16 +2581,16 @@
         <v>40042</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E30" s="2">
         <v>10002</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="2:6">
@@ -2563,16 +2598,16 @@
         <v>40043</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E31" s="2">
         <v>10003</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="2:6">
@@ -2580,24 +2615,24 @@
         <v>40044</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E32" s="2">
         <v>10004</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" s="7" customFormat="1" spans="1:2">
       <c r="A33" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="3:9">
@@ -2623,10 +2658,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFC50"/>
+  <dimension ref="A1:XFC51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15"/>
@@ -2654,31 +2689,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
@@ -2689,7 +2724,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:11">
@@ -2698,22 +2733,22 @@
       </c>
       <c r="B3" s="9"/>
       <c r="E3" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:11">
@@ -2724,22 +2759,22 @@
         <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:16383">
@@ -2747,7 +2782,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -19133,134 +19168,131 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="8" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F6" s="2">
+        <v>100</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="2">
         <v>1</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>119</v>
+      <c r="G7" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
-    <row r="7" spans="2:16382">
-      <c r="B7" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="2">
+    <row r="8" spans="2:16382">
+      <c r="B8" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="2">
         <v>1.1</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="XFB7" s="2"/>
-    </row>
-    <row r="8" customFormat="1" spans="1:16382">
-      <c r="A8" s="2"/>
-      <c r="B8" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="F8" s="2">
-        <v>0.6</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="XFB8" s="2"/>
     </row>
     <row r="9" customFormat="1" spans="1:16382">
       <c r="A9" s="2"/>
       <c r="B9" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="F9" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2">
-        <v>0.15</v>
       </c>
       <c r="XFB9" s="2"/>
     </row>
     <row r="10" customFormat="1" spans="1:16382">
       <c r="A10" s="2"/>
       <c r="B10" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>106</v>
+        <v>126</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2">
+        <v>0.15</v>
+      </c>
       <c r="XFB10" s="2"/>
     </row>
     <row r="11" customFormat="1" spans="1:16382">
       <c r="A11" s="2"/>
       <c r="B11" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="F11" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="2">
-        <v>110201</v>
-      </c>
       <c r="XFB11" s="2"/>
     </row>
     <row r="12" customFormat="1" spans="1:16382">
       <c r="A12" s="2"/>
       <c r="B12" s="8" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
+      <c r="I12" s="2">
+        <v>110201</v>
+      </c>
       <c r="XFB12" s="2"/>
     </row>
     <row r="13" customFormat="1" spans="1:16382">
       <c r="A13" s="2"/>
       <c r="B13" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>106</v>
+        <v>81</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="E13" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="XFB13" s="2"/>
@@ -19268,441 +19300,458 @@
     <row r="14" customFormat="1" spans="1:16382">
       <c r="A14" s="2"/>
       <c r="B14" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2">
+        <v>0.5</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="K14" s="2">
-        <v>-1</v>
-      </c>
       <c r="XFB14" s="2"/>
     </row>
     <row r="15" customFormat="1" spans="1:16382">
       <c r="A15" s="2"/>
       <c r="B15" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="K15" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="XFB15" s="2"/>
     </row>
     <row r="16" customFormat="1" spans="1:16382">
       <c r="A16" s="2"/>
       <c r="B16" s="8" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="2">
-        <v>120101</v>
-      </c>
-      <c r="K16" s="2"/>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
       <c r="XFB16" s="2"/>
     </row>
     <row r="17" customFormat="1" spans="1:16382">
       <c r="A17" s="2"/>
       <c r="B17" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>106</v>
+        <v>54</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>130</v>
-      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
       <c r="H17" s="2"/>
+      <c r="I17" s="2">
+        <v>120101</v>
+      </c>
       <c r="K17" s="2"/>
       <c r="XFB17" s="2"/>
     </row>
     <row r="18" customFormat="1" spans="1:16382">
       <c r="A18" s="2"/>
       <c r="B18" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H18" s="2"/>
       <c r="K18" s="2"/>
       <c r="XFB18" s="2"/>
     </row>
-    <row r="19" s="4" customFormat="1" spans="1:16382">
-      <c r="A19" s="14" t="s">
+    <row r="19" customFormat="1" spans="1:16382">
+      <c r="A19" s="2"/>
+      <c r="B19" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="XFB19" s="19"/>
+      <c r="C19" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="XFB19" s="2"/>
     </row>
-    <row r="20" spans="2:16382">
-      <c r="B20" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="XFB20" s="2"/>
+    <row r="20" s="4" customFormat="1" spans="1:16382">
+      <c r="A20" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="XFB20" s="19"/>
     </row>
     <row r="21" spans="2:16382">
       <c r="B21" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="XFB21" s="2"/>
     </row>
-    <row r="22" s="5" customFormat="1" spans="1:2">
-      <c r="A22" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>136</v>
-      </c>
+    <row r="22" spans="2:16382">
+      <c r="B22" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="XFB22" s="2"/>
     </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>138</v>
+    <row r="23" s="5" customFormat="1" spans="1:2">
+      <c r="A23" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="37" s="6" customFormat="1" spans="1:2">
-      <c r="A37" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>80</v>
+    <row r="37" spans="2:5">
+      <c r="B37" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
-    <row r="38" spans="2:5">
-      <c r="B38" s="2">
-        <v>40001</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>165</v>
+    <row r="38" s="6" customFormat="1" spans="1:2">
+      <c r="A38" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="2">
-        <v>40002</v>
+        <v>40001</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="8" t="s">
-        <v>87</v>
+      <c r="B40" s="2">
+        <v>40002</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="2:5">
       <c r="B45" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="2:5">
       <c r="B46" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="2:5">
       <c r="B47" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="48" s="7" customFormat="1" spans="1:2">
-      <c r="A48" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>95</v>
+    <row r="48" spans="2:5">
+      <c r="B48" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
-    <row r="49" spans="2:5">
-      <c r="B49" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>172</v>
+    <row r="49" s="7" customFormat="1" spans="1:2">
+      <c r="A49" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="2:5">
       <c r="B50" s="8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -19736,7 +19785,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
@@ -19768,7 +19817,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="2:3">

--- a/新导表工具/DataTables/Datas/技能表.xlsx
+++ b/新导表工具/DataTables/Datas/技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10600"/>
+    <workbookView windowHeight="17800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="技能表" sheetId="6" r:id="rId1"/>
@@ -1285,6 +1285,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1296,9 +1299,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1318,10 +1318,10 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1650,7 +1650,7 @@
   <sheetPr/>
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1752,7 +1752,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" spans="1:12">
+    <row r="3" s="9" customFormat="1" spans="1:13">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="1:13">
       <c r="B6" s="8">
         <v>1001</v>
       </c>
@@ -1819,19 +1819,19 @@
       <c r="H6" s="8">
         <v>95</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="26">
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="27">
         <v>100101</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="1:13">
       <c r="B7" s="8" t="s">
         <v>32</v>
       </c>
@@ -1841,19 +1841,19 @@
       <c r="H7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="26">
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="27">
         <v>100201</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="1:13">
       <c r="B8" s="8" t="s">
         <v>37</v>
       </c>
@@ -1863,17 +1863,17 @@
       <c r="H8" s="8">
         <v>90</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27" t="b">
+      <c r="K8" s="26"/>
+      <c r="L8" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="M8" s="26">
+      <c r="M8" s="27">
         <v>100301</v>
       </c>
     </row>
@@ -1889,15 +1889,15 @@
         <v>3</v>
       </c>
       <c r="H9" s="8"/>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27" t="s">
+      <c r="J9" s="26"/>
+      <c r="K9" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="27"/>
-      <c r="M9" s="26">
+      <c r="L9" s="26"/>
+      <c r="M9" s="27">
         <v>110101</v>
       </c>
     </row>
@@ -1910,15 +1910,15 @@
         <v>43</v>
       </c>
       <c r="H10" s="8"/>
-      <c r="I10" s="27" t="s">
+      <c r="I10" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="27" t="s">
+      <c r="J10" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="26" t="s">
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="27" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1931,21 +1931,21 @@
         <v>46</v>
       </c>
       <c r="H11" s="8"/>
-      <c r="I11" s="27" t="s">
+      <c r="I11" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="26" t="s">
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="27" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" s="23" customFormat="1" spans="1:13">
       <c r="A12" s="8"/>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="27" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -1955,71 +1955,71 @@
         <v>51</v>
       </c>
       <c r="H12" s="8"/>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27" t="s">
+      <c r="J12" s="26"/>
+      <c r="K12" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="L12" s="27"/>
-      <c r="M12" s="26" t="s">
+      <c r="L12" s="26"/>
+      <c r="M12" s="27" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" s="23" customFormat="1" spans="1:13">
       <c r="A13" s="8"/>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="27" t="s">
         <v>55</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>56</v>
       </c>
       <c r="H13" s="8"/>
-      <c r="I13" s="27" t="s">
+      <c r="I13" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="27" t="s">
+      <c r="J13" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="26" t="s">
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="27" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" s="23" customFormat="1" spans="1:13">
       <c r="A14" s="8"/>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="27" t="s">
         <v>59</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>60</v>
       </c>
       <c r="H14" s="8"/>
-      <c r="I14" s="27" t="s">
+      <c r="I14" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="J14" s="27" t="s">
+      <c r="J14" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27" t="s">
+      <c r="K14" s="26"/>
+      <c r="L14" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="M14" s="26" t="s">
+      <c r="M14" s="27" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" s="24" customFormat="1" spans="1:2">
+    <row r="15" s="24" customFormat="1" spans="1:13">
       <c r="A15" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="1:13">
       <c r="B16" s="8" t="s">
         <v>65</v>
       </c>
@@ -2035,7 +2035,7 @@
       <c r="J16" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="M16" s="26">
+      <c r="M16" s="27">
         <v>100101</v>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
+    <row r="2" s="1" customFormat="1" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:7">
+    <row r="3" s="1" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
+    <row r="4" s="1" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:7">
+    <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="2"/>
       <c r="B5" s="2">
         <v>110201</v>
@@ -2182,7 +2182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:7">
+    <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="2"/>
       <c r="B6" s="2">
         <v>120101</v>
@@ -2205,11 +2205,11 @@
       <c r="B7" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="17"/>
+      <c r="F7" s="18"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="1:9">
       <c r="B8" s="2">
         <v>40001</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>40001</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="1:9">
       <c r="B9" s="2">
         <v>40002</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>40002</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="1:9">
       <c r="B10" s="2">
         <v>40003</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>40002</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="1:9">
       <c r="B11" s="2">
         <v>40004</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>40002</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="1:9">
       <c r="B12" s="2">
         <v>40005</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>40002</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="1:9">
       <c r="B13" s="2">
         <v>40010</v>
       </c>
@@ -2307,7 +2307,7 @@
       <c r="G13"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="1:9">
       <c r="B14" s="2">
         <v>40011</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="1:9">
       <c r="B15" s="2">
         <v>40012</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="1:9">
       <c r="B16" s="2">
         <v>40013</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:9">
       <c r="B17" s="2">
         <v>40014</v>
       </c>
@@ -2391,7 +2391,7 @@
       <c r="G18"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:9">
       <c r="B19" s="2">
         <v>40021</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:9">
       <c r="B20" s="2">
         <v>40022</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:9">
       <c r="B21" s="2">
         <v>40023</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:9">
       <c r="B22" s="2">
         <v>40024</v>
       </c>
@@ -2475,7 +2475,7 @@
       <c r="G23"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:9">
       <c r="B24" s="2">
         <v>40031</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:9">
       <c r="B25" s="2">
         <v>40032</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:9">
       <c r="B26" s="2">
         <v>40033</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:9">
       <c r="B27" s="2">
         <v>40034</v>
       </c>
@@ -2559,7 +2559,7 @@
       <c r="G28"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:9">
       <c r="B29" s="2">
         <v>40041</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:9">
       <c r="B30" s="2">
         <v>40042</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:9">
       <c r="B31" s="2">
         <v>40043</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:9">
       <c r="B32" s="2">
         <v>40044</v>
       </c>
@@ -2627,22 +2627,22 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" s="7" customFormat="1" spans="1:2">
+    <row r="33" s="7" customFormat="1" spans="1:9">
       <c r="A33" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="3:9">
+    <row r="34" spans="1:9">
       <c r="C34"/>
       <c r="D34"/>
       <c r="F34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="3:9">
+    <row r="35" spans="1:9">
       <c r="C35"/>
       <c r="D35"/>
       <c r="F35" s="2"/>
@@ -2660,8 +2660,8 @@
   <sheetPr/>
   <dimension ref="A1:XFC51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15"/>
@@ -2681,7 +2681,7 @@
     <col min="16383" max="16384" width="9.16666666666667" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" spans="1:1024 1025:16383">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:4">
+    <row r="2" s="1" customFormat="1" spans="1:1024 1025:16383">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:11">
+    <row r="3" s="1" customFormat="1" spans="1:1024 1025:16383">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:11">
+    <row r="4" s="1" customFormat="1" spans="1:1024 1025:16383">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:16383">
+    <row r="5" s="3" customFormat="1" spans="1:1024 1025:16383">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
@@ -19166,7 +19166,7 @@
       <c r="XFB5" s="12"/>
       <c r="XFC5" s="12"/>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="1:1024 1025:16383">
       <c r="B6" s="8" t="s">
         <v>68</v>
       </c>
@@ -19180,7 +19180,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="1:1024 1025:16383">
       <c r="B7" s="8" t="s">
         <v>123</v>
       </c>
@@ -19194,7 +19194,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="2:16382">
+    <row r="8" spans="1:1024 1025:16383">
       <c r="B8" s="8" t="s">
         <v>124</v>
       </c>
@@ -19209,7 +19209,7 @@
       </c>
       <c r="XFB8" s="2"/>
     </row>
-    <row r="9" customFormat="1" spans="1:16382">
+    <row r="9" customFormat="1" spans="1:1024 1025:16383">
       <c r="A9" s="2"/>
       <c r="B9" s="8" t="s">
         <v>125</v>
@@ -19226,7 +19226,7 @@
       </c>
       <c r="XFB9" s="2"/>
     </row>
-    <row r="10" customFormat="1" spans="1:16382">
+    <row r="10" customFormat="1" spans="1:1024 1025:16383">
       <c r="A10" s="2"/>
       <c r="B10" s="8" t="s">
         <v>126</v>
@@ -19243,7 +19243,7 @@
       </c>
       <c r="XFB10" s="2"/>
     </row>
-    <row r="11" customFormat="1" spans="1:16382">
+    <row r="11" customFormat="1" spans="1:1024 1025:16383">
       <c r="A11" s="2"/>
       <c r="B11" s="8" t="s">
         <v>127</v>
@@ -19262,7 +19262,7 @@
       <c r="H11" s="2"/>
       <c r="XFB11" s="2"/>
     </row>
-    <row r="12" customFormat="1" spans="1:16382">
+    <row r="12" customFormat="1" spans="1:1024 1025:16383">
       <c r="A12" s="2"/>
       <c r="B12" s="8" t="s">
         <v>128</v>
@@ -19280,7 +19280,7 @@
       </c>
       <c r="XFB12" s="2"/>
     </row>
-    <row r="13" customFormat="1" spans="1:16382">
+    <row r="13" customFormat="1" spans="1:1024 1025:16383">
       <c r="A13" s="2"/>
       <c r="B13" s="8" t="s">
         <v>81</v>
@@ -19297,7 +19297,7 @@
       <c r="H13" s="2"/>
       <c r="XFB13" s="2"/>
     </row>
-    <row r="14" customFormat="1" spans="1:16382">
+    <row r="14" customFormat="1" spans="1:1024 1025:16383">
       <c r="A14" s="2"/>
       <c r="B14" s="8" t="s">
         <v>130</v>
@@ -19314,7 +19314,7 @@
       <c r="H14" s="2"/>
       <c r="XFB14" s="2"/>
     </row>
-    <row r="15" customFormat="1" spans="1:16382">
+    <row r="15" customFormat="1" spans="1:1024 1025:16383">
       <c r="A15" s="2"/>
       <c r="B15" s="8" t="s">
         <v>131</v>
@@ -19334,7 +19334,7 @@
       </c>
       <c r="XFB15" s="2"/>
     </row>
-    <row r="16" customFormat="1" spans="1:16382">
+    <row r="16" customFormat="1" spans="1:1024 1025:16383">
       <c r="A16" s="2"/>
       <c r="B16" s="8" t="s">
         <v>133</v>
@@ -19352,7 +19352,7 @@
       </c>
       <c r="XFB16" s="2"/>
     </row>
-    <row r="17" customFormat="1" spans="1:16382">
+    <row r="17" customFormat="1" spans="1:11 16382:16382">
       <c r="A17" s="2"/>
       <c r="B17" s="8" t="s">
         <v>54</v>
@@ -19371,7 +19371,7 @@
       <c r="K17" s="2"/>
       <c r="XFB17" s="2"/>
     </row>
-    <row r="18" customFormat="1" spans="1:16382">
+    <row r="18" customFormat="1" spans="1:11 16382:16382">
       <c r="A18" s="2"/>
       <c r="B18" s="8" t="s">
         <v>58</v>
@@ -19391,7 +19391,7 @@
       <c r="K18" s="2"/>
       <c r="XFB18" s="2"/>
     </row>
-    <row r="19" customFormat="1" spans="1:16382">
+    <row r="19" customFormat="1" spans="1:11 16382:16382">
       <c r="A19" s="2"/>
       <c r="B19" s="8" t="s">
         <v>62</v>
@@ -19411,16 +19411,16 @@
       <c r="K19" s="2"/>
       <c r="XFB19" s="2"/>
     </row>
-    <row r="20" s="4" customFormat="1" spans="1:16382">
+    <row r="20" s="4" customFormat="1" spans="1:11 16382:16382">
       <c r="A20" s="14" t="s">
         <v>63</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="XFB20" s="19"/>
+      <c r="XFB20" s="15"/>
     </row>
-    <row r="21" spans="2:16382">
+    <row r="21" spans="1:11 16382:16382">
       <c r="B21" s="8" t="s">
         <v>136</v>
       </c>
@@ -19432,7 +19432,7 @@
       </c>
       <c r="XFB21" s="2"/>
     </row>
-    <row r="22" spans="2:16382">
+    <row r="22" spans="1:11 16382:16382">
       <c r="B22" s="8" t="s">
         <v>138</v>
       </c>
@@ -19444,15 +19444,15 @@
       </c>
       <c r="XFB22" s="2"/>
     </row>
-    <row r="23" s="5" customFormat="1" spans="1:2">
-      <c r="A23" s="15" t="s">
+    <row r="23" s="5" customFormat="1" spans="1:11 16382:16382">
+      <c r="A23" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="17" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="1:11 16382:16382">
       <c r="B24" s="8" t="s">
         <v>141</v>
       </c>
@@ -19463,7 +19463,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="1:11 16382:16382">
       <c r="B25" s="8" t="s">
         <v>143</v>
       </c>
@@ -19474,7 +19474,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="1:11 16382:16382">
       <c r="B26" s="8" t="s">
         <v>145</v>
       </c>
@@ -19485,7 +19485,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="1:11 16382:16382">
       <c r="B27" s="8" t="s">
         <v>147</v>
       </c>
@@ -19496,7 +19496,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="1:11 16382:16382">
       <c r="B28" s="8" t="s">
         <v>149</v>
       </c>
@@ -19507,7 +19507,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="1:11 16382:16382">
       <c r="B29" s="8" t="s">
         <v>151</v>
       </c>
@@ -19518,7 +19518,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="1:11 16382:16382">
       <c r="B30" s="8" t="s">
         <v>153</v>
       </c>
@@ -19529,7 +19529,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="1:11 16382:16382">
       <c r="B31" s="8" t="s">
         <v>155</v>
       </c>
@@ -19540,7 +19540,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="2:5">
+    <row r="32" spans="1:11 16382:16382">
       <c r="B32" s="8" t="s">
         <v>157</v>
       </c>
@@ -19551,7 +19551,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="1:5">
       <c r="B33" s="8" t="s">
         <v>159</v>
       </c>
@@ -19562,7 +19562,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="2:5">
+    <row r="34" spans="1:5">
       <c r="B34" s="8" t="s">
         <v>161</v>
       </c>
@@ -19573,7 +19573,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="2:5">
+    <row r="35" spans="1:5">
       <c r="B35" s="8" t="s">
         <v>163</v>
       </c>
@@ -19584,7 +19584,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="2:5">
+    <row r="36" spans="1:5">
       <c r="B36" s="8" t="s">
         <v>165</v>
       </c>
@@ -19595,7 +19595,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="2:5">
+    <row r="37" spans="1:5">
       <c r="B37" s="8" t="s">
         <v>167</v>
       </c>
@@ -19606,15 +19606,15 @@
         <v>168</v>
       </c>
     </row>
-    <row r="38" s="6" customFormat="1" spans="1:2">
+    <row r="38" s="6" customFormat="1" spans="1:5">
       <c r="A38" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="2:5">
+    <row r="39" spans="1:5">
       <c r="B39" s="2">
         <v>40001</v>
       </c>
@@ -19625,7 +19625,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="40" spans="2:5">
+    <row r="40" spans="1:5">
       <c r="B40" s="2">
         <v>40002</v>
       </c>
@@ -19636,7 +19636,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="2:5">
+    <row r="41" spans="1:5">
       <c r="B41" s="8" t="s">
         <v>91</v>
       </c>
@@ -19647,7 +19647,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="42" spans="2:5">
+    <row r="42" spans="1:5">
       <c r="B42" s="8" t="s">
         <v>92</v>
       </c>
@@ -19658,7 +19658,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="2:5">
+    <row r="43" spans="1:5">
       <c r="B43" s="8" t="s">
         <v>93</v>
       </c>
@@ -19669,7 +19669,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="44" spans="2:5">
+    <row r="44" spans="1:5">
       <c r="B44" s="8" t="s">
         <v>94</v>
       </c>
@@ -19680,7 +19680,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="2:5">
+    <row r="45" spans="1:5">
       <c r="B45" s="8" t="s">
         <v>95</v>
       </c>
@@ -19691,7 +19691,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="46" spans="2:5">
+    <row r="46" spans="1:5">
       <c r="B46" s="8" t="s">
         <v>96</v>
       </c>
@@ -19702,7 +19702,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="47" spans="2:5">
+    <row r="47" spans="1:5">
       <c r="B47" s="8" t="s">
         <v>97</v>
       </c>
@@ -19713,7 +19713,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="48" spans="2:5">
+    <row r="48" spans="1:5">
       <c r="B48" s="8" t="s">
         <v>98</v>
       </c>
@@ -19724,15 +19724,15 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" s="7" customFormat="1" spans="1:2">
+    <row r="49" s="7" customFormat="1" spans="1:5">
       <c r="A49" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="2:5">
+    <row r="50" spans="1:5">
       <c r="B50" s="8" t="s">
         <v>175</v>
       </c>
@@ -19743,7 +19743,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="51" spans="2:5">
+    <row r="51" spans="1:5">
       <c r="B51" s="8" t="s">
         <v>177</v>
       </c>
@@ -19799,12 +19799,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:1">
+    <row r="3" s="1" customFormat="1" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:1">
+    <row r="4" s="1" customFormat="1" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -19820,7 +19820,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="1:3">
       <c r="B6" s="2">
         <v>10001</v>
       </c>
@@ -19828,7 +19828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="1:3">
       <c r="B7" s="2">
         <v>10002</v>
       </c>
@@ -19836,7 +19836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="1:3">
       <c r="B8" s="2">
         <v>10003</v>
       </c>
@@ -19844,7 +19844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="1:3">
       <c r="B9" s="2">
         <v>10004</v>
       </c>
